--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="391">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1394,10 +1394,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>10000,30000,50000,80000,1000000,-1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>xiyou_task_money</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1410,11 +1406,131 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>101,102,103,104,105</t>
+    <t>is_auto_get_award|是否自动领奖 1自动领奖</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>is_auto_get_award|是否自动领奖 1自动领奖</t>
+    <t>800000,2500000,12500000,25000000,75000000,230000000,-1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,102,103,104,105,106,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buyu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_challenge_task1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buyu_3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_challenge_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buyu_3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_challenge_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼挑战任务4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buyu_3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_challenge_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1555,7 +1671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1678,6 +1794,18 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1961,11 +2089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4682,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D76" s="35" t="s">
         <v>364</v>
@@ -5021,6 +5149,146 @@
         <v>32503651200</v>
       </c>
       <c r="K85" s="14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="14">
+        <v>86</v>
+      </c>
+      <c r="B86" s="11">
+        <v>1</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F86" s="14">
+        <v>86</v>
+      </c>
+      <c r="G86" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="11">
+        <v>1</v>
+      </c>
+      <c r="I86" s="11">
+        <v>946677600</v>
+      </c>
+      <c r="J86" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K86" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="14">
+        <v>87</v>
+      </c>
+      <c r="B87" s="11">
+        <v>1</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F87" s="14">
+        <v>87</v>
+      </c>
+      <c r="G87" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" s="11">
+        <v>1</v>
+      </c>
+      <c r="I87" s="11">
+        <v>946677600</v>
+      </c>
+      <c r="J87" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K87" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="14">
+        <v>88</v>
+      </c>
+      <c r="B88" s="11">
+        <v>1</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F88" s="14">
+        <v>88</v>
+      </c>
+      <c r="G88" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="11">
+        <v>1</v>
+      </c>
+      <c r="I88" s="11">
+        <v>946677600</v>
+      </c>
+      <c r="J88" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K88" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="11">
+        <v>89</v>
+      </c>
+      <c r="B89" s="11">
+        <v>1</v>
+      </c>
+      <c r="C89" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="D89" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F89" s="11">
+        <v>89</v>
+      </c>
+      <c r="G89" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="11">
+        <v>1</v>
+      </c>
+      <c r="I89" s="11">
+        <v>946677600</v>
+      </c>
+      <c r="J89" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K89" s="11">
         <v>-1</v>
       </c>
     </row>
@@ -5033,11 +5301,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5080,7 +5348,7 @@
         <v>147</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K1" s="21"/>
     </row>
@@ -6858,7 +7126,7 @@
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>172</v>
@@ -7268,31 +7536,131 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="A86" s="14">
         <v>85</v>
       </c>
-      <c r="B86" s="42">
+      <c r="B86" s="14">
         <v>85</v>
       </c>
       <c r="C86" s="42"/>
-      <c r="D86" s="42">
+      <c r="D86" s="15">
         <v>85</v>
       </c>
       <c r="E86" s="42">
         <v>0</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G86" s="42"/>
       <c r="H86" s="44" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I86" s="43" t="s">
         <v>379</v>
       </c>
       <c r="J86">
         <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="14">
+        <v>86</v>
+      </c>
+      <c r="B87" s="14">
+        <v>86</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="15">
+        <v>86</v>
+      </c>
+      <c r="E87" s="46">
+        <v>0</v>
+      </c>
+      <c r="F87" s="46">
+        <v>99999</v>
+      </c>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="14">
+        <v>87</v>
+      </c>
+      <c r="B88" s="14">
+        <v>87</v>
+      </c>
+      <c r="C88" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="15">
+        <v>87</v>
+      </c>
+      <c r="E88" s="46">
+        <v>0</v>
+      </c>
+      <c r="F88" s="46">
+        <v>99999</v>
+      </c>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="14">
+        <v>88</v>
+      </c>
+      <c r="B89" s="14">
+        <v>88</v>
+      </c>
+      <c r="C89" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="15">
+        <v>88</v>
+      </c>
+      <c r="E89" s="46">
+        <v>0</v>
+      </c>
+      <c r="F89" s="46">
+        <v>99999</v>
+      </c>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="14">
+        <v>89</v>
+      </c>
+      <c r="B90" s="14">
+        <v>89</v>
+      </c>
+      <c r="C90" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="15">
+        <v>89</v>
+      </c>
+      <c r="E90" s="47">
+        <v>0</v>
+      </c>
+      <c r="F90" s="47">
+        <v>99999</v>
+      </c>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="47" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -7304,10 +7672,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8871,9 +9239,74 @@
         <v>85</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D92" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="15">
+        <v>92</v>
+      </c>
+      <c r="B93" s="15">
+        <v>86</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" s="15">
+        <v>0</v>
+      </c>
+      <c r="E93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+    </row>
+    <row r="94" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="15">
+        <v>93</v>
+      </c>
+      <c r="B94" s="15">
+        <v>87</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="15">
+        <v>0</v>
+      </c>
+      <c r="E94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+    </row>
+    <row r="95" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="15">
+        <v>94</v>
+      </c>
+      <c r="B95" s="15">
+        <v>88</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="15">
+        <v>0</v>
+      </c>
+      <c r="E95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4">
+        <v>89</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="15">
         <v>0</v>
       </c>
     </row>
@@ -8888,7 +9321,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
@@ -10055,11 +10488,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11834,7 +12267,7 @@
         <v>222</v>
       </c>
       <c r="D97" s="4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E97" s="4">
         <v>1</v>
@@ -11851,7 +12284,7 @@
         <v>222</v>
       </c>
       <c r="D98" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E98" s="4">
         <v>1</v>
@@ -11868,7 +12301,7 @@
         <v>222</v>
       </c>
       <c r="D99" s="4">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="E99" s="4">
         <v>1</v>
@@ -11885,7 +12318,7 @@
         <v>222</v>
       </c>
       <c r="D100" s="4">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E100" s="4">
         <v>1</v>
@@ -11902,9 +12335,26 @@
         <v>222</v>
       </c>
       <c r="D101" s="42">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="11">
+        <v>101</v>
+      </c>
+      <c r="B102" s="45">
+        <v>106</v>
+      </c>
+      <c r="C102" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D102" s="45">
         <v>10000</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E102" s="45">
         <v>1</v>
       </c>
     </row>
@@ -12052,10 +12502,10 @@
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="49">
         <v>1</v>
       </c>
     </row>
@@ -12063,8 +12513,8 @@
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -12114,10 +12564,10 @@
       <c r="A8" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="49" t="s">
         <v>281</v>
       </c>
     </row>
@@ -12125,17 +12575,17 @@
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="49">
         <v>1</v>
       </c>
     </row>
@@ -12143,8 +12593,8 @@
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -12249,10 +12699,10 @@
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="50">
         <v>1</v>
       </c>
     </row>
@@ -12260,8 +12710,8 @@
       <c r="A22" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -45267,10 +45717,10 @@
       <c r="A45" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="49" t="s">
         <v>281</v>
       </c>
     </row>
@@ -45278,8 +45728,8 @@
       <c r="A46" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -45382,16 +45832,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="397">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1522,15 +1522,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
     <t>buyu_3d_award</t>
   </si>
   <si>
@@ -1553,6 +1544,18 @@
   </si>
   <si>
     <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_return_gift_lb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_return_gift_lb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_return_gift_lb</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1705,7 +1708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1838,12 +1841,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1876,6 +1873,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2154,9 +2160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4935,108 +4941,108 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="51">
+    <row r="78" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="49">
         <v>78</v>
       </c>
-      <c r="B78" s="51">
+      <c r="B78" s="49">
         <v>1</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C78" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="E78" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" s="51">
+      <c r="E78" s="62" t="s">
+        <v>394</v>
+      </c>
+      <c r="F78" s="49">
         <v>78</v>
       </c>
-      <c r="G78" s="51" t="b">
+      <c r="G78" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="H78" s="51">
+      <c r="H78" s="49">
         <v>1</v>
       </c>
-      <c r="I78" s="51">
+      <c r="I78" s="49">
         <v>946677600</v>
       </c>
-      <c r="J78" s="51">
+      <c r="J78" s="49">
         <v>32503651200</v>
       </c>
-      <c r="K78" s="51">
+      <c r="K78" s="49">
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="51">
+    <row r="79" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="49">
         <v>79</v>
       </c>
-      <c r="B79" s="51">
+      <c r="B79" s="49">
         <v>1</v>
       </c>
-      <c r="C79" s="52" t="s">
+      <c r="C79" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="D79" s="52" t="s">
+      <c r="D79" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E79" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F79" s="51">
+      <c r="E79" s="62" t="s">
+        <v>395</v>
+      </c>
+      <c r="F79" s="49">
         <v>79</v>
       </c>
-      <c r="G79" s="51" t="b">
+      <c r="G79" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="H79" s="51">
+      <c r="H79" s="49">
         <v>1</v>
       </c>
-      <c r="I79" s="51">
+      <c r="I79" s="49">
         <v>946677600</v>
       </c>
-      <c r="J79" s="51">
+      <c r="J79" s="49">
         <v>32503651200</v>
       </c>
-      <c r="K79" s="51">
+      <c r="K79" s="49">
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="51">
+    <row r="80" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="49">
         <v>80</v>
       </c>
-      <c r="B80" s="51">
+      <c r="B80" s="49">
         <v>1</v>
       </c>
-      <c r="C80" s="52" t="s">
+      <c r="C80" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="52" t="s">
+      <c r="D80" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" s="51">
+      <c r="E80" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="F80" s="49">
         <v>80</v>
       </c>
-      <c r="G80" s="51" t="b">
+      <c r="G80" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="H80" s="51">
+      <c r="H80" s="49">
         <v>1</v>
       </c>
-      <c r="I80" s="51">
+      <c r="I80" s="49">
         <v>946677600</v>
       </c>
-      <c r="J80" s="51">
+      <c r="J80" s="49">
         <v>32503651200</v>
       </c>
-      <c r="K80" s="51">
+      <c r="K80" s="49">
         <v>-1</v>
       </c>
     </row>
@@ -5368,7 +5374,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7408,19 +7414,19 @@
       </c>
     </row>
     <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="51">
+      <c r="A79" s="49">
         <v>78</v>
       </c>
-      <c r="B79" s="51">
+      <c r="B79" s="49">
         <v>78</v>
       </c>
-      <c r="C79" s="53"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="8">
         <v>78</v>
       </c>
       <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
-        <v>387</v>
+      <c r="F79" s="8">
+        <v>50000</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8">
@@ -7431,19 +7437,19 @@
       </c>
     </row>
     <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="51">
+      <c r="A80" s="49">
         <v>79</v>
       </c>
-      <c r="B80" s="51">
+      <c r="B80" s="49">
         <v>79</v>
       </c>
-      <c r="C80" s="53"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="8">
         <v>79</v>
       </c>
       <c r="E80" s="8"/>
-      <c r="F80" s="8" t="s">
-        <v>388</v>
+      <c r="F80" s="8">
+        <v>500000</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8">
@@ -7454,25 +7460,25 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="51">
+      <c r="A81" s="49">
         <v>80</v>
       </c>
-      <c r="B81" s="51">
+      <c r="B81" s="49">
         <v>80</v>
       </c>
-      <c r="C81" s="53"/>
+      <c r="C81" s="51"/>
       <c r="D81" s="8">
         <v>80</v>
       </c>
       <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
-        <v>389</v>
+      <c r="F81" s="8">
+        <v>2000000</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8">
         <v>96</v>
       </c>
-      <c r="I81" s="54" t="s">
+      <c r="I81" s="52" t="s">
         <v>363</v>
       </c>
     </row>
@@ -9076,8 +9082,8 @@
       <c r="B79" s="8">
         <v>78</v>
       </c>
-      <c r="C79" s="53" t="s">
-        <v>390</v>
+      <c r="C79" s="51" t="s">
+        <v>387</v>
       </c>
       <c r="D79" s="8">
         <v>0</v>
@@ -9093,8 +9099,8 @@
       <c r="B80" s="8">
         <v>79</v>
       </c>
-      <c r="C80" s="53" t="s">
-        <v>390</v>
+      <c r="C80" s="51" t="s">
+        <v>387</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -9110,7 +9116,7 @@
       <c r="B81" s="8">
         <v>80</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C81" s="51" t="s">
         <v>161</v>
       </c>
       <c r="D81" s="8">
@@ -9127,7 +9133,7 @@
       <c r="B82" s="8">
         <v>80</v>
       </c>
-      <c r="C82" s="53" t="s">
+      <c r="C82" s="51" t="s">
         <v>184</v>
       </c>
       <c r="D82" s="8">
@@ -9144,7 +9150,7 @@
       <c r="B83" s="8">
         <v>80</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="51" t="s">
         <v>185</v>
       </c>
       <c r="D83" s="8">
@@ -9161,7 +9167,7 @@
       <c r="B84" s="8">
         <v>80</v>
       </c>
-      <c r="C84" s="53" t="s">
+      <c r="C84" s="51" t="s">
         <v>186</v>
       </c>
       <c r="D84" s="8">
@@ -9178,7 +9184,7 @@
       <c r="B85" s="8">
         <v>80</v>
       </c>
-      <c r="C85" s="53" t="s">
+      <c r="C85" s="51" t="s">
         <v>187</v>
       </c>
       <c r="D85" s="8">
@@ -9195,7 +9201,7 @@
       <c r="B86" s="8">
         <v>80</v>
       </c>
-      <c r="C86" s="53" t="s">
+      <c r="C86" s="51" t="s">
         <v>163</v>
       </c>
       <c r="D86" s="8">
@@ -9212,7 +9218,7 @@
       <c r="B87" s="8">
         <v>80</v>
       </c>
-      <c r="C87" s="53" t="s">
+      <c r="C87" s="51" t="s">
         <v>188</v>
       </c>
       <c r="D87" s="8">
@@ -10531,59 +10537,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="55">
+    <row r="62" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="53">
         <v>61</v>
       </c>
-      <c r="B62" s="56">
+      <c r="B62" s="54">
         <v>31</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C62" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D62" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="56">
+      <c r="E62" s="54">
         <v>2</v>
       </c>
-      <c r="F62" s="56"/>
-    </row>
-    <row r="63" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="55">
+      <c r="F62" s="54"/>
+    </row>
+    <row r="63" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="53">
         <v>62</v>
       </c>
-      <c r="B63" s="56">
+      <c r="B63" s="54">
         <v>32</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="D63" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="E63" s="56">
+      <c r="E63" s="54">
         <v>2</v>
       </c>
-      <c r="F63" s="56"/>
-    </row>
-    <row r="64" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="55">
+      <c r="F63" s="54"/>
+    </row>
+    <row r="64" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="53">
         <v>63</v>
       </c>
-      <c r="B64" s="56">
+      <c r="B64" s="54">
         <v>32</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="D64" s="58" t="s">
+      <c r="D64" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="E64" s="56">
+      <c r="E64" s="54">
         <v>2</v>
       </c>
-      <c r="F64" s="56"/>
+      <c r="F64" s="54"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="37">
@@ -11833,7 +11839,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D63" s="4">
         <v>5</v>
@@ -11850,7 +11856,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -11884,7 +11890,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -11901,7 +11907,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
@@ -11938,7 +11944,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D69" s="4">
         <v>1000</v>
@@ -12261,7 +12267,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D88" s="4">
         <v>5000</v>
@@ -12287,160 +12293,160 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="50">
+    <row r="90" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="48">
         <v>89</v>
       </c>
-      <c r="B90" s="59">
+      <c r="B90" s="57">
         <v>94</v>
       </c>
-      <c r="C90" s="60" t="s">
+      <c r="C90" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="D90" s="57">
+        <v>100</v>
+      </c>
+      <c r="E90" s="57">
+        <v>1</v>
+      </c>
+      <c r="F90" s="57"/>
+      <c r="G90" s="57"/>
+    </row>
+    <row r="91" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="48">
+        <v>90</v>
+      </c>
+      <c r="B91" s="57">
+        <v>94</v>
+      </c>
+      <c r="C91" s="58" t="s">
         <v>391</v>
       </c>
-      <c r="D90" s="59">
+      <c r="D91" s="57">
+        <v>1</v>
+      </c>
+      <c r="E91" s="57">
+        <v>1</v>
+      </c>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+    </row>
+    <row r="92" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="48">
+        <v>91</v>
+      </c>
+      <c r="B92" s="57">
+        <v>95</v>
+      </c>
+      <c r="C92" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="D92" s="57">
         <v>100</v>
       </c>
-      <c r="E90" s="59">
+      <c r="E92" s="57">
         <v>1</v>
       </c>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59"/>
-    </row>
-    <row r="91" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="50">
-        <v>90</v>
-      </c>
-      <c r="B91" s="59">
+      <c r="F92" s="57"/>
+      <c r="G92" s="57"/>
+    </row>
+    <row r="93" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="48">
+        <v>92</v>
+      </c>
+      <c r="B93" s="57">
+        <v>95</v>
+      </c>
+      <c r="C93" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="D93" s="57">
+        <v>40000</v>
+      </c>
+      <c r="E93" s="57">
+        <v>1</v>
+      </c>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
+    </row>
+    <row r="94" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="48">
+        <v>93</v>
+      </c>
+      <c r="B94" s="57">
+        <v>95</v>
+      </c>
+      <c r="C94" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="D94" s="57">
+        <v>1</v>
+      </c>
+      <c r="E94" s="57">
+        <v>1</v>
+      </c>
+      <c r="F94" s="57"/>
+      <c r="G94" s="57"/>
+    </row>
+    <row r="95" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="48">
         <v>94</v>
       </c>
-      <c r="C91" s="60" t="s">
-        <v>394</v>
-      </c>
-      <c r="D91" s="59">
+      <c r="B95" s="57">
+        <v>96</v>
+      </c>
+      <c r="C95" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="D95" s="57">
+        <v>220</v>
+      </c>
+      <c r="E95" s="57">
         <v>1</v>
       </c>
-      <c r="E91" s="59">
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+    </row>
+    <row r="96" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="48">
+        <v>95</v>
+      </c>
+      <c r="B96" s="57">
+        <v>96</v>
+      </c>
+      <c r="C96" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="D96" s="57">
+        <v>50000</v>
+      </c>
+      <c r="E96" s="57">
         <v>1</v>
       </c>
-      <c r="F91" s="59"/>
-      <c r="G91" s="59"/>
-    </row>
-    <row r="92" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="50">
-        <v>91</v>
-      </c>
-      <c r="B92" s="59">
-        <v>95</v>
-      </c>
-      <c r="C92" s="60" t="s">
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+    </row>
+    <row r="97" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="48">
+        <v>96</v>
+      </c>
+      <c r="B97" s="57">
+        <v>96</v>
+      </c>
+      <c r="C97" s="58" t="s">
         <v>391</v>
       </c>
-      <c r="D92" s="59">
-        <v>100</v>
-      </c>
-      <c r="E92" s="59">
+      <c r="D97" s="57">
         <v>1</v>
       </c>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
-    </row>
-    <row r="93" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="50">
-        <v>92</v>
-      </c>
-      <c r="B93" s="59">
-        <v>95</v>
-      </c>
-      <c r="C93" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="D93" s="59">
-        <v>40000</v>
-      </c>
-      <c r="E93" s="59">
+      <c r="E97" s="57">
         <v>1</v>
       </c>
-      <c r="F93" s="59"/>
-      <c r="G93" s="59"/>
-    </row>
-    <row r="94" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="50">
-        <v>93</v>
-      </c>
-      <c r="B94" s="59">
-        <v>95</v>
-      </c>
-      <c r="C94" s="60" t="s">
-        <v>394</v>
-      </c>
-      <c r="D94" s="59">
-        <v>1</v>
-      </c>
-      <c r="E94" s="59">
-        <v>1</v>
-      </c>
-      <c r="F94" s="59"/>
-      <c r="G94" s="59"/>
-    </row>
-    <row r="95" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="50">
-        <v>94</v>
-      </c>
-      <c r="B95" s="59">
-        <v>96</v>
-      </c>
-      <c r="C95" s="60" t="s">
-        <v>391</v>
-      </c>
-      <c r="D95" s="59">
-        <v>220</v>
-      </c>
-      <c r="E95" s="59">
-        <v>1</v>
-      </c>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59"/>
-    </row>
-    <row r="96" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="50">
-        <v>95</v>
-      </c>
-      <c r="B96" s="59">
-        <v>96</v>
-      </c>
-      <c r="C96" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="D96" s="59">
-        <v>50000</v>
-      </c>
-      <c r="E96" s="59">
-        <v>1</v>
-      </c>
-      <c r="F96" s="59"/>
-      <c r="G96" s="59"/>
-    </row>
-    <row r="97" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="50">
-        <v>96</v>
-      </c>
-      <c r="B97" s="59">
-        <v>96</v>
-      </c>
-      <c r="C97" s="60" t="s">
-        <v>394</v>
-      </c>
-      <c r="D97" s="59">
-        <v>1</v>
-      </c>
-      <c r="E97" s="59">
-        <v>1</v>
-      </c>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="50">
+      <c r="A98" s="48">
         <v>97</v>
       </c>
       <c r="B98" s="18">
@@ -12457,7 +12463,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="50">
+      <c r="A99" s="48">
         <v>98</v>
       </c>
       <c r="B99" s="39">
@@ -12474,7 +12480,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="50">
+      <c r="A100" s="48">
         <v>99</v>
       </c>
       <c r="B100" s="39">
@@ -12491,7 +12497,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="50">
+      <c r="A101" s="48">
         <v>100</v>
       </c>
       <c r="B101" s="39">
@@ -12508,7 +12514,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="50">
+      <c r="A102" s="48">
         <v>101</v>
       </c>
       <c r="B102" s="4">
@@ -12525,7 +12531,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="50">
+      <c r="A103" s="48">
         <v>102</v>
       </c>
       <c r="B103" s="41">
@@ -12542,7 +12548,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="50">
+      <c r="A104" s="48">
         <v>103</v>
       </c>
       <c r="B104" s="41">
@@ -12559,7 +12565,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="50">
+      <c r="A105" s="48">
         <v>104</v>
       </c>
       <c r="B105" s="41">
@@ -12576,7 +12582,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="50">
+      <c r="A106" s="48">
         <v>105</v>
       </c>
       <c r="B106" s="41">
@@ -12593,7 +12599,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="50">
+      <c r="A107" s="48">
         <v>106</v>
       </c>
       <c r="B107" s="44">
@@ -12753,10 +12759,10 @@
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="60">
         <v>1</v>
       </c>
     </row>
@@ -12764,8 +12770,8 @@
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -12815,10 +12821,10 @@
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="60" t="s">
         <v>277</v>
       </c>
     </row>
@@ -12826,17 +12832,17 @@
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="60">
         <v>1</v>
       </c>
     </row>
@@ -12844,8 +12850,8 @@
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -12950,10 +12956,10 @@
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="61">
         <v>1</v>
       </c>
     </row>
@@ -12961,8 +12967,8 @@
       <c r="A22" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -45968,10 +45974,10 @@
       <c r="A45" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="60" t="s">
         <v>277</v>
       </c>
     </row>
@@ -45979,8 +45985,8 @@
       <c r="A46" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1873,14 +1873,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2160,9 +2160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4211,7 +4211,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>97</v>
@@ -4246,7 +4246,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>100</v>
@@ -4281,7 +4281,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>102</v>
@@ -4316,7 +4316,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>104</v>
@@ -4954,7 +4954,7 @@
       <c r="D78" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="E78" s="62" t="s">
+      <c r="E78" s="60" t="s">
         <v>394</v>
       </c>
       <c r="F78" s="49">
@@ -4989,7 +4989,7 @@
       <c r="D79" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E79" s="62" t="s">
+      <c r="E79" s="60" t="s">
         <v>395</v>
       </c>
       <c r="F79" s="49">
@@ -5024,7 +5024,7 @@
       <c r="D80" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="62" t="s">
+      <c r="E80" s="60" t="s">
         <v>396</v>
       </c>
       <c r="F80" s="49">
@@ -5373,8 +5373,8 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7731,8 +7731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9480,7 +9480,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -12759,10 +12759,10 @@
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="61">
         <v>1</v>
       </c>
     </row>
@@ -12770,8 +12770,8 @@
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -12821,10 +12821,10 @@
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="61" t="s">
         <v>277</v>
       </c>
     </row>
@@ -12832,17 +12832,17 @@
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="61">
         <v>1</v>
       </c>
     </row>
@@ -12850,8 +12850,8 @@
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -12956,10 +12956,10 @@
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="62">
         <v>1</v>
       </c>
     </row>
@@ -12967,8 +12967,8 @@
       <c r="A22" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -45974,10 +45974,10 @@
       <c r="A45" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="61" t="s">
         <v>277</v>
       </c>
     </row>
@@ -45985,8 +45985,8 @@
       <c r="A46" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -46089,16 +46089,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="403">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1558,6 +1558,69 @@
     <t>all_return_gift_lb</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>全返礼包2（冲金鸡）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全返礼包3（冲金鸡）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全返礼包1（冲金鸡）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sczd_all_return_task1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_cjj</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sczd_all_return_task2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_cjj</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sczd_all_return_task3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_cjj</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2158,11 +2221,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S89"/>
+  <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4211,7 +4274,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>97</v>
@@ -4246,7 +4309,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>100</v>
@@ -4281,7 +4344,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>102</v>
@@ -4316,7 +4379,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>104</v>
@@ -4967,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="49">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="J78" s="49">
         <v>32503651200</v>
@@ -5002,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="49">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="J79" s="49">
         <v>32503651200</v>
@@ -5037,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="49">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="J80" s="49">
         <v>32503651200</v>
@@ -5358,6 +5421,111 @@
         <v>32503651200</v>
       </c>
       <c r="K89" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="49">
+        <v>90</v>
+      </c>
+      <c r="B90" s="49">
+        <v>1</v>
+      </c>
+      <c r="C90" s="60" t="s">
+        <v>399</v>
+      </c>
+      <c r="D90" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="E90" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="F90" s="49">
+        <v>90</v>
+      </c>
+      <c r="G90" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="49">
+        <v>1</v>
+      </c>
+      <c r="I90" s="49">
+        <v>946656000</v>
+      </c>
+      <c r="J90" s="49">
+        <v>32503651200</v>
+      </c>
+      <c r="K90" s="49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="49">
+        <v>91</v>
+      </c>
+      <c r="B91" s="49">
+        <v>1</v>
+      </c>
+      <c r="C91" s="60" t="s">
+        <v>397</v>
+      </c>
+      <c r="D91" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="E91" s="60" t="s">
+        <v>395</v>
+      </c>
+      <c r="F91" s="49">
+        <v>91</v>
+      </c>
+      <c r="G91" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="49">
+        <v>1</v>
+      </c>
+      <c r="I91" s="49">
+        <v>946656000</v>
+      </c>
+      <c r="J91" s="49">
+        <v>32503651200</v>
+      </c>
+      <c r="K91" s="49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="49">
+        <v>92</v>
+      </c>
+      <c r="B92" s="49">
+        <v>1</v>
+      </c>
+      <c r="C92" s="60" t="s">
+        <v>398</v>
+      </c>
+      <c r="D92" s="60" t="s">
+        <v>402</v>
+      </c>
+      <c r="E92" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="F92" s="49">
+        <v>92</v>
+      </c>
+      <c r="G92" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="49">
+        <v>1</v>
+      </c>
+      <c r="I92" s="49">
+        <v>946656000</v>
+      </c>
+      <c r="J92" s="49">
+        <v>32503651200</v>
+      </c>
+      <c r="K92" s="49">
         <v>-1</v>
       </c>
     </row>
@@ -5370,11 +5538,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63:XFD65"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7718,6 +7886,75 @@
       <c r="H90" s="46"/>
       <c r="I90" s="46" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="14">
+        <v>90</v>
+      </c>
+      <c r="B91" s="14">
+        <v>90</v>
+      </c>
+      <c r="C91" s="51"/>
+      <c r="D91" s="8">
+        <v>78</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8">
+        <v>50000</v>
+      </c>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8">
+        <v>107</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="14">
+        <v>91</v>
+      </c>
+      <c r="B92" s="14">
+        <v>91</v>
+      </c>
+      <c r="C92" s="51"/>
+      <c r="D92" s="8">
+        <v>79</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8">
+        <v>500000</v>
+      </c>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8">
+        <v>108</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="14">
+        <v>92</v>
+      </c>
+      <c r="B93" s="14">
+        <v>92</v>
+      </c>
+      <c r="C93" s="51"/>
+      <c r="D93" s="8">
+        <v>80</v>
+      </c>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8">
+        <v>109</v>
+      </c>
+      <c r="I93" s="52" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -10650,11 +10887,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12614,6 +12851,158 @@
       <c r="E107" s="44">
         <v>1</v>
       </c>
+    </row>
+    <row r="108" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="48">
+        <v>107</v>
+      </c>
+      <c r="B108" s="57">
+        <v>107</v>
+      </c>
+      <c r="C108" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="D108" s="57">
+        <v>100</v>
+      </c>
+      <c r="E108" s="57">
+        <v>1</v>
+      </c>
+      <c r="F108" s="57"/>
+      <c r="G108" s="57"/>
+    </row>
+    <row r="109" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="48">
+        <v>108</v>
+      </c>
+      <c r="B109" s="57">
+        <v>107</v>
+      </c>
+      <c r="C109" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="D109" s="57">
+        <v>1</v>
+      </c>
+      <c r="E109" s="57">
+        <v>1</v>
+      </c>
+      <c r="F109" s="57"/>
+      <c r="G109" s="57"/>
+    </row>
+    <row r="110" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="48">
+        <v>109</v>
+      </c>
+      <c r="B110" s="57">
+        <v>108</v>
+      </c>
+      <c r="C110" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="D110" s="57">
+        <v>100</v>
+      </c>
+      <c r="E110" s="57">
+        <v>1</v>
+      </c>
+      <c r="F110" s="57"/>
+      <c r="G110" s="57"/>
+    </row>
+    <row r="111" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="48">
+        <v>110</v>
+      </c>
+      <c r="B111" s="57">
+        <v>108</v>
+      </c>
+      <c r="C111" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="D111" s="57">
+        <v>40000</v>
+      </c>
+      <c r="E111" s="57">
+        <v>1</v>
+      </c>
+      <c r="F111" s="57"/>
+      <c r="G111" s="57"/>
+    </row>
+    <row r="112" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="48">
+        <v>111</v>
+      </c>
+      <c r="B112" s="57">
+        <v>108</v>
+      </c>
+      <c r="C112" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="D112" s="57">
+        <v>1</v>
+      </c>
+      <c r="E112" s="57">
+        <v>1</v>
+      </c>
+      <c r="F112" s="57"/>
+      <c r="G112" s="57"/>
+    </row>
+    <row r="113" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="48">
+        <v>112</v>
+      </c>
+      <c r="B113" s="57">
+        <v>109</v>
+      </c>
+      <c r="C113" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="D113" s="57">
+        <v>220</v>
+      </c>
+      <c r="E113" s="57">
+        <v>1</v>
+      </c>
+      <c r="F113" s="57"/>
+      <c r="G113" s="57"/>
+    </row>
+    <row r="114" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="48">
+        <v>113</v>
+      </c>
+      <c r="B114" s="57">
+        <v>109</v>
+      </c>
+      <c r="C114" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="D114" s="57">
+        <v>50000</v>
+      </c>
+      <c r="E114" s="57">
+        <v>1</v>
+      </c>
+      <c r="F114" s="57"/>
+      <c r="G114" s="57"/>
+    </row>
+    <row r="115" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="48">
+        <v>114</v>
+      </c>
+      <c r="B115" s="57">
+        <v>109</v>
+      </c>
+      <c r="C115" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="D115" s="57">
+        <v>1</v>
+      </c>
+      <c r="E115" s="57">
+        <v>1</v>
+      </c>
+      <c r="F115" s="57"/>
+      <c r="G115" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -46089,16 +46478,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="407">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1341,10 +1341,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_award</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>buyu_3d_spend</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1572,23 +1568,6 @@
   </si>
   <si>
     <r>
-      <t>sczd_all_return_task1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_cjj</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>sczd_all_return_task2</t>
     </r>
     <r>
@@ -1619,6 +1598,43 @@
       </rPr>
       <t>_cjj</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hammer_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hammer_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sczd_all_return_task1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_cjj</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2223,9 +2239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57:B60"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4942,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D76" s="35" t="s">
         <v>360</v>
@@ -5018,7 +5034,7 @@
         <v>135</v>
       </c>
       <c r="E78" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F78" s="49">
         <v>78</v>
@@ -5053,7 +5069,7 @@
         <v>137</v>
       </c>
       <c r="E79" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F79" s="49">
         <v>79</v>
@@ -5088,7 +5104,7 @@
         <v>139</v>
       </c>
       <c r="E80" s="60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F80" s="49">
         <v>80</v>
@@ -5257,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>14</v>
@@ -5295,7 +5311,7 @@
         <v>108</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>110</v>
@@ -5330,7 +5346,7 @@
         <v>111</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>110</v>
@@ -5365,7 +5381,7 @@
         <v>113</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>110</v>
@@ -5397,10 +5413,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="D89" s="47" t="s">
         <v>385</v>
-      </c>
-      <c r="D89" s="47" t="s">
-        <v>386</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>110</v>
@@ -5432,13 +5448,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D90" s="60" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E90" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F90" s="49">
         <v>90</v>
@@ -5467,13 +5483,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="60" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D91" s="60" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E91" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F91" s="49">
         <v>91</v>
@@ -5502,13 +5518,13 @@
         <v>1</v>
       </c>
       <c r="C92" s="60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D92" s="60" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E92" s="60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F92" s="49">
         <v>92</v>
@@ -5540,9 +5556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5585,7 +5601,7 @@
         <v>147</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K1" s="21"/>
     </row>
@@ -7363,7 +7379,7 @@
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>172</v>
@@ -7775,14 +7791,14 @@
         <v>0</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G86" s="41"/>
       <c r="H86" s="43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I86" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -7897,7 +7913,7 @@
       </c>
       <c r="C91" s="51"/>
       <c r="D91" s="8">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8">
@@ -7920,7 +7936,7 @@
       </c>
       <c r="C92" s="51"/>
       <c r="D92" s="8">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8">
@@ -7943,7 +7959,7 @@
       </c>
       <c r="C93" s="51"/>
       <c r="D93" s="8">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8">
@@ -7966,10 +7982,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:D65"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9320,7 +9336,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D79" s="8">
         <v>0</v>
@@ -9337,7 +9353,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -9465,244 +9481,180 @@
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
     </row>
-    <row r="88" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>87</v>
       </c>
-      <c r="B88" s="15">
-        <v>80</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D88" s="15">
+      <c r="B88" s="18">
+        <v>81</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D88" s="18">
         <v>0</v>
       </c>
-      <c r="E88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-    </row>
-    <row r="89" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="15">
-        <v>80</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D89" s="15">
-        <v>0</v>
-      </c>
-      <c r="E89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-    </row>
-    <row r="90" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="39">
+        <v>82</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="D89" s="37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>89</v>
       </c>
-      <c r="B90" s="15">
-        <v>80</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D90" s="15">
-        <v>0</v>
-      </c>
-      <c r="E90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-    </row>
-    <row r="91" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="39">
+        <v>83</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="D90" s="39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="15">
-        <v>80</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D91" s="15">
-        <v>0</v>
-      </c>
-      <c r="E91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-    </row>
-    <row r="92" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="39">
+        <v>84</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="D91" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>91</v>
       </c>
-      <c r="B92" s="15">
-        <v>80</v>
-      </c>
-      <c r="C92" s="36" t="s">
-        <v>369</v>
+      <c r="B92" s="41">
+        <v>85</v>
+      </c>
+      <c r="C92" s="42" t="s">
+        <v>375</v>
       </c>
       <c r="D92" s="15">
         <v>0</v>
       </c>
-      <c r="E92" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
     </row>
     <row r="93" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>92</v>
       </c>
       <c r="B93" s="15">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D93" s="15">
         <v>0</v>
       </c>
-      <c r="E93" s="15">
-        <v>0.5</v>
-      </c>
+      <c r="E93" s="15"/>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="18">
-        <v>81</v>
-      </c>
-      <c r="C94" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="D94" s="18">
+      <c r="B94" s="15">
+        <v>87</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+    </row>
+    <row r="95" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="39">
-        <v>82</v>
-      </c>
-      <c r="C95" s="40" t="s">
-        <v>372</v>
-      </c>
-      <c r="D95" s="37">
-        <v>33</v>
-      </c>
+      <c r="B95" s="15">
+        <v>88</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="15">
+        <v>0</v>
+      </c>
+      <c r="E95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>95</v>
       </c>
-      <c r="B96" s="39">
-        <v>83</v>
-      </c>
-      <c r="C96" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="D96" s="39">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
+      <c r="B96" s="4">
+        <v>89</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="39">
-        <v>84</v>
-      </c>
-      <c r="C97" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="D97" s="37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
+      <c r="B97" s="4">
+        <v>90</v>
+      </c>
+      <c r="C97" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="D97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="41">
-        <v>85</v>
+      <c r="B98" s="4">
+        <v>91</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="D98" s="15">
+        <v>405</v>
+      </c>
+      <c r="D98" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" s="15">
-        <v>86</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D99" s="15">
-        <v>0</v>
-      </c>
-      <c r="E99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-    </row>
-    <row r="100" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
-        <v>99</v>
-      </c>
-      <c r="B100" s="15">
-        <v>87</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D100" s="15">
-        <v>0</v>
-      </c>
-      <c r="E100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-    </row>
-    <row r="101" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8">
-        <v>100</v>
-      </c>
-      <c r="B101" s="15">
-        <v>88</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D101" s="15">
-        <v>0</v>
-      </c>
-      <c r="E101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
-        <v>101</v>
-      </c>
-      <c r="B102" s="4">
-        <v>89</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D102" s="15">
+      <c r="B99" s="4">
+        <v>92</v>
+      </c>
+      <c r="C99" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="D99" s="11">
         <v>0</v>
       </c>
     </row>
@@ -10836,7 +10788,7 @@
         <v>33</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D65" s="37">
         <v>2</v>
@@ -10891,7 +10843,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12076,7 +12028,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D63" s="4">
         <v>5</v>
@@ -12093,7 +12045,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -12127,7 +12079,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -12144,7 +12096,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
@@ -12181,7 +12133,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D69" s="4">
         <v>1000</v>
@@ -12504,7 +12456,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D88" s="4">
         <v>5000</v>
@@ -12538,7 +12490,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D90" s="57">
         <v>100</v>
@@ -12557,7 +12509,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D91" s="57">
         <v>1</v>
@@ -12576,7 +12528,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D92" s="57">
         <v>100</v>
@@ -12595,7 +12547,7 @@
         <v>95</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D93" s="57">
         <v>40000</v>
@@ -12614,7 +12566,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="58" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D94" s="57">
         <v>1</v>
@@ -12633,7 +12585,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D95" s="57">
         <v>220</v>
@@ -12652,7 +12604,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D96" s="57">
         <v>50000</v>
@@ -12671,7 +12623,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D97" s="57">
         <v>1</v>
@@ -12860,7 +12812,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D108" s="57">
         <v>100</v>
@@ -12879,7 +12831,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="58" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D109" s="57">
         <v>1</v>
@@ -12898,7 +12850,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D110" s="57">
         <v>100</v>
@@ -12917,7 +12869,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D111" s="57">
         <v>40000</v>
@@ -12936,7 +12888,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D112" s="57">
         <v>1</v>
@@ -12955,7 +12907,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D113" s="57">
         <v>220</v>
@@ -12974,7 +12926,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D114" s="57">
         <v>50000</v>
@@ -12993,7 +12945,7 @@
         <v>109</v>
       </c>
       <c r="C115" s="58" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="D115" s="57">
         <v>1</v>
@@ -46478,16 +46430,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
     <sheet name="|来源备注" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="412">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1637,6 +1637,26 @@
     <t>lwzb_game_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>buyu_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jykp_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2239,9 +2259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5556,9 +5576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81:E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7982,10 +8002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9352,8 +9372,8 @@
       <c r="B80" s="8">
         <v>79</v>
       </c>
-      <c r="C80" s="51" t="s">
-        <v>386</v>
+      <c r="C80" s="52" t="s">
+        <v>408</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -9369,8 +9389,8 @@
       <c r="B81" s="8">
         <v>80</v>
       </c>
-      <c r="C81" s="51" t="s">
-        <v>161</v>
+      <c r="C81" s="52" t="s">
+        <v>407</v>
       </c>
       <c r="D81" s="8">
         <v>0</v>
@@ -9454,8 +9474,8 @@
       <c r="B86" s="8">
         <v>80</v>
       </c>
-      <c r="C86" s="51" t="s">
-        <v>163</v>
+      <c r="C86" s="52" t="s">
+        <v>409</v>
       </c>
       <c r="D86" s="8">
         <v>0</v>
@@ -9471,8 +9491,8 @@
       <c r="B87" s="8">
         <v>80</v>
       </c>
-      <c r="C87" s="51" t="s">
-        <v>188</v>
+      <c r="C87" s="52" t="s">
+        <v>410</v>
       </c>
       <c r="D87" s="8">
         <v>0</v>
@@ -9481,32 +9501,35 @@
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>87</v>
       </c>
-      <c r="B88" s="18">
-        <v>81</v>
-      </c>
-      <c r="C88" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="D88" s="18">
+      <c r="B88" s="8">
+        <v>80</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="D88" s="8">
         <v>0</v>
       </c>
+      <c r="E88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="39">
-        <v>82</v>
-      </c>
-      <c r="C89" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="D89" s="37">
-        <v>33</v>
+      <c r="B89" s="18">
+        <v>81</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D89" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -9514,13 +9537,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="39">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="D90" s="39">
-        <v>34</v>
+        <v>371</v>
+      </c>
+      <c r="D90" s="37">
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -9528,52 +9551,49 @@
         <v>90</v>
       </c>
       <c r="B91" s="39">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="D91" s="37">
-        <v>35</v>
+        <v>369</v>
+      </c>
+      <c r="D91" s="39">
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>91</v>
       </c>
-      <c r="B92" s="41">
-        <v>85</v>
-      </c>
-      <c r="C92" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="D92" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="39">
+        <v>84</v>
+      </c>
+      <c r="C92" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="D92" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="15">
-        <v>86</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>167</v>
+      <c r="B93" s="41">
+        <v>85</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>375</v>
       </c>
       <c r="D93" s="15">
         <v>0</v>
       </c>
-      <c r="E93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
     </row>
     <row r="94" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>93</v>
       </c>
       <c r="B94" s="15">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>167</v>
@@ -9590,7 +9610,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="15">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>167</v>
@@ -9602,12 +9622,12 @@
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>95</v>
       </c>
-      <c r="B96" s="4">
-        <v>89</v>
+      <c r="B96" s="15">
+        <v>88</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>167</v>
@@ -9615,46 +9635,63 @@
       <c r="D96" s="15">
         <v>0</v>
       </c>
+      <c r="E96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+      <c r="A97" s="8">
         <v>96</v>
       </c>
       <c r="B97" s="4">
+        <v>89</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="8">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4">
         <v>90</v>
       </c>
-      <c r="C97" s="42" t="s">
+      <c r="C98" s="42" t="s">
         <v>404</v>
-      </c>
-      <c r="D97" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
-        <v>97</v>
-      </c>
-      <c r="B98" s="4">
-        <v>91</v>
-      </c>
-      <c r="C98" s="42" t="s">
-        <v>405</v>
       </c>
       <c r="D98" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+      <c r="A99" s="8">
         <v>98</v>
       </c>
       <c r="B99" s="4">
+        <v>91</v>
+      </c>
+      <c r="C99" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="D99" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="8">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4">
         <v>92</v>
       </c>
-      <c r="C99" s="42" t="s">
+      <c r="C100" s="42" t="s">
         <v>406</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D100" s="11">
         <v>0</v>
       </c>
     </row>
@@ -46430,16 +46467,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
     <sheet name="|来源备注" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="420">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1657,6 +1657,51 @@
     <t>guess_apple_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>深海探险层数任务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocean_explore_week_task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,-1,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10,111,112,113,114,115,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2257,11 +2302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S92"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5565,6 +5610,41 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="11">
+        <v>93</v>
+      </c>
+      <c r="B93" s="11">
+        <v>1</v>
+      </c>
+      <c r="C93" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="D93" s="47" t="s">
+        <v>413</v>
+      </c>
+      <c r="E93" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="F93" s="11">
+        <v>93</v>
+      </c>
+      <c r="G93" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="11">
+        <v>7</v>
+      </c>
+      <c r="I93" s="11">
+        <v>1603641600</v>
+      </c>
+      <c r="J93" s="49">
+        <v>32503651200</v>
+      </c>
+      <c r="K93" s="49">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5574,11 +5654,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81:E81"/>
+      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7991,6 +8071,29 @@
       </c>
       <c r="I93" s="52" t="s">
         <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4">
+        <v>93</v>
+      </c>
+      <c r="D94" s="4">
+        <v>93</v>
+      </c>
+      <c r="F94" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="H94" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="I94" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -10876,18 +10979,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116:E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="30.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.75" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="20.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="30.625" customWidth="1"/>
@@ -12992,6 +13095,108 @@
       </c>
       <c r="F115" s="57"/>
       <c r="G115" s="57"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="48">
+        <v>115</v>
+      </c>
+      <c r="B116" s="57">
+        <v>110</v>
+      </c>
+      <c r="C116" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="48">
+        <v>116</v>
+      </c>
+      <c r="B117" s="57">
+        <v>111</v>
+      </c>
+      <c r="C117" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="48">
+        <v>117</v>
+      </c>
+      <c r="B118" s="57">
+        <v>112</v>
+      </c>
+      <c r="C118" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="48">
+        <v>118</v>
+      </c>
+      <c r="B119" s="57">
+        <v>113</v>
+      </c>
+      <c r="C119" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="48">
+        <v>119</v>
+      </c>
+      <c r="B120" s="57">
+        <v>114</v>
+      </c>
+      <c r="C120" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="48">
+        <v>120</v>
+      </c>
+      <c r="B121" s="57">
+        <v>115</v>
+      </c>
+      <c r="C121" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -46467,16 +46672,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="418">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1626,18 +1626,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>lwzb_game_award</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwzb_game_award</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwzb_game_award</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>buyu_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1700,6 +1688,10 @@
       </rPr>
       <t>10,111,112,113,114,115,</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2304,9 +2296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5618,13 +5610,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E93" s="47" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F93" s="11">
         <v>93</v>
@@ -5656,9 +5648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8084,13 +8076,13 @@
         <v>93</v>
       </c>
       <c r="F94" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="H94" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="H94" s="42" t="s">
-        <v>419</v>
-      </c>
       <c r="I94" s="42" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -8107,8 +8099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9476,7 +9468,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -9493,7 +9485,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="52" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D81" s="8">
         <v>0</v>
@@ -9509,8 +9501,8 @@
       <c r="B82" s="8">
         <v>80</v>
       </c>
-      <c r="C82" s="51" t="s">
-        <v>184</v>
+      <c r="C82" s="52" t="s">
+        <v>417</v>
       </c>
       <c r="D82" s="8">
         <v>0</v>
@@ -9578,7 +9570,7 @@
         <v>80</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D86" s="8">
         <v>0</v>
@@ -9595,7 +9587,7 @@
         <v>80</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D87" s="8">
         <v>0</v>
@@ -9612,7 +9604,7 @@
         <v>80</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D88" s="8">
         <v>0</v>
@@ -9764,7 +9756,7 @@
         <v>90</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>404</v>
+        <v>184</v>
       </c>
       <c r="D98" s="11">
         <v>0</v>
@@ -9778,7 +9770,7 @@
         <v>91</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>405</v>
+        <v>184</v>
       </c>
       <c r="D99" s="11">
         <v>0</v>
@@ -9792,7 +9784,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>406</v>
+        <v>184</v>
       </c>
       <c r="D100" s="11">
         <v>0</v>
@@ -13104,7 +13096,7 @@
         <v>110</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -13121,7 +13113,7 @@
         <v>111</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -13138,7 +13130,7 @@
         <v>112</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -13155,7 +13147,7 @@
         <v>113</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -13172,7 +13164,7 @@
         <v>114</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -13189,7 +13181,7 @@
         <v>115</v>
       </c>
       <c r="C121" s="42" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -46672,16 +46664,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="419">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1394,10 +1394,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>800000,2500000,12500000,25000000,75000000,230000000,-1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>101,102,103,104,105,106,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1692,6 +1688,13 @@
   </si>
   <si>
     <t>xiaoxiaole_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000,25000000,125000000,250000000,750000000,2300000000,-1</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2296,9 +2299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5091,7 +5094,7 @@
         <v>135</v>
       </c>
       <c r="E78" s="60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F78" s="49">
         <v>78</v>
@@ -5126,7 +5129,7 @@
         <v>137</v>
       </c>
       <c r="E79" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F79" s="49">
         <v>79</v>
@@ -5161,7 +5164,7 @@
         <v>139</v>
       </c>
       <c r="E80" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F80" s="49">
         <v>80</v>
@@ -5368,7 +5371,7 @@
         <v>108</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>110</v>
@@ -5403,7 +5406,7 @@
         <v>111</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>110</v>
@@ -5438,7 +5441,7 @@
         <v>113</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>110</v>
@@ -5470,10 +5473,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="D89" s="47" t="s">
         <v>384</v>
-      </c>
-      <c r="D89" s="47" t="s">
-        <v>385</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>110</v>
@@ -5505,13 +5508,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D90" s="60" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E90" s="60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F90" s="49">
         <v>90</v>
@@ -5540,13 +5543,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D91" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E91" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F91" s="49">
         <v>91</v>
@@ -5575,13 +5578,13 @@
         <v>1</v>
       </c>
       <c r="C92" s="60" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D92" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E92" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F92" s="49">
         <v>92</v>
@@ -5610,13 +5613,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="D93" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="D93" s="47" t="s">
+      <c r="E93" s="47" t="s">
         <v>410</v>
-      </c>
-      <c r="E93" s="47" t="s">
-        <v>411</v>
       </c>
       <c r="F93" s="11">
         <v>93</v>
@@ -5648,9 +5651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7883,11 +7886,11 @@
         <v>0</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="G86" s="41"/>
       <c r="H86" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I86" s="42" t="s">
         <v>374</v>
@@ -8076,13 +8079,13 @@
         <v>93</v>
       </c>
       <c r="F94" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H94" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I94" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -8097,10 +8100,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD100"/>
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9451,7 +9454,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D79" s="8">
         <v>0</v>
@@ -9468,7 +9471,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -9485,7 +9488,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D81" s="8">
         <v>0</v>
@@ -9502,7 +9505,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D82" s="8">
         <v>0</v>
@@ -9570,7 +9573,7 @@
         <v>80</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D86" s="8">
         <v>0</v>
@@ -9587,7 +9590,7 @@
         <v>80</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D87" s="8">
         <v>0</v>
@@ -9604,7 +9607,7 @@
         <v>80</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D88" s="8">
         <v>0</v>
@@ -9613,32 +9616,35 @@
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="18">
-        <v>81</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="D89" s="18">
+      <c r="B89" s="8">
+        <v>80</v>
+      </c>
+      <c r="C89" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="D89" s="8">
         <v>0</v>
       </c>
+      <c r="E89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>89</v>
       </c>
-      <c r="B90" s="39">
-        <v>82</v>
-      </c>
-      <c r="C90" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="D90" s="37">
-        <v>33</v>
+      <c r="B90" s="18">
+        <v>81</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D90" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -9646,13 +9652,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="39">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="D91" s="39">
-        <v>34</v>
+        <v>371</v>
+      </c>
+      <c r="D91" s="37">
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -9660,52 +9666,49 @@
         <v>91</v>
       </c>
       <c r="B92" s="39">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="D92" s="37">
-        <v>35</v>
+        <v>369</v>
+      </c>
+      <c r="D92" s="39">
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="41">
-        <v>85</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="D93" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="39">
+        <v>84</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="D93" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="15">
-        <v>86</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>167</v>
+      <c r="B94" s="41">
+        <v>85</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>375</v>
       </c>
       <c r="D94" s="15">
         <v>0</v>
       </c>
-      <c r="E94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
     </row>
     <row r="95" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>94</v>
       </c>
       <c r="B95" s="15">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>167</v>
@@ -9722,7 +9725,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="15">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>167</v>
@@ -9734,12 +9737,12 @@
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>96</v>
       </c>
-      <c r="B97" s="4">
-        <v>89</v>
+      <c r="B97" s="15">
+        <v>88</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>167</v>
@@ -9747,27 +9750,30 @@
       <c r="D97" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>97</v>
       </c>
       <c r="B98" s="4">
-        <v>90</v>
-      </c>
-      <c r="C98" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D98" s="11">
+        <v>89</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D98" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>98</v>
       </c>
       <c r="B99" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C99" s="42" t="s">
         <v>184</v>
@@ -9776,17 +9782,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>99</v>
       </c>
       <c r="B100" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="42" t="s">
         <v>184</v>
       </c>
       <c r="D100" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="8">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4">
+        <v>92</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="11">
         <v>0</v>
       </c>
     </row>
@@ -10974,8 +10994,8 @@
   <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116:E120"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12160,7 +12180,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D63" s="4">
         <v>5</v>
@@ -12177,7 +12197,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -12211,7 +12231,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -12228,7 +12248,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
@@ -12265,7 +12285,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D69" s="4">
         <v>1000</v>
@@ -12588,7 +12608,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D88" s="4">
         <v>5000</v>
@@ -12622,7 +12642,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D90" s="57">
         <v>100</v>
@@ -12641,7 +12661,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D91" s="57">
         <v>1</v>
@@ -12660,7 +12680,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D92" s="57">
         <v>100</v>
@@ -12679,7 +12699,7 @@
         <v>95</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D93" s="57">
         <v>40000</v>
@@ -12698,7 +12718,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D94" s="57">
         <v>1</v>
@@ -12717,7 +12737,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D95" s="57">
         <v>220</v>
@@ -12736,7 +12756,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D96" s="57">
         <v>50000</v>
@@ -12755,7 +12775,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D97" s="57">
         <v>1</v>
@@ -12944,7 +12964,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D108" s="57">
         <v>100</v>
@@ -12963,7 +12983,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D109" s="57">
         <v>1</v>
@@ -12982,7 +13002,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D110" s="57">
         <v>100</v>
@@ -13001,7 +13021,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D111" s="57">
         <v>40000</v>
@@ -13020,7 +13040,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D112" s="57">
         <v>1</v>
@@ -13039,7 +13059,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D113" s="57">
         <v>220</v>
@@ -13058,7 +13078,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D114" s="57">
         <v>50000</v>
@@ -13077,7 +13097,7 @@
         <v>109</v>
       </c>
       <c r="C115" s="58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D115" s="57">
         <v>1</v>
@@ -13096,7 +13116,7 @@
         <v>110</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -13113,7 +13133,7 @@
         <v>111</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -13130,7 +13150,7 @@
         <v>112</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -13147,7 +13167,7 @@
         <v>113</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -13164,7 +13184,7 @@
         <v>114</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -13181,7 +13201,7 @@
         <v>115</v>
       </c>
       <c r="C121" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -46664,16 +46684,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="420">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1692,9 +1692,13 @@
   </si>
   <si>
     <t>8000000,25000000,125000000,250000000,750000000,2300000000,-1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>xiaoxiaole_xiyou_award</t>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1702,7 +1706,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1746,6 +1750,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1847,7 +1858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2014,6 +2025,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2300,11 +2320,11 @@
   <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="11" customWidth="1"/>
@@ -2321,7 +2341,7 @@
     <col min="18" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="48" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2367,7 +2387,7 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
     </row>
-    <row r="2" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="43.5" customHeight="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2410,7 +2430,7 @@
       <c r="O2" s="26"/>
       <c r="P2" s="27"/>
     </row>
-    <row r="3" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="43.5" customHeight="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2453,7 +2473,7 @@
       <c r="O3" s="26"/>
       <c r="P3" s="27"/>
     </row>
-    <row r="4" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="43.5" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2496,7 +2516,7 @@
       <c r="O4" s="26"/>
       <c r="P4" s="27"/>
     </row>
-    <row r="5" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="43.5" customHeight="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2539,7 +2559,7 @@
       <c r="O5" s="26"/>
       <c r="P5" s="27"/>
     </row>
-    <row r="6" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="25.5" customHeight="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2580,7 +2600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="21" customHeight="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2621,7 +2641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="21" customHeight="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2662,7 +2682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2700,7 +2720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2735,7 +2755,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2770,7 +2790,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2805,7 +2825,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2840,7 +2860,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2875,7 +2895,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2910,7 +2930,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2945,7 +2965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2980,7 +3000,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3015,7 +3035,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -3050,7 +3070,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -3085,7 +3105,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -3120,7 +3140,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -3155,7 +3175,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -3190,7 +3210,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -3225,7 +3245,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3260,7 +3280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3295,7 +3315,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3330,7 +3350,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3365,7 +3385,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3400,7 +3420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3435,7 +3455,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -3470,7 +3490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -3505,7 +3525,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -3540,7 +3560,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -3575,7 +3595,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3610,7 +3630,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3645,7 +3665,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3680,7 +3700,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3715,7 +3735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3750,7 +3770,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3785,7 +3805,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3820,7 +3840,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3855,7 +3875,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3890,7 +3910,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3925,7 +3945,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3960,7 +3980,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3995,7 +4015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -4030,7 +4050,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -4065,7 +4085,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -4100,7 +4120,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -4135,7 +4155,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="14" customFormat="1">
       <c r="A51" s="14">
         <v>51</v>
       </c>
@@ -4170,7 +4190,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="14" customFormat="1">
       <c r="A52" s="14">
         <v>52</v>
       </c>
@@ -4205,7 +4225,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="14" customFormat="1">
       <c r="A53" s="14">
         <v>53</v>
       </c>
@@ -4240,7 +4260,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" s="11">
         <v>54</v>
       </c>
@@ -4275,7 +4295,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" s="11">
         <v>55</v>
       </c>
@@ -4310,7 +4330,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" s="11">
         <v>56</v>
       </c>
@@ -4345,7 +4365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" s="11">
         <v>57</v>
       </c>
@@ -4380,7 +4400,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" s="11">
         <v>58</v>
       </c>
@@ -4415,7 +4435,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" s="11">
         <v>59</v>
       </c>
@@ -4450,7 +4470,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" s="11">
         <v>60</v>
       </c>
@@ -4485,7 +4505,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11">
       <c r="A61" s="11">
         <v>61</v>
       </c>
@@ -4520,7 +4540,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" s="11">
         <v>62</v>
       </c>
@@ -4555,7 +4575,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" s="11">
         <v>63</v>
       </c>
@@ -4590,7 +4610,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" s="11">
         <v>64</v>
       </c>
@@ -4625,7 +4645,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11">
       <c r="A65" s="11">
         <v>65</v>
       </c>
@@ -4660,7 +4680,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11">
       <c r="A66" s="11">
         <v>66</v>
       </c>
@@ -4695,7 +4715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11">
       <c r="A67" s="11">
         <v>67</v>
       </c>
@@ -4730,7 +4750,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="24" customFormat="1">
       <c r="A68" s="24">
         <v>68</v>
       </c>
@@ -4765,7 +4785,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="14" customFormat="1">
       <c r="A69" s="14">
         <v>69</v>
       </c>
@@ -4800,7 +4820,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="14" customFormat="1">
       <c r="A70" s="14">
         <v>70</v>
       </c>
@@ -4835,7 +4855,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="14" customFormat="1">
       <c r="A71" s="14">
         <v>71</v>
       </c>
@@ -4870,7 +4890,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="14" customFormat="1">
       <c r="A72" s="14">
         <v>72</v>
       </c>
@@ -4905,7 +4925,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="14" customFormat="1">
       <c r="A73" s="14">
         <v>73</v>
       </c>
@@ -4940,7 +4960,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="14" customFormat="1">
       <c r="A74" s="14">
         <v>74</v>
       </c>
@@ -4975,7 +4995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="14" customFormat="1">
       <c r="A75" s="14">
         <v>75</v>
       </c>
@@ -5010,7 +5030,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="24" customFormat="1">
       <c r="A76" s="24">
         <v>76</v>
       </c>
@@ -5045,7 +5065,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="24" customFormat="1">
       <c r="A77" s="24">
         <v>77</v>
       </c>
@@ -5080,7 +5100,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="49" customFormat="1">
       <c r="A78" s="49">
         <v>78</v>
       </c>
@@ -5115,7 +5135,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="49" customFormat="1">
       <c r="A79" s="49">
         <v>79</v>
       </c>
@@ -5150,7 +5170,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="49" customFormat="1">
       <c r="A80" s="49">
         <v>80</v>
       </c>
@@ -5185,7 +5205,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="14" customFormat="1">
       <c r="A81" s="14">
         <v>81</v>
       </c>
@@ -5220,7 +5240,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="14" customFormat="1">
       <c r="A82" s="37">
         <v>82</v>
       </c>
@@ -5255,7 +5275,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="14" customFormat="1">
       <c r="A83" s="37">
         <v>83</v>
       </c>
@@ -5290,7 +5310,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" s="14" customFormat="1">
       <c r="A84" s="37">
         <v>84</v>
       </c>
@@ -5325,7 +5345,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" s="14" customFormat="1">
       <c r="A85" s="14">
         <v>85</v>
       </c>
@@ -5360,7 +5380,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11">
       <c r="A86" s="14">
         <v>86</v>
       </c>
@@ -5395,7 +5415,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11">
       <c r="A87" s="14">
         <v>87</v>
       </c>
@@ -5430,7 +5450,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11">
       <c r="A88" s="14">
         <v>88</v>
       </c>
@@ -5465,7 +5485,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11">
       <c r="A89" s="11">
         <v>89</v>
       </c>
@@ -5500,7 +5520,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="49" customFormat="1">
       <c r="A90" s="49">
         <v>90</v>
       </c>
@@ -5535,7 +5555,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="49" customFormat="1">
       <c r="A91" s="49">
         <v>91</v>
       </c>
@@ -5570,7 +5590,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="49" customFormat="1">
       <c r="A92" s="49">
         <v>92</v>
       </c>
@@ -5605,7 +5625,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11">
       <c r="A93" s="11">
         <v>93</v>
       </c>
@@ -5656,7 +5676,7 @@
       <selection pane="bottomLeft" activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" style="4"/>
     <col min="2" max="5" width="32.75" style="4" customWidth="1"/>
@@ -5667,7 +5687,7 @@
     <col min="10" max="11" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="36" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>140</v>
       </c>
@@ -5700,7 +5720,7 @@
       </c>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -5727,7 +5747,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -5754,7 +5774,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -5781,7 +5801,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -5808,7 +5828,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -5836,7 +5856,7 @@
       </c>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5862,7 +5882,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5888,7 +5908,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -5915,7 +5935,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5941,7 +5961,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5967,7 +5987,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -5993,7 +6013,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -6019,7 +6039,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -6045,7 +6065,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -6071,7 +6091,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -6097,7 +6117,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -6123,7 +6143,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -6149,7 +6169,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -6175,7 +6195,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -6201,7 +6221,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -6227,7 +6247,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -6253,7 +6273,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -6279,7 +6299,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -6305,7 +6325,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -6331,7 +6351,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -6357,7 +6377,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -6383,7 +6403,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -6409,7 +6429,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -6435,7 +6455,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -6461,7 +6481,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -6487,7 +6507,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -6513,7 +6533,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -6539,7 +6559,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -6565,7 +6585,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -6591,7 +6611,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -6617,7 +6637,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="12.95" customHeight="1">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -6643,7 +6663,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="12.95" customHeight="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -6669,7 +6689,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -6695,7 +6715,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="12.95" customHeight="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -6721,7 +6741,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="12.95" customHeight="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -6747,7 +6767,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="12.95" customHeight="1">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -6773,7 +6793,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="12.95" customHeight="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -6799,7 +6819,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="12.95" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -6825,7 +6845,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="12.95" customHeight="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -6851,7 +6871,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="12.95" customHeight="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -6877,7 +6897,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="12.95" customHeight="1">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -6903,7 +6923,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="12.95" customHeight="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -6929,7 +6949,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="12.95" customHeight="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -6955,7 +6975,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="12.95" customHeight="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6981,7 +7001,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -7008,7 +7028,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -7034,7 +7054,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -7060,7 +7080,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -7086,7 +7106,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -7112,7 +7132,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -7138,7 +7158,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -7164,7 +7184,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -7187,7 +7207,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -7210,7 +7230,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -7233,7 +7253,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -7256,7 +7276,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -7279,7 +7299,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -7302,7 +7322,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -7325,7 +7345,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -7348,7 +7368,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -7374,7 +7394,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -7400,7 +7420,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -7424,7 +7444,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -7453,7 +7473,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="33" customFormat="1">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -7480,7 +7500,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="33" customFormat="1">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -7507,7 +7527,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="33" customFormat="1">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -7534,7 +7554,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="33" customFormat="1">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -7561,7 +7581,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="33" customFormat="1">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -7588,7 +7608,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="33" customFormat="1">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -7611,7 +7631,7 @@
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
     </row>
-    <row r="76" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="33" customFormat="1">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -7634,7 +7654,7 @@
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
     </row>
-    <row r="77" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="33" customFormat="1">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -7663,7 +7683,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="33" customFormat="1">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -7692,7 +7712,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="3" customFormat="1">
       <c r="A79" s="49">
         <v>78</v>
       </c>
@@ -7715,7 +7735,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="3" customFormat="1">
       <c r="A80" s="49">
         <v>79</v>
       </c>
@@ -7738,7 +7758,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" s="3" customFormat="1">
       <c r="A81" s="49">
         <v>80</v>
       </c>
@@ -7761,7 +7781,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -7790,7 +7810,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" s="37">
         <v>82</v>
       </c>
@@ -7817,7 +7837,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" s="33" customFormat="1">
       <c r="A84" s="37">
         <v>83</v>
       </c>
@@ -7844,7 +7864,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" s="33" customFormat="1">
       <c r="A85" s="37">
         <v>84</v>
       </c>
@@ -7871,7 +7891,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" s="14">
         <v>85</v>
       </c>
@@ -7899,7 +7919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87" s="14">
         <v>86</v>
       </c>
@@ -7924,7 +7944,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88" s="14">
         <v>87</v>
       </c>
@@ -7949,7 +7969,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89" s="14">
         <v>88</v>
       </c>
@@ -7974,7 +7994,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" s="14">
         <v>89</v>
       </c>
@@ -7999,7 +8019,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" s="3" customFormat="1">
       <c r="A91" s="14">
         <v>90</v>
       </c>
@@ -8022,7 +8042,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" s="3" customFormat="1">
       <c r="A92" s="14">
         <v>91</v>
       </c>
@@ -8045,7 +8065,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" s="3" customFormat="1">
       <c r="A93" s="14">
         <v>92</v>
       </c>
@@ -8068,7 +8088,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -8100,13 +8120,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
@@ -8116,7 +8136,7 @@
     <col min="8" max="9" width="32.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="27">
       <c r="A1" s="5" t="s">
         <v>180</v>
       </c>
@@ -8137,7 +8157,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="33" customFormat="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -8154,7 +8174,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="33" customFormat="1">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -8171,7 +8191,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="33" customFormat="1">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -8188,7 +8208,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="33" customFormat="1">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -8205,7 +8225,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="33" customFormat="1">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -8222,7 +8242,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="33" customFormat="1">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -8239,7 +8259,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="33" customFormat="1">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -8256,7 +8276,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="33" customFormat="1">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -8273,7 +8293,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="33" customFormat="1">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -8290,7 +8310,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="33" customFormat="1">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -8307,7 +8327,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="33" customFormat="1">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -8324,7 +8344,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="33" customFormat="1">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -8341,7 +8361,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="33" customFormat="1">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -8358,7 +8378,7 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="33" customFormat="1">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -8375,7 +8395,7 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="33" customFormat="1">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -8392,7 +8412,7 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="33" customFormat="1">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -8409,7 +8429,7 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="33" customFormat="1">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -8426,7 +8446,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="33" customFormat="1">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -8443,7 +8463,7 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="33" customFormat="1">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -8460,7 +8480,7 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="33" customFormat="1">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -8477,7 +8497,7 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="33" customFormat="1">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -8494,7 +8514,7 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="33" customFormat="1">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -8511,7 +8531,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="33" customFormat="1">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -8528,7 +8548,7 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="33" customFormat="1">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -8545,7 +8565,7 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="33" customFormat="1">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -8562,7 +8582,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="33" customFormat="1">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -8579,7 +8599,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="33" customFormat="1">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -8596,7 +8616,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="33" customFormat="1">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -8613,7 +8633,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="33" customFormat="1">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -8630,7 +8650,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="33" customFormat="1">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -8647,7 +8667,7 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="33" customFormat="1">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -8664,7 +8684,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="33" customFormat="1">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -8681,7 +8701,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="33" customFormat="1">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -8698,7 +8718,7 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="33" customFormat="1">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -8715,7 +8735,7 @@
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="33" customFormat="1">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -8732,7 +8752,7 @@
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
     </row>
-    <row r="37" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="33" customFormat="1">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -8749,7 +8769,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="33" customFormat="1">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -8766,7 +8786,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="33" customFormat="1">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -8783,7 +8803,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="33" customFormat="1">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -8800,7 +8820,7 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="33" customFormat="1">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -8817,7 +8837,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="33" customFormat="1">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -8834,7 +8854,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="33" customFormat="1">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -8851,7 +8871,7 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
     </row>
-    <row r="44" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="33" customFormat="1">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -8868,7 +8888,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="33" customFormat="1">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -8885,7 +8905,7 @@
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="33" customFormat="1">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -8902,7 +8922,7 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="33" customFormat="1">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -8919,7 +8939,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="33" customFormat="1">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -8936,7 +8956,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="33" customFormat="1">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -8953,7 +8973,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="33" customFormat="1">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -8970,7 +8990,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="33" customFormat="1">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -8987,7 +9007,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="33" customFormat="1">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -9004,7 +9024,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="33" customFormat="1">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -9021,7 +9041,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="33" customFormat="1">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -9038,7 +9058,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="33" customFormat="1">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -9055,7 +9075,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="33" customFormat="1">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -9072,7 +9092,7 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="33" customFormat="1">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -9089,7 +9109,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="33" customFormat="1">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -9106,7 +9126,7 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="33" customFormat="1">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -9123,7 +9143,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="33" customFormat="1">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -9140,7 +9160,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="33" customFormat="1">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -9157,7 +9177,7 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="33" customFormat="1">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -9174,7 +9194,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="33" customFormat="1">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -9191,7 +9211,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="33" customFormat="1">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -9208,7 +9228,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="33" customFormat="1">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -9225,7 +9245,7 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="33" customFormat="1">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -9242,7 +9262,7 @@
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="33" customFormat="1">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -9259,7 +9279,7 @@
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
     </row>
-    <row r="68" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="33" customFormat="1">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -9276,7 +9296,7 @@
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="33" customFormat="1">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -9293,7 +9313,7 @@
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
     </row>
-    <row r="70" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="33" customFormat="1">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -9310,7 +9330,7 @@
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
     </row>
-    <row r="71" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="33" customFormat="1">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -9327,7 +9347,7 @@
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
     </row>
-    <row r="72" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="33" customFormat="1">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -9344,7 +9364,7 @@
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
     </row>
-    <row r="73" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="33" customFormat="1">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -9361,7 +9381,7 @@
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
     </row>
-    <row r="74" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="33" customFormat="1">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -9378,7 +9398,7 @@
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
     </row>
-    <row r="75" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="33" customFormat="1">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -9395,7 +9415,7 @@
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
     </row>
-    <row r="76" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="33" customFormat="1">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -9412,7 +9432,7 @@
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
     </row>
-    <row r="77" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="33" customFormat="1">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -9429,7 +9449,7 @@
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
     </row>
-    <row r="78" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="33" customFormat="1">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -9446,7 +9466,7 @@
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
     </row>
-    <row r="79" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="33" customFormat="1">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -9463,7 +9483,7 @@
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
     </row>
-    <row r="80" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="33" customFormat="1">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -9480,252 +9500,252 @@
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
     </row>
-    <row r="81" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
+    <row r="81" spans="1:9" s="33" customFormat="1">
+      <c r="A81" s="57">
         <v>80</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="57">
         <v>80</v>
       </c>
-      <c r="C81" s="52" t="s">
+      <c r="C81" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="57">
         <v>0</v>
       </c>
       <c r="E81" s="15"/>
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
     </row>
-    <row r="82" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
+    <row r="82" spans="1:9" s="33" customFormat="1">
+      <c r="A82" s="57">
         <v>81</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="57">
         <v>80</v>
       </c>
-      <c r="C82" s="52" t="s">
+      <c r="C82" s="61" t="s">
         <v>416</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="57">
         <v>0</v>
       </c>
       <c r="E82" s="15"/>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
     </row>
-    <row r="83" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
+    <row r="83" spans="1:9" s="33" customFormat="1">
+      <c r="A83" s="57">
         <v>82</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="57">
         <v>80</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="57">
         <v>0</v>
       </c>
       <c r="E83" s="15"/>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
     </row>
-    <row r="84" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
+    <row r="84" spans="1:9" s="33" customFormat="1">
+      <c r="A84" s="57">
         <v>83</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="57">
         <v>80</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="57">
         <v>0</v>
       </c>
       <c r="E84" s="15"/>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
     </row>
-    <row r="85" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
+    <row r="85" spans="1:9" s="33" customFormat="1">
+      <c r="A85" s="57">
         <v>84</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="57">
         <v>80</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="C85" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="57">
         <v>0</v>
       </c>
       <c r="E85" s="15"/>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
     </row>
-    <row r="86" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
+    <row r="86" spans="1:9" s="33" customFormat="1">
+      <c r="A86" s="57">
         <v>85</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="57">
         <v>80</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C86" s="61" t="s">
         <v>405</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="57">
         <v>0</v>
       </c>
       <c r="E86" s="15"/>
-      <c r="H86" s="15"/>
+      <c r="H86" s="63"/>
       <c r="I86" s="15"/>
     </row>
-    <row r="87" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
+    <row r="87" spans="1:9" s="33" customFormat="1">
+      <c r="A87" s="57">
         <v>86</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="57">
         <v>80</v>
       </c>
-      <c r="C87" s="52" t="s">
+      <c r="C87" s="61" t="s">
         <v>406</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="57">
         <v>0</v>
       </c>
       <c r="E87" s="15"/>
-      <c r="H87" s="15"/>
+      <c r="H87" s="63"/>
       <c r="I87" s="15"/>
     </row>
-    <row r="88" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
+    <row r="88" spans="1:9" s="33" customFormat="1">
+      <c r="A88" s="57">
         <v>87</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="57">
         <v>80</v>
       </c>
-      <c r="C88" s="52" t="s">
-        <v>418</v>
-      </c>
-      <c r="D88" s="8">
+      <c r="C88" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="D88" s="57">
         <v>0</v>
       </c>
       <c r="E88" s="15"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
     </row>
-    <row r="89" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
+    <row r="89" spans="1:9" s="33" customFormat="1">
+      <c r="A89" s="57">
         <v>88</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="57">
         <v>80</v>
       </c>
-      <c r="C89" s="52" t="s">
-        <v>407</v>
-      </c>
-      <c r="D89" s="8">
+      <c r="C89" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="D89" s="57">
         <v>0</v>
       </c>
       <c r="E89" s="15"/>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
+    <row r="90" spans="1:9" s="33" customFormat="1">
+      <c r="A90" s="57">
         <v>89</v>
       </c>
-      <c r="B90" s="18">
-        <v>81</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="D90" s="18">
+      <c r="B90" s="57">
+        <v>80</v>
+      </c>
+      <c r="C90" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="D90" s="57">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="39">
-        <v>82</v>
-      </c>
-      <c r="C91" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="D91" s="37">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="18">
+        <v>81</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D91" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="8">
         <v>91</v>
       </c>
       <c r="B92" s="39">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="D92" s="39">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="D92" s="37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="8">
         <v>92</v>
       </c>
       <c r="B93" s="39">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="D93" s="37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="D93" s="39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="41">
-        <v>85</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="D94" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="39">
+        <v>84</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="D94" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="15">
-        <v>86</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>167</v>
+      <c r="B95" s="41">
+        <v>85</v>
+      </c>
+      <c r="C95" s="42" t="s">
+        <v>375</v>
       </c>
       <c r="D95" s="15">
         <v>0</v>
       </c>
-      <c r="E95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-    </row>
-    <row r="96" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:9" s="33" customFormat="1">
       <c r="A96" s="8">
         <v>95</v>
       </c>
       <c r="B96" s="15">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>167</v>
@@ -9737,12 +9757,12 @@
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
     </row>
-    <row r="97" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="33" customFormat="1">
       <c r="A97" s="8">
         <v>96</v>
       </c>
       <c r="B97" s="15">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>167</v>
@@ -9754,12 +9774,12 @@
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="33" customFormat="1">
       <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="4">
-        <v>89</v>
+      <c r="B98" s="15">
+        <v>88</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>167</v>
@@ -9767,27 +9787,30 @@
       <c r="D98" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="8">
         <v>98</v>
       </c>
       <c r="B99" s="4">
-        <v>90</v>
-      </c>
-      <c r="C99" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D99" s="11">
+        <v>89</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" s="8">
         <v>99</v>
       </c>
       <c r="B100" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C100" s="42" t="s">
         <v>184</v>
@@ -9796,17 +9819,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" s="8">
         <v>100</v>
       </c>
       <c r="B101" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="42" t="s">
         <v>184</v>
       </c>
       <c r="D101" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="8">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4">
+        <v>92</v>
+      </c>
+      <c r="C102" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D102" s="11">
         <v>0</v>
       </c>
     </row>
@@ -9825,7 +9862,7 @@
       <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
     <col min="2" max="2" width="29.5" style="4" customWidth="1"/>
@@ -9835,7 +9872,7 @@
     <col min="6" max="6" width="16" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="66.95" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>189</v>
       </c>
@@ -9855,7 +9892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -9872,7 +9909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -9889,7 +9926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -9906,7 +9943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -9923,7 +9960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -9940,7 +9977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -9957,7 +9994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -9974,7 +10011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -9991,7 +10028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -10008,7 +10045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -10025,7 +10062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -10042,7 +10079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -10059,7 +10096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -10076,7 +10113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -10093,7 +10130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -10110,7 +10147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -10127,7 +10164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -10144,7 +10181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -10161,7 +10198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -10178,7 +10215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -10195,7 +10232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -10212,7 +10249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -10229,7 +10266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -10246,7 +10283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -10263,7 +10300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -10280,7 +10317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -10297,7 +10334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -10314,7 +10351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -10334,7 +10371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -10351,7 +10388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -10368,7 +10405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -10385,7 +10422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -10402,7 +10439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -10419,7 +10456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -10436,7 +10473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -10453,7 +10490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -10470,7 +10507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -10487,7 +10524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -10504,7 +10541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -10521,7 +10558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -10538,7 +10575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -10555,7 +10592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -10572,7 +10609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -10589,7 +10626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -10606,7 +10643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -10623,7 +10660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -10640,7 +10677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -10657,7 +10694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -10674,7 +10711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -10691,7 +10728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -10708,7 +10745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -10725,7 +10762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -10742,7 +10779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -10759,7 +10796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -10776,7 +10813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -10793,7 +10830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -10810,7 +10847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -10827,7 +10864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -10844,7 +10881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -10861,7 +10898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -10878,7 +10915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" s="55" customFormat="1">
       <c r="A62" s="53">
         <v>61</v>
       </c>
@@ -10896,7 +10933,7 @@
       </c>
       <c r="F62" s="54"/>
     </row>
-    <row r="63" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" s="55" customFormat="1">
       <c r="A63" s="53">
         <v>62</v>
       </c>
@@ -10914,7 +10951,7 @@
       </c>
       <c r="F63" s="54"/>
     </row>
-    <row r="64" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" s="55" customFormat="1">
       <c r="A64" s="53">
         <v>63</v>
       </c>
@@ -10932,7 +10969,7 @@
       </c>
       <c r="F64" s="54"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="37">
         <v>64</v>
       </c>
@@ -10949,7 +10986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="37">
         <v>65</v>
       </c>
@@ -10966,7 +11003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="37">
         <v>66</v>
       </c>
@@ -10994,11 +11031,11 @@
   <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A122" sqref="A122:XFD127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="30.375" style="4" customWidth="1"/>
@@ -11012,7 +11049,7 @@
     <col min="12" max="12" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>189</v>
       </c>
@@ -11041,7 +11078,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -11061,7 +11098,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -11081,7 +11118,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -11104,7 +11141,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -11122,7 +11159,7 @@
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -11142,7 +11179,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -11162,7 +11199,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -11179,7 +11216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -11196,7 +11233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -11213,7 +11250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -11230,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -11247,7 +11284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -11264,7 +11301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -11281,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -11298,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -11315,7 +11352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -11332,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -11349,7 +11386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -11366,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -11383,7 +11420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -11400,7 +11437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -11417,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -11434,7 +11471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -11451,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -11468,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -11485,7 +11522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -11502,7 +11539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -11519,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -11539,7 +11576,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -11556,7 +11593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -11573,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -11593,7 +11630,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -11613,7 +11650,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -11633,7 +11670,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -11653,7 +11690,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -11673,7 +11710,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -11693,7 +11730,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -11713,7 +11750,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -11733,7 +11770,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -11753,7 +11790,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -11773,7 +11810,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -11793,7 +11830,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -11813,7 +11850,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -11833,7 +11870,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -11853,7 +11890,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -11873,7 +11910,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -11893,7 +11930,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -11913,7 +11950,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -11933,7 +11970,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -11953,7 +11990,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -11973,7 +12010,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -11993,7 +12030,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -12013,7 +12050,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -12030,7 +12067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -12047,7 +12084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -12067,7 +12104,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -12087,7 +12124,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -12104,7 +12141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -12121,7 +12158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -12138,7 +12175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -12155,7 +12192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -12172,7 +12209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -12189,7 +12226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -12206,7 +12243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -12223,7 +12260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -12240,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -12257,7 +12294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -12277,7 +12314,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -12294,7 +12331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -12311,7 +12348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -12328,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -12345,7 +12382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -12362,7 +12399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -12379,7 +12416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -12396,7 +12433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -12413,7 +12450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -12430,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="11">
         <v>77</v>
       </c>
@@ -12447,7 +12484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="11">
         <v>78</v>
       </c>
@@ -12464,7 +12501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="11">
         <v>79</v>
       </c>
@@ -12481,7 +12518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="11">
         <v>80</v>
       </c>
@@ -12498,7 +12535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="11">
         <v>81</v>
       </c>
@@ -12515,7 +12552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="11">
         <v>82</v>
       </c>
@@ -12532,7 +12569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="11">
         <v>83</v>
       </c>
@@ -12549,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="11">
         <v>84</v>
       </c>
@@ -12566,7 +12603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="11">
         <v>85</v>
       </c>
@@ -12583,7 +12620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="11">
         <v>86</v>
       </c>
@@ -12600,7 +12637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="11">
         <v>87</v>
       </c>
@@ -12617,7 +12654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="11">
         <v>88</v>
       </c>
@@ -12634,7 +12671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" s="59" customFormat="1">
       <c r="A90" s="48">
         <v>89</v>
       </c>
@@ -12653,7 +12690,7 @@
       <c r="F90" s="57"/>
       <c r="G90" s="57"/>
     </row>
-    <row r="91" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" s="59" customFormat="1">
       <c r="A91" s="48">
         <v>90</v>
       </c>
@@ -12672,7 +12709,7 @@
       <c r="F91" s="57"/>
       <c r="G91" s="57"/>
     </row>
-    <row r="92" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" s="59" customFormat="1">
       <c r="A92" s="48">
         <v>91</v>
       </c>
@@ -12691,7 +12728,7 @@
       <c r="F92" s="57"/>
       <c r="G92" s="57"/>
     </row>
-    <row r="93" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" s="59" customFormat="1">
       <c r="A93" s="48">
         <v>92</v>
       </c>
@@ -12710,7 +12747,7 @@
       <c r="F93" s="57"/>
       <c r="G93" s="57"/>
     </row>
-    <row r="94" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" s="59" customFormat="1">
       <c r="A94" s="48">
         <v>93</v>
       </c>
@@ -12729,7 +12766,7 @@
       <c r="F94" s="57"/>
       <c r="G94" s="57"/>
     </row>
-    <row r="95" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" s="59" customFormat="1">
       <c r="A95" s="48">
         <v>94</v>
       </c>
@@ -12748,7 +12785,7 @@
       <c r="F95" s="57"/>
       <c r="G95" s="57"/>
     </row>
-    <row r="96" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" s="59" customFormat="1">
       <c r="A96" s="48">
         <v>95</v>
       </c>
@@ -12767,7 +12804,7 @@
       <c r="F96" s="57"/>
       <c r="G96" s="57"/>
     </row>
-    <row r="97" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" s="59" customFormat="1">
       <c r="A97" s="48">
         <v>96</v>
       </c>
@@ -12786,7 +12823,7 @@
       <c r="F97" s="57"/>
       <c r="G97" s="57"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="48">
         <v>97</v>
       </c>
@@ -12803,7 +12840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="48">
         <v>98</v>
       </c>
@@ -12820,7 +12857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="48">
         <v>99</v>
       </c>
@@ -12837,7 +12874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="48">
         <v>100</v>
       </c>
@@ -12854,7 +12891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="48">
         <v>101</v>
       </c>
@@ -12871,7 +12908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="48">
         <v>102</v>
       </c>
@@ -12888,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="48">
         <v>103</v>
       </c>
@@ -12905,7 +12942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="48">
         <v>104</v>
       </c>
@@ -12922,7 +12959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="48">
         <v>105</v>
       </c>
@@ -12939,7 +12976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="48">
         <v>106</v>
       </c>
@@ -12956,7 +12993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" s="59" customFormat="1">
       <c r="A108" s="48">
         <v>107</v>
       </c>
@@ -12975,7 +13012,7 @@
       <c r="F108" s="57"/>
       <c r="G108" s="57"/>
     </row>
-    <row r="109" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" s="59" customFormat="1">
       <c r="A109" s="48">
         <v>108</v>
       </c>
@@ -12994,7 +13031,7 @@
       <c r="F109" s="57"/>
       <c r="G109" s="57"/>
     </row>
-    <row r="110" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" s="59" customFormat="1">
       <c r="A110" s="48">
         <v>109</v>
       </c>
@@ -13013,7 +13050,7 @@
       <c r="F110" s="57"/>
       <c r="G110" s="57"/>
     </row>
-    <row r="111" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" s="59" customFormat="1">
       <c r="A111" s="48">
         <v>110</v>
       </c>
@@ -13032,7 +13069,7 @@
       <c r="F111" s="57"/>
       <c r="G111" s="57"/>
     </row>
-    <row r="112" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" s="59" customFormat="1">
       <c r="A112" s="48">
         <v>111</v>
       </c>
@@ -13051,7 +13088,7 @@
       <c r="F112" s="57"/>
       <c r="G112" s="57"/>
     </row>
-    <row r="113" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" s="59" customFormat="1">
       <c r="A113" s="48">
         <v>112</v>
       </c>
@@ -13070,7 +13107,7 @@
       <c r="F113" s="57"/>
       <c r="G113" s="57"/>
     </row>
-    <row r="114" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" s="59" customFormat="1">
       <c r="A114" s="48">
         <v>113</v>
       </c>
@@ -13089,7 +13126,7 @@
       <c r="F114" s="57"/>
       <c r="G114" s="57"/>
     </row>
-    <row r="115" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" s="59" customFormat="1">
       <c r="A115" s="48">
         <v>114</v>
       </c>
@@ -13108,7 +13145,7 @@
       <c r="F115" s="57"/>
       <c r="G115" s="57"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="48">
         <v>115</v>
       </c>
@@ -13125,7 +13162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="48">
         <v>116</v>
       </c>
@@ -13142,7 +13179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="48">
         <v>117</v>
       </c>
@@ -13159,7 +13196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="48">
         <v>118</v>
       </c>
@@ -13176,7 +13213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="48">
         <v>119</v>
       </c>
@@ -13193,7 +13230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="48">
         <v>120</v>
       </c>
@@ -13225,13 +13262,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.875" customWidth="1"/>
     <col min="2" max="2" width="62.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>256</v>
       </c>
@@ -13239,7 +13276,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -13247,7 +13284,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
@@ -13255,7 +13292,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>148</v>
       </c>
@@ -13263,7 +13300,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
         <v>261</v>
       </c>
@@ -13271,7 +13308,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>263</v>
       </c>
@@ -13279,7 +13316,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>265</v>
       </c>
@@ -13287,7 +13324,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
         <v>267</v>
       </c>
@@ -13295,7 +13332,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>199</v>
       </c>
@@ -13303,7 +13340,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>202</v>
       </c>
@@ -13326,7 +13363,7 @@
       <selection activeCell="A2" sqref="A2:C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="35.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="50" style="4" customWidth="1"/>
@@ -13334,7 +13371,7 @@
     <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>271</v>
       </c>
@@ -13350,25 +13387,25 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>275</v>
       </c>
@@ -13379,7 +13416,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>278</v>
       </c>
@@ -13390,7 +13427,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -13401,7 +13438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>157</v>
       </c>
@@ -13412,43 +13449,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1">
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="64" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="1" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
@@ -13459,7 +13496,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="2" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>287</v>
       </c>
@@ -13470,7 +13507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>289</v>
       </c>
@@ -13481,7 +13518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="2" customFormat="1">
       <c r="A15" s="7" t="s">
         <v>291</v>
       </c>
@@ -13492,7 +13529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="3" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>161</v>
       </c>
@@ -13503,7 +13540,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="3" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>294</v>
       </c>
@@ -13514,7 +13551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" s="3" customFormat="1">
       <c r="A18" s="8" t="s">
         <v>173</v>
       </c>
@@ -13525,7 +13562,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="3" customFormat="1">
       <c r="A19" s="8" t="s">
         <v>297</v>
       </c>
@@ -13536,7 +13573,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>166</v>
       </c>
@@ -13547,25 +13584,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="65">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
         <v>184</v>
       </c>
@@ -13576,7 +13613,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="3" customFormat="1">
       <c r="A24" s="8" t="s">
         <v>303</v>
       </c>
@@ -13587,7 +13624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="3" customFormat="1">
       <c r="A25" s="8" t="s">
         <v>305</v>
       </c>
@@ -13598,7 +13635,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>168</v>
       </c>
@@ -13609,7 +13646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
         <v>188</v>
       </c>
@@ -13620,7 +13657,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="3" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>186</v>
       </c>
@@ -13631,7 +13668,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="3" customFormat="1">
       <c r="A29" s="8" t="s">
         <v>310</v>
       </c>
@@ -13642,7 +13679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="3" customFormat="1">
       <c r="A30" s="8" t="s">
         <v>312</v>
       </c>
@@ -13653,7 +13690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
         <v>314</v>
       </c>
@@ -13664,7 +13701,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>187</v>
       </c>
@@ -13675,7 +13712,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16384">
       <c r="A33" s="4" t="s">
         <v>317</v>
       </c>
@@ -13686,7 +13723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16384">
       <c r="A34" s="4" t="s">
         <v>319</v>
       </c>
@@ -13697,7 +13734,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16384" s="3" customFormat="1">
       <c r="A35" s="8" t="s">
         <v>185</v>
       </c>
@@ -13708,7 +13745,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="36" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16384" s="3" customFormat="1">
       <c r="A36" s="8" t="s">
         <v>322</v>
       </c>
@@ -13719,7 +13756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16384" s="3" customFormat="1">
       <c r="A37" s="8" t="s">
         <v>324</v>
       </c>
@@ -13730,7 +13767,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16384" s="3" customFormat="1">
       <c r="A38" s="8" t="s">
         <v>326</v>
       </c>
@@ -13741,7 +13778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16384" s="2" customFormat="1">
       <c r="A39" s="7" t="s">
         <v>177</v>
       </c>
@@ -13752,7 +13789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16384" s="2" customFormat="1">
       <c r="A40" s="7" t="s">
         <v>178</v>
       </c>
@@ -13763,7 +13800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16384" s="2" customFormat="1">
       <c r="A41" s="7" t="s">
         <v>179</v>
       </c>
@@ -13774,7 +13811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16384" s="2" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>174</v>
       </c>
@@ -13785,7 +13822,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16384" s="2" customFormat="1">
       <c r="A43" s="7" t="s">
         <v>332</v>
       </c>
@@ -30177,7 +30214,7 @@
       <c r="XFC43" s="7"/>
       <c r="XFD43" s="7"/>
     </row>
-    <row r="44" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16384" s="2" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>160</v>
       </c>
@@ -46565,25 +46602,25 @@
       <c r="XFC44" s="7"/>
       <c r="XFD44" s="7"/>
     </row>
-    <row r="45" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16384" s="1" customFormat="1">
       <c r="A45" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="64" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16384" s="1" customFormat="1">
       <c r="A46" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-    </row>
-    <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+    </row>
+    <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
         <v>337</v>
       </c>
@@ -46594,7 +46631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16384">
       <c r="A48" s="4" t="s">
         <v>339</v>
       </c>
@@ -46605,7 +46642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" s="1" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>341</v>
       </c>
@@ -46616,7 +46653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="1" customFormat="1">
       <c r="A50" s="6" t="s">
         <v>343</v>
       </c>
@@ -46627,7 +46664,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
         <v>345</v>
       </c>
@@ -46638,7 +46675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
         <v>347</v>
       </c>
@@ -46649,7 +46686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
         <v>349</v>
       </c>
@@ -46660,7 +46697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
         <v>351</v>
       </c>
@@ -46671,7 +46708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
         <v>353</v>
       </c>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="428">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1701,6 +1701,38 @@
     <t>lwzb_game_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>图鉴收集任务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishbowl_handbook_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,20,30,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>116,117,118,119,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_stars</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_feed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_coin1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1763,7 +1795,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1818,6 +1850,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1858,7 +1896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2035,6 +2073,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2317,11 +2368,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5358,8 +5409,8 @@
       <c r="D85" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="28" t="s">
-        <v>37</v>
+      <c r="E85" s="32" t="s">
+        <v>421</v>
       </c>
       <c r="F85" s="14">
         <v>85</v>
@@ -5657,6 +5708,41 @@
         <v>32503651200</v>
       </c>
       <c r="K93" s="49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="11">
+        <v>94</v>
+      </c>
+      <c r="B94" s="11">
+        <v>0</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="D94" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="E94" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="11">
+        <v>94</v>
+      </c>
+      <c r="G94" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11">
+        <v>1</v>
+      </c>
+      <c r="I94" s="11">
+        <v>1603641600</v>
+      </c>
+      <c r="J94" s="49">
+        <v>32503651200</v>
+      </c>
+      <c r="K94" s="49">
         <v>-1</v>
       </c>
     </row>
@@ -5669,11 +5755,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95:XFD95"/>
+      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8111,6 +8197,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="64">
+        <v>94</v>
+      </c>
+      <c r="B95" s="64">
+        <v>94</v>
+      </c>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64">
+        <v>94</v>
+      </c>
+      <c r="E95" s="64"/>
+      <c r="F95" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="G95" s="64"/>
+      <c r="H95" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="I95" s="42" t="s">
+        <v>411</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8120,10 +8229,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9844,6 +9953,20 @@
         <v>184</v>
       </c>
       <c r="D102" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4">
+        <v>94</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="D103" s="11">
         <v>0</v>
       </c>
     </row>
@@ -11028,11 +11151,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122:XFD127"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13246,6 +13369,158 @@
       <c r="E121" s="4">
         <v>1</v>
       </c>
+    </row>
+    <row r="122" spans="1:7" s="68" customFormat="1">
+      <c r="A122" s="65">
+        <v>121</v>
+      </c>
+      <c r="B122" s="66">
+        <v>116</v>
+      </c>
+      <c r="C122" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="D122" s="66">
+        <v>50000</v>
+      </c>
+      <c r="E122" s="66">
+        <v>1</v>
+      </c>
+      <c r="F122" s="66"/>
+      <c r="G122" s="66"/>
+    </row>
+    <row r="123" spans="1:7" s="68" customFormat="1">
+      <c r="A123" s="65">
+        <v>122</v>
+      </c>
+      <c r="B123" s="66">
+        <v>116</v>
+      </c>
+      <c r="C123" s="67" t="s">
+        <v>426</v>
+      </c>
+      <c r="D123" s="66">
+        <v>100</v>
+      </c>
+      <c r="E123" s="66">
+        <v>1</v>
+      </c>
+      <c r="F123" s="66"/>
+      <c r="G123" s="66"/>
+    </row>
+    <row r="124" spans="1:7" s="68" customFormat="1">
+      <c r="A124" s="65">
+        <v>123</v>
+      </c>
+      <c r="B124" s="66">
+        <v>117</v>
+      </c>
+      <c r="C124" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="D124" s="66">
+        <v>5</v>
+      </c>
+      <c r="E124" s="66">
+        <v>1</v>
+      </c>
+      <c r="F124" s="66"/>
+      <c r="G124" s="66"/>
+    </row>
+    <row r="125" spans="1:7" s="68" customFormat="1">
+      <c r="A125" s="65">
+        <v>124</v>
+      </c>
+      <c r="B125" s="66">
+        <v>117</v>
+      </c>
+      <c r="C125" s="67" t="s">
+        <v>426</v>
+      </c>
+      <c r="D125" s="66">
+        <v>200</v>
+      </c>
+      <c r="E125" s="66">
+        <v>1</v>
+      </c>
+      <c r="F125" s="66"/>
+      <c r="G125" s="66"/>
+    </row>
+    <row r="126" spans="1:7" s="68" customFormat="1">
+      <c r="A126" s="65">
+        <v>125</v>
+      </c>
+      <c r="B126" s="66">
+        <v>118</v>
+      </c>
+      <c r="C126" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="D126" s="66">
+        <v>10</v>
+      </c>
+      <c r="E126" s="66">
+        <v>1</v>
+      </c>
+      <c r="F126" s="66"/>
+      <c r="G126" s="66"/>
+    </row>
+    <row r="127" spans="1:7" s="68" customFormat="1">
+      <c r="A127" s="65">
+        <v>126</v>
+      </c>
+      <c r="B127" s="66">
+        <v>118</v>
+      </c>
+      <c r="C127" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="D127" s="66">
+        <v>100000</v>
+      </c>
+      <c r="E127" s="66">
+        <v>1</v>
+      </c>
+      <c r="F127" s="66"/>
+      <c r="G127" s="66"/>
+    </row>
+    <row r="128" spans="1:7" s="68" customFormat="1">
+      <c r="A128" s="65">
+        <v>127</v>
+      </c>
+      <c r="B128" s="66">
+        <v>119</v>
+      </c>
+      <c r="C128" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="D128" s="66">
+        <v>20</v>
+      </c>
+      <c r="E128" s="66">
+        <v>1</v>
+      </c>
+      <c r="F128" s="66"/>
+      <c r="G128" s="66"/>
+    </row>
+    <row r="129" spans="1:7" s="68" customFormat="1">
+      <c r="A129" s="65">
+        <v>128</v>
+      </c>
+      <c r="B129" s="66">
+        <v>119</v>
+      </c>
+      <c r="C129" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="D129" s="66">
+        <v>500000</v>
+      </c>
+      <c r="E129" s="66">
+        <v>1</v>
+      </c>
+      <c r="F129" s="66"/>
+      <c r="G129" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -13391,10 +13666,10 @@
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="69">
         <v>1</v>
       </c>
     </row>
@@ -13402,8 +13677,8 @@
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -13453,10 +13728,10 @@
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="69" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="69" t="s">
         <v>277</v>
       </c>
     </row>
@@ -13464,17 +13739,17 @@
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="69">
         <v>1</v>
       </c>
     </row>
@@ -13482,8 +13757,8 @@
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -13588,10 +13863,10 @@
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="70">
         <v>1</v>
       </c>
     </row>
@@ -13599,8 +13874,8 @@
       <c r="A22" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -46606,10 +46881,10 @@
       <c r="A45" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="69" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="69" t="s">
         <v>277</v>
       </c>
     </row>
@@ -46617,8 +46892,8 @@
       <c r="A46" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -46721,16 +46996,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="432">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1662,14 +1662,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -1731,6 +1723,29 @@
   </si>
   <si>
     <t>prop_fishbowl_coin1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_1000321</t>
+  </si>
+  <si>
+    <t>task_1000321</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_send_client|是否主动推送给客户端</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_change_type|奖励类型（必须以task_开头）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_ocean_explore_week_children_task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1795,7 +1810,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1856,6 +1871,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1896,7 +1917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2077,20 +2098,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2368,11 +2401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L93" sqref="L93:M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2382,17 +2415,17 @@
     <col min="3" max="3" width="73.25" style="11" customWidth="1"/>
     <col min="4" max="4" width="31.125" style="11" customWidth="1"/>
     <col min="5" max="5" width="27.375" style="11" customWidth="1"/>
-    <col min="6" max="11" width="27.5" style="11" customWidth="1"/>
-    <col min="12" max="12" width="61" style="11" customWidth="1"/>
-    <col min="13" max="13" width="54.375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="35" style="11" customWidth="1"/>
-    <col min="15" max="15" width="108.5" style="11" customWidth="1"/>
-    <col min="16" max="16" width="28.875" style="11" customWidth="1"/>
-    <col min="17" max="17" width="19.375" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="11"/>
+    <col min="6" max="13" width="27.5" style="11" customWidth="1"/>
+    <col min="14" max="14" width="61" style="11" customWidth="1"/>
+    <col min="15" max="15" width="54.375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="35" style="11" customWidth="1"/>
+    <col min="17" max="17" width="108.5" style="11" customWidth="1"/>
+    <col min="18" max="18" width="28.875" style="11" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="11" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48" customHeight="1">
+    <row r="1" spans="1:21" ht="48" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2427,18 +2460,24 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" ht="43.5" customHeight="1">
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21" ht="43.5" customHeight="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2472,16 +2511,16 @@
       <c r="K2" s="11">
         <v>-1</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
-    </row>
-    <row r="3" spans="1:19" ht="43.5" customHeight="1">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="27"/>
+    </row>
+    <row r="3" spans="1:21" ht="43.5" customHeight="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2515,16 +2554,16 @@
       <c r="K3" s="11">
         <v>-1</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
-    </row>
-    <row r="4" spans="1:19" ht="43.5" customHeight="1">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="27"/>
+    </row>
+    <row r="4" spans="1:21" ht="43.5" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2558,16 +2597,16 @@
       <c r="K4" s="11">
         <v>-1</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
-    </row>
-    <row r="5" spans="1:19" ht="43.5" customHeight="1">
+      <c r="Q4" s="26"/>
+      <c r="R4" s="27"/>
+    </row>
+    <row r="5" spans="1:21" ht="43.5" customHeight="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2601,16 +2640,16 @@
       <c r="K5" s="11">
         <v>-1</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="O5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27"/>
-    </row>
-    <row r="6" spans="1:19" ht="25.5" customHeight="1">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="27"/>
+    </row>
+    <row r="6" spans="1:21" ht="25.5" customHeight="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2644,14 +2683,14 @@
       <c r="K6" s="11">
         <v>-1</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="O6" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="21" customHeight="1">
+    <row r="7" spans="1:21" ht="21" customHeight="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2685,14 +2724,14 @@
       <c r="K7" s="11">
         <v>-1</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="O7" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1">
+    <row r="8" spans="1:21" ht="21" customHeight="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2726,14 +2765,14 @@
       <c r="K8" s="11">
         <v>-1</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="O8" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2767,11 +2806,11 @@
       <c r="K9" s="11">
         <v>-1</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2806,7 +2845,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:21">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2841,7 +2880,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:21">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2876,7 +2915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2911,7 +2950,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:21">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2946,7 +2985,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:21">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2981,7 +3020,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:21">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -5256,7 +5295,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="14" customFormat="1">
+    <row r="81" spans="1:13" s="14" customFormat="1">
       <c r="A81" s="14">
         <v>81</v>
       </c>
@@ -5291,7 +5330,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="14" customFormat="1">
+    <row r="82" spans="1:13" s="14" customFormat="1">
       <c r="A82" s="37">
         <v>82</v>
       </c>
@@ -5325,8 +5364,10 @@
       <c r="K82" s="37">
         <v>259200</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" s="14" customFormat="1">
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+    </row>
+    <row r="83" spans="1:13" s="14" customFormat="1">
       <c r="A83" s="37">
         <v>83</v>
       </c>
@@ -5360,8 +5401,10 @@
       <c r="K83" s="37">
         <v>259200</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" s="14" customFormat="1">
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+    </row>
+    <row r="84" spans="1:13" s="14" customFormat="1">
       <c r="A84" s="37">
         <v>84</v>
       </c>
@@ -5395,8 +5438,10 @@
       <c r="K84" s="37">
         <v>259200</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" s="14" customFormat="1">
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+    </row>
+    <row r="85" spans="1:13" s="14" customFormat="1">
       <c r="A85" s="14">
         <v>85</v>
       </c>
@@ -5410,7 +5455,7 @@
         <v>14</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F85" s="14">
         <v>85</v>
@@ -5431,7 +5476,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:13">
       <c r="A86" s="14">
         <v>86</v>
       </c>
@@ -5466,7 +5511,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:13">
       <c r="A87" s="14">
         <v>87</v>
       </c>
@@ -5501,7 +5546,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:13">
       <c r="A88" s="14">
         <v>88</v>
       </c>
@@ -5536,7 +5581,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:13">
       <c r="A89" s="11">
         <v>89</v>
       </c>
@@ -5571,7 +5616,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="49" customFormat="1">
+    <row r="90" spans="1:13" s="49" customFormat="1">
       <c r="A90" s="49">
         <v>90</v>
       </c>
@@ -5606,7 +5651,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="49" customFormat="1">
+    <row r="91" spans="1:13" s="49" customFormat="1">
       <c r="A91" s="49">
         <v>91</v>
       </c>
@@ -5641,7 +5686,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="49" customFormat="1">
+    <row r="92" spans="1:13" s="49" customFormat="1">
       <c r="A92" s="49">
         <v>92</v>
       </c>
@@ -5676,7 +5721,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:13">
       <c r="A93" s="11">
         <v>93</v>
       </c>
@@ -5710,8 +5755,14 @@
       <c r="K93" s="49">
         <v>-1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93" s="74">
+        <v>1</v>
+      </c>
+      <c r="M93" s="24" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="11">
         <v>94</v>
       </c>
@@ -5719,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D94" s="47" t="s">
         <v>409</v>
@@ -5745,6 +5796,8 @@
       <c r="K94" s="49">
         <v>-1</v>
       </c>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5759,7 +5812,7 @@
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7992,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G86" s="41"/>
       <c r="H86" s="43" t="s">
@@ -8188,7 +8241,7 @@
         <v>412</v>
       </c>
       <c r="H94" s="42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I94" s="42" t="s">
         <v>411</v>
@@ -8210,11 +8263,11 @@
       </c>
       <c r="E95" s="64"/>
       <c r="F95" s="42" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G95" s="64"/>
       <c r="H95" s="42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I95" s="42" t="s">
         <v>411</v>
@@ -9634,7 +9687,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="61" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D82" s="57">
         <v>0</v>
@@ -9753,7 +9806,7 @@
         <v>80</v>
       </c>
       <c r="C89" s="61" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D89" s="57">
         <v>0</v>
@@ -9770,7 +9823,7 @@
         <v>80</v>
       </c>
       <c r="C90" s="61" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D90" s="57">
         <v>0</v>
@@ -9964,7 +10017,7 @@
         <v>94</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D103" s="11">
         <v>0</v>
@@ -11151,11 +11204,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13089,8 +13142,8 @@
       <c r="B106" s="41">
         <v>105</v>
       </c>
-      <c r="C106" s="41" t="s">
-        <v>221</v>
+      <c r="C106" s="42" t="s">
+        <v>426</v>
       </c>
       <c r="D106" s="41">
         <v>3000</v>
@@ -13272,16 +13325,16 @@
       <c r="A116" s="48">
         <v>115</v>
       </c>
-      <c r="B116" s="57">
+      <c r="B116" s="69">
         <v>110</v>
       </c>
-      <c r="C116" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="D116" s="4">
-        <v>1</v>
-      </c>
-      <c r="E116" s="4">
+      <c r="C116" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D116" s="69">
+        <v>10</v>
+      </c>
+      <c r="E116" s="69">
         <v>1</v>
       </c>
     </row>
@@ -13289,33 +13342,35 @@
       <c r="A117" s="48">
         <v>116</v>
       </c>
-      <c r="B117" s="57">
-        <v>111</v>
-      </c>
-      <c r="C117" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="D117" s="4">
+      <c r="B117" s="69">
+        <v>110</v>
+      </c>
+      <c r="C117" s="70" t="s">
+        <v>428</v>
+      </c>
+      <c r="D117" s="69">
         <v>1</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="69">
         <v>1</v>
       </c>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="48">
         <v>117</v>
       </c>
-      <c r="B118" s="57">
-        <v>112</v>
-      </c>
-      <c r="C118" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="D118" s="4">
-        <v>1</v>
-      </c>
-      <c r="E118" s="4">
+      <c r="B118" s="69">
+        <v>111</v>
+      </c>
+      <c r="C118" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D118" s="71">
+        <v>10</v>
+      </c>
+      <c r="E118" s="69">
         <v>1</v>
       </c>
     </row>
@@ -13323,33 +13378,35 @@
       <c r="A119" s="48">
         <v>118</v>
       </c>
-      <c r="B119" s="57">
-        <v>113</v>
-      </c>
-      <c r="C119" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="D119" s="4">
+      <c r="B119" s="69">
+        <v>111</v>
+      </c>
+      <c r="C119" s="70" t="s">
+        <v>427</v>
+      </c>
+      <c r="D119" s="69">
         <v>1</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="69">
         <v>1</v>
       </c>
+      <c r="F119" s="68"/>
+      <c r="G119" s="68"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="48">
         <v>119</v>
       </c>
-      <c r="B120" s="57">
-        <v>114</v>
-      </c>
-      <c r="C120" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="D120" s="4">
-        <v>1</v>
-      </c>
-      <c r="E120" s="4">
+      <c r="B120" s="69">
+        <v>112</v>
+      </c>
+      <c r="C120" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D120" s="69">
+        <v>10</v>
+      </c>
+      <c r="E120" s="69">
         <v>1</v>
       </c>
     </row>
@@ -13357,175 +13414,285 @@
       <c r="A121" s="48">
         <v>120</v>
       </c>
-      <c r="B121" s="57">
+      <c r="B121" s="69">
+        <v>112</v>
+      </c>
+      <c r="C121" s="70" t="s">
+        <v>427</v>
+      </c>
+      <c r="D121" s="69">
+        <v>1</v>
+      </c>
+      <c r="E121" s="69">
+        <v>1</v>
+      </c>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="48">
+        <v>121</v>
+      </c>
+      <c r="B122" s="69">
+        <v>113</v>
+      </c>
+      <c r="C122" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D122" s="69">
+        <v>10</v>
+      </c>
+      <c r="E122" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="48">
+        <v>122</v>
+      </c>
+      <c r="B123" s="69">
+        <v>113</v>
+      </c>
+      <c r="C123" s="70" t="s">
+        <v>427</v>
+      </c>
+      <c r="D123" s="69">
+        <v>1</v>
+      </c>
+      <c r="E123" s="69">
+        <v>1</v>
+      </c>
+      <c r="F123" s="68"/>
+      <c r="G123" s="68"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="48">
+        <v>123</v>
+      </c>
+      <c r="B124" s="69">
+        <v>114</v>
+      </c>
+      <c r="C124" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D124" s="69">
+        <v>10</v>
+      </c>
+      <c r="E124" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="48">
+        <v>124</v>
+      </c>
+      <c r="B125" s="69">
+        <v>114</v>
+      </c>
+      <c r="C125" s="70" t="s">
+        <v>427</v>
+      </c>
+      <c r="D125" s="69">
+        <v>1</v>
+      </c>
+      <c r="E125" s="69">
+        <v>1</v>
+      </c>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="48">
+        <v>125</v>
+      </c>
+      <c r="B126" s="69">
         <v>115</v>
       </c>
-      <c r="C121" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="D121" s="4">
+      <c r="C126" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D126" s="69">
+        <v>50</v>
+      </c>
+      <c r="E126" s="69">
         <v>1</v>
       </c>
-      <c r="E121" s="4">
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="48">
+        <v>126</v>
+      </c>
+      <c r="B127" s="69">
+        <v>115</v>
+      </c>
+      <c r="C127" s="70" t="s">
+        <v>427</v>
+      </c>
+      <c r="D127" s="69">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" s="68" customFormat="1">
-      <c r="A122" s="65">
-        <v>121</v>
-      </c>
-      <c r="B122" s="66">
+      <c r="E127" s="69">
+        <v>1</v>
+      </c>
+      <c r="F127" s="68"/>
+      <c r="G127" s="68"/>
+    </row>
+    <row r="128" spans="1:7" s="67" customFormat="1">
+      <c r="A128" s="48">
+        <v>127</v>
+      </c>
+      <c r="B128" s="65">
         <v>116</v>
       </c>
-      <c r="C122" s="67" t="s">
+      <c r="C128" s="66" t="s">
+        <v>423</v>
+      </c>
+      <c r="D128" s="65">
+        <v>50000</v>
+      </c>
+      <c r="E128" s="65">
+        <v>1</v>
+      </c>
+      <c r="F128" s="65"/>
+      <c r="G128" s="65"/>
+    </row>
+    <row r="129" spans="1:7" s="67" customFormat="1">
+      <c r="A129" s="48">
+        <v>128</v>
+      </c>
+      <c r="B129" s="65">
+        <v>116</v>
+      </c>
+      <c r="C129" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="D129" s="65">
+        <v>100</v>
+      </c>
+      <c r="E129" s="65">
+        <v>1</v>
+      </c>
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
+    </row>
+    <row r="130" spans="1:7" s="67" customFormat="1">
+      <c r="A130" s="48">
+        <v>129</v>
+      </c>
+      <c r="B130" s="65">
+        <v>117</v>
+      </c>
+      <c r="C130" s="66" t="s">
         <v>425</v>
       </c>
-      <c r="D122" s="66">
-        <v>50000</v>
-      </c>
-      <c r="E122" s="66">
+      <c r="D130" s="65">
+        <v>5</v>
+      </c>
+      <c r="E130" s="65">
         <v>1</v>
       </c>
-      <c r="F122" s="66"/>
-      <c r="G122" s="66"/>
-    </row>
-    <row r="123" spans="1:7" s="68" customFormat="1">
-      <c r="A123" s="65">
-        <v>122</v>
-      </c>
-      <c r="B123" s="66">
-        <v>116</v>
-      </c>
-      <c r="C123" s="67" t="s">
-        <v>426</v>
-      </c>
-      <c r="D123" s="66">
-        <v>100</v>
-      </c>
-      <c r="E123" s="66">
+      <c r="F130" s="65"/>
+      <c r="G130" s="65"/>
+    </row>
+    <row r="131" spans="1:7" s="67" customFormat="1">
+      <c r="A131" s="48">
+        <v>130</v>
+      </c>
+      <c r="B131" s="65">
+        <v>117</v>
+      </c>
+      <c r="C131" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="D131" s="65">
+        <v>200</v>
+      </c>
+      <c r="E131" s="65">
         <v>1</v>
       </c>
-      <c r="F123" s="66"/>
-      <c r="G123" s="66"/>
-    </row>
-    <row r="124" spans="1:7" s="68" customFormat="1">
-      <c r="A124" s="65">
-        <v>123</v>
-      </c>
-      <c r="B124" s="66">
-        <v>117</v>
-      </c>
-      <c r="C124" s="67" t="s">
-        <v>427</v>
-      </c>
-      <c r="D124" s="66">
-        <v>5</v>
-      </c>
-      <c r="E124" s="66">
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+    </row>
+    <row r="132" spans="1:7" s="67" customFormat="1">
+      <c r="A132" s="48">
+        <v>131</v>
+      </c>
+      <c r="B132" s="65">
+        <v>118</v>
+      </c>
+      <c r="C132" s="66" t="s">
+        <v>425</v>
+      </c>
+      <c r="D132" s="65">
+        <v>10</v>
+      </c>
+      <c r="E132" s="65">
         <v>1</v>
       </c>
-      <c r="F124" s="66"/>
-      <c r="G124" s="66"/>
-    </row>
-    <row r="125" spans="1:7" s="68" customFormat="1">
-      <c r="A125" s="65">
-        <v>124</v>
-      </c>
-      <c r="B125" s="66">
-        <v>117</v>
-      </c>
-      <c r="C125" s="67" t="s">
-        <v>426</v>
-      </c>
-      <c r="D125" s="66">
-        <v>200</v>
-      </c>
-      <c r="E125" s="66">
+      <c r="F132" s="65"/>
+      <c r="G132" s="65"/>
+    </row>
+    <row r="133" spans="1:7" s="67" customFormat="1">
+      <c r="A133" s="48">
+        <v>132</v>
+      </c>
+      <c r="B133" s="65">
+        <v>118</v>
+      </c>
+      <c r="C133" s="66" t="s">
+        <v>423</v>
+      </c>
+      <c r="D133" s="65">
+        <v>100000</v>
+      </c>
+      <c r="E133" s="65">
         <v>1</v>
       </c>
-      <c r="F125" s="66"/>
-      <c r="G125" s="66"/>
-    </row>
-    <row r="126" spans="1:7" s="68" customFormat="1">
-      <c r="A126" s="65">
-        <v>125</v>
-      </c>
-      <c r="B126" s="66">
-        <v>118</v>
-      </c>
-      <c r="C126" s="67" t="s">
-        <v>427</v>
-      </c>
-      <c r="D126" s="66">
-        <v>10</v>
-      </c>
-      <c r="E126" s="66">
+      <c r="F133" s="65"/>
+      <c r="G133" s="65"/>
+    </row>
+    <row r="134" spans="1:7" s="67" customFormat="1">
+      <c r="A134" s="48">
+        <v>133</v>
+      </c>
+      <c r="B134" s="65">
+        <v>119</v>
+      </c>
+      <c r="C134" s="66" t="s">
+        <v>425</v>
+      </c>
+      <c r="D134" s="65">
+        <v>20</v>
+      </c>
+      <c r="E134" s="65">
         <v>1</v>
       </c>
-      <c r="F126" s="66"/>
-      <c r="G126" s="66"/>
-    </row>
-    <row r="127" spans="1:7" s="68" customFormat="1">
-      <c r="A127" s="65">
-        <v>126</v>
-      </c>
-      <c r="B127" s="66">
-        <v>118</v>
-      </c>
-      <c r="C127" s="67" t="s">
-        <v>425</v>
-      </c>
-      <c r="D127" s="66">
-        <v>100000</v>
-      </c>
-      <c r="E127" s="66">
+      <c r="F134" s="65"/>
+      <c r="G134" s="65"/>
+    </row>
+    <row r="135" spans="1:7" s="67" customFormat="1">
+      <c r="A135" s="48">
+        <v>134</v>
+      </c>
+      <c r="B135" s="65">
+        <v>119</v>
+      </c>
+      <c r="C135" s="66" t="s">
+        <v>423</v>
+      </c>
+      <c r="D135" s="65">
+        <v>500000</v>
+      </c>
+      <c r="E135" s="65">
         <v>1</v>
       </c>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-    </row>
-    <row r="128" spans="1:7" s="68" customFormat="1">
-      <c r="A128" s="65">
-        <v>127</v>
-      </c>
-      <c r="B128" s="66">
-        <v>119</v>
-      </c>
-      <c r="C128" s="67" t="s">
-        <v>427</v>
-      </c>
-      <c r="D128" s="66">
-        <v>20</v>
-      </c>
-      <c r="E128" s="66">
-        <v>1</v>
-      </c>
-      <c r="F128" s="66"/>
-      <c r="G128" s="66"/>
-    </row>
-    <row r="129" spans="1:7" s="68" customFormat="1">
-      <c r="A129" s="65">
-        <v>128</v>
-      </c>
-      <c r="B129" s="66">
-        <v>119</v>
-      </c>
-      <c r="C129" s="67" t="s">
-        <v>425</v>
-      </c>
-      <c r="D129" s="66">
-        <v>500000</v>
-      </c>
-      <c r="E129" s="66">
-        <v>1</v>
-      </c>
-      <c r="F129" s="66"/>
-      <c r="G129" s="66"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13666,10 +13833,10 @@
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="72">
         <v>1</v>
       </c>
     </row>
@@ -13677,8 +13844,8 @@
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -13728,10 +13895,10 @@
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="72" t="s">
         <v>277</v>
       </c>
     </row>
@@ -13739,17 +13906,17 @@
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="72">
         <v>1</v>
       </c>
     </row>
@@ -13757,8 +13924,8 @@
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -13863,10 +14030,10 @@
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="70">
+      <c r="C21" s="73">
         <v>1</v>
       </c>
     </row>
@@ -13874,8 +14041,8 @@
       <c r="A22" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -46881,10 +47048,10 @@
       <c r="A45" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="72" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="69" t="s">
+      <c r="C45" s="72" t="s">
         <v>277</v>
       </c>
     </row>
@@ -46892,8 +47059,8 @@
       <c r="A46" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="439">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1748,6 +1748,34 @@
     <t>task_ocean_explore_week_children_task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>深海探险-新人任务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>premission_task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>_common_rank_ocean_explore_week_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_93</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1917,7 +1945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2116,14 +2144,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2401,11 +2432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L93" sqref="L93:M93"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2415,7 +2446,8 @@
     <col min="3" max="3" width="73.25" style="11" customWidth="1"/>
     <col min="4" max="4" width="31.125" style="11" customWidth="1"/>
     <col min="5" max="5" width="27.375" style="11" customWidth="1"/>
-    <col min="6" max="13" width="27.5" style="11" customWidth="1"/>
+    <col min="6" max="12" width="27.5" style="11" customWidth="1"/>
+    <col min="13" max="13" width="36.125" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="61" style="11" customWidth="1"/>
     <col min="15" max="15" width="54.375" style="11" customWidth="1"/>
     <col min="16" max="16" width="35" style="11" customWidth="1"/>
@@ -5732,7 +5764,7 @@
         <v>408</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="E93" s="47" t="s">
         <v>410</v>
@@ -5755,7 +5787,7 @@
       <c r="K93" s="49">
         <v>-1</v>
       </c>
-      <c r="L93" s="74">
+      <c r="L93" s="73">
         <v>1</v>
       </c>
       <c r="M93" s="24" t="s">
@@ -5798,6 +5830,44 @@
       </c>
       <c r="L94" s="49"/>
       <c r="M94" s="49"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="11">
+        <v>95</v>
+      </c>
+      <c r="B95" s="11">
+        <v>1</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="E95" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F95" s="11">
+        <v>95</v>
+      </c>
+      <c r="G95" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11">
+        <v>1</v>
+      </c>
+      <c r="I95" s="11">
+        <v>1615248000</v>
+      </c>
+      <c r="J95" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K95" s="11">
+        <v>-1</v>
+      </c>
+      <c r="L95" s="11">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5808,11 +5878,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8273,6 +8343,26 @@
         <v>411</v>
       </c>
     </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4">
+        <v>95</v>
+      </c>
+      <c r="D96" s="4">
+        <v>95</v>
+      </c>
+      <c r="F96" s="4">
+        <v>30000</v>
+      </c>
+      <c r="H96" s="4">
+        <v>120</v>
+      </c>
+      <c r="I96" s="42" t="s">
+        <v>435</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8282,10 +8372,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10020,6 +10110,20 @@
         <v>420</v>
       </c>
       <c r="D103" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4">
+        <v>95</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="D104" s="11">
         <v>0</v>
       </c>
     </row>
@@ -11204,11 +11308,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13688,6 +13792,57 @@
       </c>
       <c r="F135" s="65"/>
       <c r="G135" s="65"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="11">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4">
+        <v>120</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="D136" s="14">
+        <v>3</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="11">
+        <v>136</v>
+      </c>
+      <c r="B137" s="72">
+        <v>120</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="D137" s="14">
+        <v>1</v>
+      </c>
+      <c r="E137" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="11">
+        <v>137</v>
+      </c>
+      <c r="B138" s="72">
+        <v>120</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="D138" s="14">
+        <v>1</v>
+      </c>
+      <c r="E138" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -13833,10 +13988,10 @@
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="74">
         <v>1</v>
       </c>
     </row>
@@ -13844,8 +13999,8 @@
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -13895,10 +14050,10 @@
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="74" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="74" t="s">
         <v>277</v>
       </c>
     </row>
@@ -13906,17 +14061,17 @@
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="74" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="74">
         <v>1</v>
       </c>
     </row>
@@ -13924,8 +14079,8 @@
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -14030,10 +14185,10 @@
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="75">
         <v>1</v>
       </c>
     </row>
@@ -14041,8 +14196,8 @@
       <c r="A22" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -47048,10 +47203,10 @@
       <c r="A45" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="74" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="72" t="s">
+      <c r="C45" s="74" t="s">
         <v>277</v>
       </c>
     </row>
@@ -47059,8 +47214,8 @@
       <c r="A46" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -47163,16 +47318,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="438">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1622,10 +1622,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_award</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>buyu_3d_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2434,9 +2430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I95" sqref="I95"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2492,10 +2488,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>11</v>
@@ -5487,7 +5483,7 @@
         <v>14</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F85" s="14">
         <v>85</v>
@@ -5761,13 +5757,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E93" s="47" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F93" s="11">
         <v>93</v>
@@ -5791,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="M93" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -5802,10 +5798,10 @@
         <v>0</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E94" s="47" t="s">
         <v>37</v>
@@ -5839,10 +5835,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D95" s="47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E95" s="47" t="s">
         <v>37</v>
@@ -5880,7 +5876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
     </sheetView>
@@ -8115,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G86" s="41"/>
       <c r="H86" s="43" t="s">
@@ -8308,13 +8304,13 @@
         <v>93</v>
       </c>
       <c r="F94" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="H94" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="H94" s="42" t="s">
-        <v>413</v>
-      </c>
       <c r="I94" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -8333,14 +8329,14 @@
       </c>
       <c r="E95" s="64"/>
       <c r="F95" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G95" s="64"/>
       <c r="H95" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I95" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -8360,7 +8356,7 @@
         <v>120</v>
       </c>
       <c r="I96" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -8372,10 +8368,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9743,7 +9739,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -9753,14 +9749,14 @@
       <c r="I80" s="15"/>
     </row>
     <row r="81" spans="1:9" s="33" customFormat="1">
-      <c r="A81" s="57">
+      <c r="A81" s="8">
         <v>80</v>
       </c>
       <c r="B81" s="57">
         <v>80</v>
       </c>
       <c r="C81" s="61" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D81" s="57">
         <v>0</v>
@@ -9770,14 +9766,14 @@
       <c r="I81" s="15"/>
     </row>
     <row r="82" spans="1:9" s="33" customFormat="1">
-      <c r="A82" s="57">
+      <c r="A82" s="8">
         <v>81</v>
       </c>
       <c r="B82" s="57">
         <v>80</v>
       </c>
-      <c r="C82" s="61" t="s">
-        <v>414</v>
+      <c r="C82" s="62" t="s">
+        <v>185</v>
       </c>
       <c r="D82" s="57">
         <v>0</v>
@@ -9787,14 +9783,14 @@
       <c r="I82" s="15"/>
     </row>
     <row r="83" spans="1:9" s="33" customFormat="1">
-      <c r="A83" s="57">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
       <c r="B83" s="57">
         <v>80</v>
       </c>
       <c r="C83" s="62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D83" s="57">
         <v>0</v>
@@ -9804,14 +9800,14 @@
       <c r="I83" s="15"/>
     </row>
     <row r="84" spans="1:9" s="33" customFormat="1">
-      <c r="A84" s="57">
+      <c r="A84" s="8">
         <v>83</v>
       </c>
       <c r="B84" s="57">
         <v>80</v>
       </c>
       <c r="C84" s="62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D84" s="57">
         <v>0</v>
@@ -9821,24 +9817,24 @@
       <c r="I84" s="15"/>
     </row>
     <row r="85" spans="1:9" s="33" customFormat="1">
-      <c r="A85" s="57">
+      <c r="A85" s="8">
         <v>84</v>
       </c>
       <c r="B85" s="57">
         <v>80</v>
       </c>
-      <c r="C85" s="62" t="s">
-        <v>187</v>
+      <c r="C85" s="61" t="s">
+        <v>404</v>
       </c>
       <c r="D85" s="57">
         <v>0</v>
       </c>
       <c r="E85" s="15"/>
-      <c r="H85" s="15"/>
+      <c r="H85" s="63"/>
       <c r="I85" s="15"/>
     </row>
     <row r="86" spans="1:9" s="33" customFormat="1">
-      <c r="A86" s="57">
+      <c r="A86" s="8">
         <v>85</v>
       </c>
       <c r="B86" s="57">
@@ -9855,7 +9851,7 @@
       <c r="I86" s="15"/>
     </row>
     <row r="87" spans="1:9" s="33" customFormat="1">
-      <c r="A87" s="57">
+      <c r="A87" s="8">
         <v>86</v>
       </c>
       <c r="B87" s="57">
@@ -9868,18 +9864,18 @@
         <v>0</v>
       </c>
       <c r="E87" s="15"/>
-      <c r="H87" s="63"/>
+      <c r="H87" s="15"/>
       <c r="I87" s="15"/>
     </row>
     <row r="88" spans="1:9" s="33" customFormat="1">
-      <c r="A88" s="57">
+      <c r="A88" s="8">
         <v>87</v>
       </c>
       <c r="B88" s="57">
         <v>80</v>
       </c>
       <c r="C88" s="61" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="D88" s="57">
         <v>0</v>
@@ -9889,14 +9885,14 @@
       <c r="I88" s="15"/>
     </row>
     <row r="89" spans="1:9" s="33" customFormat="1">
-      <c r="A89" s="57">
+      <c r="A89" s="8">
         <v>88</v>
       </c>
       <c r="B89" s="57">
         <v>80</v>
       </c>
       <c r="C89" s="61" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D89" s="57">
         <v>0</v>
@@ -9905,35 +9901,32 @@
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
     </row>
-    <row r="90" spans="1:9" s="33" customFormat="1">
-      <c r="A90" s="57">
+    <row r="90" spans="1:9">
+      <c r="A90" s="8">
         <v>89</v>
       </c>
-      <c r="B90" s="57">
-        <v>80</v>
-      </c>
-      <c r="C90" s="61" t="s">
-        <v>416</v>
-      </c>
-      <c r="D90" s="57">
+      <c r="B90" s="18">
+        <v>81</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D90" s="18">
         <v>0</v>
       </c>
-      <c r="E90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="18">
-        <v>81</v>
-      </c>
-      <c r="C91" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="D91" s="18">
-        <v>0</v>
+      <c r="B91" s="39">
+        <v>82</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="D91" s="37">
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -9941,13 +9934,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="D92" s="37">
-        <v>33</v>
+        <v>369</v>
+      </c>
+      <c r="D92" s="39">
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -9955,49 +9948,52 @@
         <v>92</v>
       </c>
       <c r="B93" s="39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="D93" s="39">
-        <v>34</v>
+        <v>370</v>
+      </c>
+      <c r="D93" s="37">
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="39">
-        <v>84</v>
-      </c>
-      <c r="C94" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="D94" s="37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="B94" s="41">
+        <v>85</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="D94" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="33" customFormat="1">
       <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="41">
-        <v>85</v>
-      </c>
-      <c r="C95" s="42" t="s">
-        <v>375</v>
+      <c r="B95" s="15">
+        <v>86</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="D95" s="15">
         <v>0</v>
       </c>
+      <c r="E95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
     </row>
     <row r="96" spans="1:9" s="33" customFormat="1">
       <c r="A96" s="8">
         <v>95</v>
       </c>
       <c r="B96" s="15">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>167</v>
@@ -10014,7 +10010,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="15">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>167</v>
@@ -10026,12 +10022,12 @@
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
     </row>
-    <row r="98" spans="1:9" s="33" customFormat="1">
+    <row r="98" spans="1:9">
       <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="15">
-        <v>88</v>
+      <c r="B98" s="4">
+        <v>89</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>167</v>
@@ -10039,21 +10035,18 @@
       <c r="D98" s="15">
         <v>0</v>
       </c>
-      <c r="E98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="8">
         <v>98</v>
       </c>
       <c r="B99" s="4">
-        <v>89</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D99" s="15">
+        <v>90</v>
+      </c>
+      <c r="C99" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" s="11">
         <v>0</v>
       </c>
     </row>
@@ -10062,7 +10055,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C100" s="42" t="s">
         <v>184</v>
@@ -10076,7 +10069,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C101" s="42" t="s">
         <v>184</v>
@@ -10090,40 +10083,26 @@
         <v>101</v>
       </c>
       <c r="B102" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>184</v>
+        <v>419</v>
       </c>
       <c r="D102" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="4">
+      <c r="A103" s="8">
         <v>102</v>
       </c>
       <c r="B103" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="D103" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="4">
-        <v>103</v>
-      </c>
-      <c r="B104" s="4">
-        <v>95</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="D104" s="11">
         <v>0</v>
       </c>
     </row>
@@ -13247,7 +13226,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D106" s="41">
         <v>3000</v>
@@ -13450,7 +13429,7 @@
         <v>110</v>
       </c>
       <c r="C117" s="70" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D117" s="69">
         <v>1</v>
@@ -13486,7 +13465,7 @@
         <v>111</v>
       </c>
       <c r="C119" s="70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D119" s="69">
         <v>1</v>
@@ -13522,7 +13501,7 @@
         <v>112</v>
       </c>
       <c r="C121" s="70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D121" s="69">
         <v>1</v>
@@ -13558,7 +13537,7 @@
         <v>113</v>
       </c>
       <c r="C123" s="70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D123" s="69">
         <v>1</v>
@@ -13594,7 +13573,7 @@
         <v>114</v>
       </c>
       <c r="C125" s="70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D125" s="69">
         <v>1</v>
@@ -13630,7 +13609,7 @@
         <v>115</v>
       </c>
       <c r="C127" s="70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D127" s="69">
         <v>1</v>
@@ -13649,7 +13628,7 @@
         <v>116</v>
       </c>
       <c r="C128" s="66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D128" s="65">
         <v>50000</v>
@@ -13668,7 +13647,7 @@
         <v>116</v>
       </c>
       <c r="C129" s="66" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D129" s="65">
         <v>100</v>
@@ -13687,7 +13666,7 @@
         <v>117</v>
       </c>
       <c r="C130" s="66" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D130" s="65">
         <v>5</v>
@@ -13706,7 +13685,7 @@
         <v>117</v>
       </c>
       <c r="C131" s="66" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D131" s="65">
         <v>200</v>
@@ -13725,7 +13704,7 @@
         <v>118</v>
       </c>
       <c r="C132" s="66" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D132" s="65">
         <v>10</v>
@@ -13744,7 +13723,7 @@
         <v>118</v>
       </c>
       <c r="C133" s="66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D133" s="65">
         <v>100000</v>
@@ -13763,7 +13742,7 @@
         <v>119</v>
       </c>
       <c r="C134" s="66" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D134" s="65">
         <v>20</v>
@@ -13782,7 +13761,7 @@
         <v>119</v>
       </c>
       <c r="C135" s="66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D135" s="65">
         <v>500000</v>
@@ -13801,7 +13780,7 @@
         <v>120</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D136" s="14">
         <v>3</v>
@@ -13818,7 +13797,7 @@
         <v>120</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D137" s="14">
         <v>1</v>
@@ -13835,7 +13814,7 @@
         <v>120</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D138" s="14">
         <v>1</v>
@@ -47318,16 +47297,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="449">
   <si>
     <t>id|任务id</t>
   </si>
@@ -471,13 +471,7 @@
     <t>新玩家捕鱼红包任务(海底遗迹)</t>
   </si>
   <si>
-    <t> 全返礼包1，7次任务，匹配场任意场次对局5次可领1元激励金，每日限领1次</t>
-  </si>
-  <si>
     <t>sczd_all_return_task1</t>
-  </si>
-  <si>
-    <t>全返礼包2，10次任务，参加1次千元赛不论输赢可领10元激励金</t>
   </si>
   <si>
     <t>sczd_all_return_task2</t>
@@ -1514,9 +1508,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_award</t>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1622,7 +1613,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_award</t>
+    <t>buyu_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1639,10 +1630,6 @@
   </si>
   <si>
     <t>深海探险层数任务</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1772,6 +1759,196 @@
     <t>prop_3d_fish_lock</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t> 全返礼包1（周返）--在3D捕鱼中累计消耗5万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t> 全返礼包2（月返）--在3D捕鱼中累计消耗50万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
+  </si>
+  <si>
+    <t>消消乐闯关层数任务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>121</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>122</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>andom</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_tower_week_task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>task_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iaoxiaole_tower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_week_children_task</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,50,10000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1834,7 +2011,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1901,6 +2078,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1941,7 +2124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2145,6 +2328,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2428,11 +2633,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U95"/>
+  <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2443,7 +2648,7 @@
     <col min="4" max="4" width="31.125" style="11" customWidth="1"/>
     <col min="5" max="5" width="27.375" style="11" customWidth="1"/>
     <col min="6" max="12" width="27.5" style="11" customWidth="1"/>
-    <col min="13" max="13" width="36.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="61" style="11" customWidth="1"/>
     <col min="15" max="15" width="54.375" style="11" customWidth="1"/>
     <col min="16" max="16" width="35" style="11" customWidth="1"/>
@@ -2488,10 +2693,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>11</v>
@@ -4882,7 +5087,7 @@
         <v>122</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F68" s="24">
         <v>68</v>
@@ -5156,10 +5361,10 @@
         <v>0</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>122</v>
@@ -5194,7 +5399,7 @@
         <v>133</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>122</v>
@@ -5225,14 +5430,14 @@
       <c r="B78" s="49">
         <v>1</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C78" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="D78" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="D78" s="50" t="s">
-        <v>135</v>
-      </c>
       <c r="E78" s="60" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F78" s="49">
         <v>78</v>
@@ -5260,14 +5465,14 @@
       <c r="B79" s="49">
         <v>1</v>
       </c>
-      <c r="C79" s="50" t="s">
-        <v>136</v>
+      <c r="C79" s="60" t="s">
+        <v>435</v>
       </c>
       <c r="D79" s="50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E79" s="60" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F79" s="49">
         <v>79</v>
@@ -5296,13 +5501,13 @@
         <v>1</v>
       </c>
       <c r="C80" s="50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D80" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E80" s="60" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F80" s="49">
         <v>80</v>
@@ -5331,13 +5536,13 @@
         <v>1</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F81" s="14">
         <v>81</v>
@@ -5366,13 +5571,13 @@
         <v>0</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D82" s="37" t="s">
         <v>122</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F82" s="37">
         <v>82</v>
@@ -5403,10 +5608,10 @@
         <v>0</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E83" s="37" t="s">
         <v>122</v>
@@ -5440,10 +5645,10 @@
         <v>0</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E84" s="37" t="s">
         <v>122</v>
@@ -5477,13 +5682,13 @@
         <v>1</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F85" s="14">
         <v>85</v>
@@ -5515,7 +5720,7 @@
         <v>108</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>110</v>
@@ -5550,7 +5755,7 @@
         <v>111</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>110</v>
@@ -5585,7 +5790,7 @@
         <v>113</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>110</v>
@@ -5617,10 +5822,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>110</v>
@@ -5652,13 +5857,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="60" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D90" s="60" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E90" s="60" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F90" s="49">
         <v>90</v>
@@ -5687,13 +5892,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="D91" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D91" s="60" t="s">
-        <v>398</v>
-      </c>
       <c r="E91" s="60" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F91" s="49">
         <v>91</v>
@@ -5722,13 +5927,13 @@
         <v>1</v>
       </c>
       <c r="C92" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="D92" s="60" t="s">
         <v>396</v>
       </c>
-      <c r="D92" s="60" t="s">
-        <v>399</v>
-      </c>
       <c r="E92" s="60" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F92" s="49">
         <v>92</v>
@@ -5757,13 +5962,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E93" s="47" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F93" s="11">
         <v>93</v>
@@ -5787,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="M93" s="24" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -5798,10 +6003,10 @@
         <v>0</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="E94" s="47" t="s">
         <v>37</v>
@@ -5835,10 +6040,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="47" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D95" s="47" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E95" s="47" t="s">
         <v>37</v>
@@ -5863,6 +6068,47 @@
       </c>
       <c r="L95" s="11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="75" customFormat="1">
+      <c r="A96" s="75">
+        <v>96</v>
+      </c>
+      <c r="B96" s="75">
+        <v>0</v>
+      </c>
+      <c r="C96" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="D96" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="E96" s="76" t="s">
+        <v>444</v>
+      </c>
+      <c r="F96" s="75">
+        <v>96</v>
+      </c>
+      <c r="G96" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="75">
+        <v>7</v>
+      </c>
+      <c r="I96" s="75">
+        <v>1615046400</v>
+      </c>
+      <c r="J96" s="75">
+        <v>32503651200</v>
+      </c>
+      <c r="K96" s="75">
+        <v>-1</v>
+      </c>
+      <c r="L96" s="75">
+        <v>1</v>
+      </c>
+      <c r="M96" s="76" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -5874,11 +6120,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5894,34 +6140,34 @@
   <sheetData>
     <row r="1" spans="1:11" ht="36" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K1" s="21"/>
     </row>
@@ -5933,7 +6179,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -5942,14 +6188,14 @@
         <v>1</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5960,7 +6206,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -5969,14 +6215,14 @@
         <v>2</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5987,7 +6233,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
@@ -5996,14 +6242,14 @@
         <v>3</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6014,7 +6260,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" s="4">
         <v>4</v>
@@ -6023,14 +6269,14 @@
         <v>4</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6041,7 +6287,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
@@ -6057,7 +6303,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J6" s="22"/>
     </row>
@@ -6069,7 +6315,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="4">
         <v>6</v>
@@ -6084,7 +6330,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6095,7 +6341,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="4">
         <v>7</v>
@@ -6110,7 +6356,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6121,7 +6367,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -6136,7 +6382,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -6148,7 +6394,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D10" s="4">
         <v>9</v>
@@ -6163,7 +6409,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6174,7 +6420,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" s="4">
         <v>10</v>
@@ -6189,7 +6435,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6200,7 +6446,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="4">
         <v>11</v>
@@ -6215,7 +6461,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6226,7 +6472,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4">
         <v>12</v>
@@ -6241,7 +6487,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6252,7 +6498,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14" s="4">
         <v>13</v>
@@ -6267,7 +6513,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6278,7 +6524,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" s="4">
         <v>14</v>
@@ -6293,7 +6539,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6304,7 +6550,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D16" s="4">
         <v>15</v>
@@ -6319,7 +6565,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6330,7 +6576,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" s="4">
         <v>16</v>
@@ -6345,7 +6591,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6356,7 +6602,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D18" s="4">
         <v>17</v>
@@ -6371,7 +6617,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6382,7 +6628,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D19" s="4">
         <v>18</v>
@@ -6397,7 +6643,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6408,7 +6654,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D20" s="4">
         <v>19</v>
@@ -6423,7 +6669,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6434,7 +6680,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D21" s="4">
         <v>20</v>
@@ -6449,7 +6695,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6460,7 +6706,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D22" s="4">
         <v>21</v>
@@ -6475,7 +6721,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6486,7 +6732,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D23" s="4">
         <v>22</v>
@@ -6501,7 +6747,7 @@
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6512,7 +6758,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="4">
         <v>23</v>
@@ -6527,7 +6773,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6538,7 +6784,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D25" s="4">
         <v>24</v>
@@ -6553,7 +6799,7 @@
         <v>23</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6564,7 +6810,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D26" s="4">
         <v>25</v>
@@ -6579,7 +6825,7 @@
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6590,7 +6836,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D27" s="4">
         <v>26</v>
@@ -6605,7 +6851,7 @@
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6616,7 +6862,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D28" s="4">
         <v>27</v>
@@ -6631,7 +6877,7 @@
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6642,7 +6888,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D29" s="4">
         <v>28</v>
@@ -6657,7 +6903,7 @@
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6668,7 +6914,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" s="4">
         <v>29</v>
@@ -6683,7 +6929,7 @@
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6694,7 +6940,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D31" s="4">
         <v>30</v>
@@ -6709,7 +6955,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6720,7 +6966,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D32" s="4">
         <v>31</v>
@@ -6735,7 +6981,7 @@
         <v>31</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -6746,7 +6992,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D33" s="4">
         <v>32</v>
@@ -6761,7 +7007,7 @@
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -6772,7 +7018,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D34" s="4">
         <v>33</v>
@@ -6787,7 +7033,7 @@
         <v>33</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -6798,7 +7044,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D35" s="4">
         <v>34</v>
@@ -6813,7 +7059,7 @@
         <v>34</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -6824,7 +7070,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D36" s="4">
         <v>35</v>
@@ -6839,7 +7085,7 @@
         <v>35</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="12.95" customHeight="1">
@@ -6850,7 +7096,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D37" s="4">
         <v>36</v>
@@ -6865,7 +7111,7 @@
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12.95" customHeight="1">
@@ -6876,7 +7122,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D38" s="4">
         <v>37</v>
@@ -6891,7 +7137,7 @@
         <v>37</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -6902,7 +7148,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D39" s="4">
         <v>38</v>
@@ -6917,7 +7163,7 @@
         <v>37</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="12.95" customHeight="1">
@@ -6928,7 +7174,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D40" s="4">
         <v>39</v>
@@ -6943,7 +7189,7 @@
         <v>39</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="12.95" customHeight="1">
@@ -6954,7 +7200,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D41" s="4">
         <v>40</v>
@@ -6969,7 +7215,7 @@
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12.95" customHeight="1">
@@ -6980,7 +7226,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D42" s="4">
         <v>41</v>
@@ -6995,7 +7241,7 @@
         <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12.95" customHeight="1">
@@ -7006,7 +7252,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D43" s="4">
         <v>42</v>
@@ -7021,7 +7267,7 @@
         <v>42</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12.95" customHeight="1">
@@ -7032,7 +7278,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D44" s="4">
         <v>43</v>
@@ -7047,7 +7293,7 @@
         <v>42</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.95" customHeight="1">
@@ -7058,7 +7304,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D45" s="4">
         <v>44</v>
@@ -7073,7 +7319,7 @@
         <v>44</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.95" customHeight="1">
@@ -7084,7 +7330,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D46" s="4">
         <v>45</v>
@@ -7099,7 +7345,7 @@
         <v>44</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="12.95" customHeight="1">
@@ -7110,7 +7356,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D47" s="4">
         <v>46</v>
@@ -7125,7 +7371,7 @@
         <v>46</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12.95" customHeight="1">
@@ -7136,7 +7382,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D48" s="4">
         <v>47</v>
@@ -7151,7 +7397,7 @@
         <v>47</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="12.95" customHeight="1">
@@ -7162,7 +7408,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D49" s="4">
         <v>48</v>
@@ -7177,7 +7423,7 @@
         <v>48</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="12.95" customHeight="1">
@@ -7188,7 +7434,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D50" s="4">
         <v>49</v>
@@ -7203,7 +7449,7 @@
         <v>49</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7214,7 +7460,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D51" s="4">
         <v>50</v>
@@ -7223,14 +7469,14 @@
         <v>0</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7241,7 +7487,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" s="4">
         <v>51</v>
@@ -7256,7 +7502,7 @@
         <v>60</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7267,7 +7513,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="4">
         <v>52</v>
@@ -7282,7 +7528,7 @@
         <v>61</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -7293,7 +7539,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="4">
         <v>53</v>
@@ -7308,7 +7554,7 @@
         <v>62</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -7319,7 +7565,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="4">
         <v>54</v>
@@ -7334,7 +7580,7 @@
         <v>63</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -7345,7 +7591,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D56" s="4">
         <v>55</v>
@@ -7360,7 +7606,7 @@
         <v>64</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -7371,7 +7617,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D57" s="4">
         <v>56</v>
@@ -7386,7 +7632,7 @@
         <v>65</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -7397,7 +7643,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="4">
         <v>57</v>
@@ -7409,7 +7655,7 @@
         <v>5</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -7420,7 +7666,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D59" s="4">
         <v>58</v>
@@ -7432,7 +7678,7 @@
         <v>5</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -7443,7 +7689,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D60" s="4">
         <v>59</v>
@@ -7455,7 +7701,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -7466,7 +7712,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D61" s="4">
         <v>60</v>
@@ -7478,7 +7724,7 @@
         <v>5</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7489,7 +7735,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D62" s="4">
         <v>61</v>
@@ -7498,10 +7744,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -7512,7 +7758,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D63" s="4">
         <v>62</v>
@@ -7524,7 +7770,7 @@
         <v>99999</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -7535,7 +7781,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D64" s="4">
         <v>63</v>
@@ -7547,7 +7793,7 @@
         <v>99999</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -7558,7 +7804,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D65" s="4">
         <v>64</v>
@@ -7570,7 +7816,7 @@
         <v>99999</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -7581,7 +7827,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D66" s="4">
         <v>65</v>
@@ -7596,7 +7842,7 @@
         <v>70</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -7607,7 +7853,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D67" s="4">
         <v>66</v>
@@ -7622,7 +7868,7 @@
         <v>71</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -7633,7 +7879,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D68" s="4">
         <v>67</v>
@@ -7646,7 +7892,7 @@
       </c>
       <c r="G68" s="23"/>
       <c r="I68" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -7657,7 +7903,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D69" s="4">
         <v>68</v>
@@ -7675,7 +7921,7 @@
         <v>72</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="33" customFormat="1">
@@ -7686,7 +7932,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D70" s="15">
         <v>69</v>
@@ -7695,14 +7941,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="33" customFormat="1">
@@ -7713,7 +7959,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D71" s="15">
         <v>70</v>
@@ -7729,7 +7975,7 @@
         <v>88</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="33" customFormat="1">
@@ -7740,7 +7986,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D72" s="15">
         <v>71</v>
@@ -7756,7 +8002,7 @@
         <v>89</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="33" customFormat="1">
@@ -7767,7 +8013,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D73" s="15">
         <v>72</v>
@@ -7783,7 +8029,7 @@
         <v>90</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="33" customFormat="1">
@@ -7794,7 +8040,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D74" s="15">
         <v>73</v>
@@ -7810,7 +8056,7 @@
         <v>91</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="33" customFormat="1">
@@ -7821,7 +8067,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D75" s="15">
         <v>74</v>
@@ -7844,7 +8090,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D76" s="15">
         <v>75</v>
@@ -7867,7 +8113,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="36" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D77" s="15">
         <v>76</v>
@@ -7885,7 +8131,7 @@
         <v>92</v>
       </c>
       <c r="I77" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="33" customFormat="1">
@@ -7896,7 +8142,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D78" s="15">
         <v>77</v>
@@ -7914,7 +8160,7 @@
         <v>93</v>
       </c>
       <c r="I78" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="3" customFormat="1">
@@ -7937,7 +8183,7 @@
         <v>94</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="3" customFormat="1">
@@ -7960,7 +8206,7 @@
         <v>95</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="3" customFormat="1">
@@ -7983,7 +8229,7 @@
         <v>96</v>
       </c>
       <c r="I81" s="52" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -7994,7 +8240,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D82" s="18">
         <v>81</v>
@@ -8012,7 +8258,7 @@
         <v>97</v>
       </c>
       <c r="I82" s="34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -8023,7 +8269,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D83" s="39">
         <v>82</v>
@@ -8039,7 +8285,7 @@
         <v>98</v>
       </c>
       <c r="I83" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="33" customFormat="1">
@@ -8050,7 +8296,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D84" s="39">
         <v>83</v>
@@ -8066,7 +8312,7 @@
         <v>99</v>
       </c>
       <c r="I84" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="33" customFormat="1">
@@ -8077,7 +8323,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D85" s="39">
         <v>84</v>
@@ -8093,7 +8339,7 @@
         <v>100</v>
       </c>
       <c r="I85" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -8111,14 +8357,14 @@
         <v>0</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G86" s="41"/>
       <c r="H86" s="43" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I86" s="42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -8132,7 +8378,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D87" s="15">
         <v>86</v>
@@ -8146,7 +8392,7 @@
       <c r="G87" s="45"/>
       <c r="H87" s="45"/>
       <c r="I87" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -8157,7 +8403,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D88" s="15">
         <v>87</v>
@@ -8171,7 +8417,7 @@
       <c r="G88" s="45"/>
       <c r="H88" s="45"/>
       <c r="I88" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -8182,7 +8428,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D89" s="15">
         <v>88</v>
@@ -8196,7 +8442,7 @@
       <c r="G89" s="45"/>
       <c r="H89" s="45"/>
       <c r="I89" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -8207,7 +8453,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D90" s="15">
         <v>89</v>
@@ -8221,7 +8467,7 @@
       <c r="G90" s="46"/>
       <c r="H90" s="46"/>
       <c r="I90" s="46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="3" customFormat="1">
@@ -8244,7 +8490,7 @@
         <v>107</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="3" customFormat="1">
@@ -8267,7 +8513,7 @@
         <v>108</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="3" customFormat="1">
@@ -8290,7 +8536,7 @@
         <v>109</v>
       </c>
       <c r="I93" s="52" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -8304,13 +8550,13 @@
         <v>93</v>
       </c>
       <c r="F94" s="42" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H94" s="42" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I94" s="42" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -8329,14 +8575,14 @@
       </c>
       <c r="E95" s="64"/>
       <c r="F95" s="42" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G95" s="64"/>
       <c r="H95" s="42" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I95" s="42" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -8356,8 +8602,32 @@
         <v>120</v>
       </c>
       <c r="I96" s="42" t="s">
-        <v>434</v>
-      </c>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="74">
+        <v>96</v>
+      </c>
+      <c r="B97" s="75">
+        <v>96</v>
+      </c>
+      <c r="C97" s="77"/>
+      <c r="D97" s="77">
+        <v>96</v>
+      </c>
+      <c r="E97" s="77"/>
+      <c r="F97" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="G97" s="77"/>
+      <c r="H97" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="I97" s="79" t="s">
+        <v>443</v>
+      </c>
+      <c r="J97" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8368,10 +8638,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8386,19 +8656,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27">
       <c r="A1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -8413,7 +8683,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="14">
         <v>1</v>
@@ -8430,7 +8700,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" s="14">
         <v>2</v>
@@ -8447,7 +8717,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="14">
         <v>3</v>
@@ -8464,7 +8734,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" s="14">
         <v>4</v>
@@ -8481,7 +8751,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="14">
         <v>5</v>
@@ -8498,7 +8768,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="15">
         <v>6</v>
@@ -8515,7 +8785,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="15">
         <v>15</v>
@@ -8532,7 +8802,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9" s="15">
         <v>7</v>
@@ -8549,7 +8819,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D10" s="15">
         <v>0</v>
@@ -8566,7 +8836,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" s="15">
         <v>7</v>
@@ -8583,7 +8853,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="15">
         <v>10</v>
@@ -8600,7 +8870,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="15">
         <v>7</v>
@@ -8617,7 +8887,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14" s="15">
         <v>7</v>
@@ -8634,7 +8904,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" s="15">
         <v>18</v>
@@ -8651,7 +8921,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D16" s="15">
         <v>0</v>
@@ -8668,7 +8938,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" s="15">
         <v>19</v>
@@ -8685,7 +8955,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D18" s="15">
         <v>10</v>
@@ -8702,7 +8972,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D19" s="15">
         <v>12</v>
@@ -8719,7 +8989,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D20" s="15">
         <v>11</v>
@@ -8736,7 +9006,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D21" s="15">
         <v>10</v>
@@ -8753,7 +9023,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D22" s="15">
         <v>8</v>
@@ -8770,7 +9040,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D23" s="15">
         <v>11</v>
@@ -8787,7 +9057,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="15">
         <v>9</v>
@@ -8804,7 +9074,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D25" s="15">
         <v>9</v>
@@ -8821,7 +9091,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D26" s="15">
         <v>20</v>
@@ -8838,7 +9108,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D27" s="15">
         <v>13</v>
@@ -8855,7 +9125,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D28" s="15">
         <v>11</v>
@@ -8872,7 +9142,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D29" s="15">
         <v>14</v>
@@ -8889,7 +9159,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" s="15">
         <v>12</v>
@@ -8906,7 +9176,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D31" s="15">
         <v>21</v>
@@ -8923,7 +9193,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D32" s="15">
         <v>7</v>
@@ -8940,7 +9210,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D33" s="15">
         <v>0</v>
@@ -8957,7 +9227,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D34" s="15">
         <v>7</v>
@@ -8974,7 +9244,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D35" s="15">
         <v>10</v>
@@ -8991,7 +9261,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D36" s="15">
         <v>7</v>
@@ -9008,7 +9278,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D37" s="15">
         <v>0</v>
@@ -9025,7 +9295,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D38" s="15">
         <v>0</v>
@@ -9042,7 +9312,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D39" s="15">
         <v>24</v>
@@ -9059,7 +9329,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D40" s="15">
         <v>10</v>
@@ -9076,7 +9346,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D41" s="15">
         <v>7</v>
@@ -9093,7 +9363,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D42" s="15">
         <v>0</v>
@@ -9110,7 +9380,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D43" s="15">
         <v>7</v>
@@ -9127,7 +9397,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D44" s="15">
         <v>0</v>
@@ -9144,7 +9414,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D45" s="15">
         <v>0</v>
@@ -9161,7 +9431,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D46" s="15">
         <v>18</v>
@@ -9178,7 +9448,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D47" s="15">
         <v>10</v>
@@ -9195,7 +9465,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D48" s="15">
         <v>25</v>
@@ -9212,7 +9482,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D49" s="15">
         <v>26</v>
@@ -9229,7 +9499,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D50" s="15">
         <v>27</v>
@@ -9246,7 +9516,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D51" s="15">
         <v>0</v>
@@ -9263,7 +9533,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" s="15">
         <v>15</v>
@@ -9280,7 +9550,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="15">
         <v>17</v>
@@ -9297,7 +9567,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="15">
         <v>22</v>
@@ -9314,7 +9584,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="15">
         <v>22</v>
@@ -9331,7 +9601,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D56" s="15">
         <v>23</v>
@@ -9348,7 +9618,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D57" s="15">
         <v>0</v>
@@ -9365,7 +9635,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="15">
         <v>0</v>
@@ -9382,7 +9652,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D59" s="15">
         <v>0</v>
@@ -9399,7 +9669,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D60" s="15">
         <v>0</v>
@@ -9416,7 +9686,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D61" s="15">
         <v>0</v>
@@ -9433,7 +9703,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D62" s="15">
         <v>0</v>
@@ -9450,7 +9720,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D63" s="15">
         <v>0</v>
@@ -9467,7 +9737,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D64" s="15">
         <v>0</v>
@@ -9484,7 +9754,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D65" s="15">
         <v>0</v>
@@ -9501,7 +9771,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D66" s="15">
         <v>0</v>
@@ -9518,7 +9788,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D67" s="15">
         <v>0</v>
@@ -9535,7 +9805,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D68" s="15">
         <v>0</v>
@@ -9552,7 +9822,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D69" s="15">
         <v>28</v>
@@ -9569,7 +9839,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D70" s="15">
         <v>0</v>
@@ -9586,7 +9856,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D71" s="15">
         <v>0</v>
@@ -9603,7 +9873,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D72" s="15">
         <v>0</v>
@@ -9620,7 +9890,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
@@ -9637,7 +9907,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D74" s="15">
         <v>0</v>
@@ -9654,7 +9924,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D75" s="15">
         <v>0</v>
@@ -9671,7 +9941,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D76" s="15">
         <v>0</v>
@@ -9688,7 +9958,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D77" s="15">
         <v>29</v>
@@ -9705,7 +9975,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D78" s="15">
         <v>30</v>
@@ -9722,7 +9992,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="D79" s="8">
         <v>0</v>
@@ -9739,7 +10009,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -9749,14 +10019,14 @@
       <c r="I80" s="15"/>
     </row>
     <row r="81" spans="1:9" s="33" customFormat="1">
-      <c r="A81" s="8">
+      <c r="A81" s="57">
         <v>80</v>
       </c>
       <c r="B81" s="57">
         <v>80</v>
       </c>
       <c r="C81" s="61" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D81" s="57">
         <v>0</v>
@@ -9766,14 +10036,14 @@
       <c r="I81" s="15"/>
     </row>
     <row r="82" spans="1:9" s="33" customFormat="1">
-      <c r="A82" s="8">
+      <c r="A82" s="57">
         <v>81</v>
       </c>
       <c r="B82" s="57">
         <v>80</v>
       </c>
-      <c r="C82" s="62" t="s">
-        <v>185</v>
+      <c r="C82" s="61" t="s">
+        <v>409</v>
       </c>
       <c r="D82" s="57">
         <v>0</v>
@@ -9783,14 +10053,14 @@
       <c r="I82" s="15"/>
     </row>
     <row r="83" spans="1:9" s="33" customFormat="1">
-      <c r="A83" s="8">
+      <c r="A83" s="57">
         <v>82</v>
       </c>
       <c r="B83" s="57">
         <v>80</v>
       </c>
       <c r="C83" s="62" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D83" s="57">
         <v>0</v>
@@ -9800,14 +10070,14 @@
       <c r="I83" s="15"/>
     </row>
     <row r="84" spans="1:9" s="33" customFormat="1">
-      <c r="A84" s="8">
+      <c r="A84" s="57">
         <v>83</v>
       </c>
       <c r="B84" s="57">
         <v>80</v>
       </c>
       <c r="C84" s="62" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D84" s="57">
         <v>0</v>
@@ -9817,31 +10087,31 @@
       <c r="I84" s="15"/>
     </row>
     <row r="85" spans="1:9" s="33" customFormat="1">
-      <c r="A85" s="8">
+      <c r="A85" s="57">
         <v>84</v>
       </c>
       <c r="B85" s="57">
         <v>80</v>
       </c>
-      <c r="C85" s="61" t="s">
-        <v>404</v>
+      <c r="C85" s="62" t="s">
+        <v>185</v>
       </c>
       <c r="D85" s="57">
         <v>0</v>
       </c>
       <c r="E85" s="15"/>
-      <c r="H85" s="63"/>
+      <c r="H85" s="15"/>
       <c r="I85" s="15"/>
     </row>
     <row r="86" spans="1:9" s="33" customFormat="1">
-      <c r="A86" s="8">
+      <c r="A86" s="57">
         <v>85</v>
       </c>
       <c r="B86" s="57">
         <v>80</v>
       </c>
       <c r="C86" s="61" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D86" s="57">
         <v>0</v>
@@ -9851,31 +10121,31 @@
       <c r="I86" s="15"/>
     </row>
     <row r="87" spans="1:9" s="33" customFormat="1">
-      <c r="A87" s="8">
+      <c r="A87" s="57">
         <v>86</v>
       </c>
       <c r="B87" s="57">
         <v>80</v>
       </c>
       <c r="C87" s="61" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D87" s="57">
         <v>0</v>
       </c>
       <c r="E87" s="15"/>
-      <c r="H87" s="15"/>
+      <c r="H87" s="63"/>
       <c r="I87" s="15"/>
     </row>
     <row r="88" spans="1:9" s="33" customFormat="1">
-      <c r="A88" s="8">
+      <c r="A88" s="57">
         <v>87</v>
       </c>
       <c r="B88" s="57">
         <v>80</v>
       </c>
       <c r="C88" s="61" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D88" s="57">
         <v>0</v>
@@ -9885,14 +10155,14 @@
       <c r="I88" s="15"/>
     </row>
     <row r="89" spans="1:9" s="33" customFormat="1">
-      <c r="A89" s="8">
+      <c r="A89" s="57">
         <v>88</v>
       </c>
       <c r="B89" s="57">
         <v>80</v>
       </c>
       <c r="C89" s="61" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D89" s="57">
         <v>0</v>
@@ -9901,32 +10171,35 @@
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="8">
+    <row r="90" spans="1:9" s="33" customFormat="1">
+      <c r="A90" s="57">
         <v>89</v>
       </c>
-      <c r="B90" s="18">
-        <v>81</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="D90" s="18">
+      <c r="B90" s="57">
+        <v>80</v>
+      </c>
+      <c r="C90" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="D90" s="57">
         <v>0</v>
       </c>
+      <c r="E90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="39">
-        <v>82</v>
-      </c>
-      <c r="C91" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="D91" s="37">
-        <v>33</v>
+      <c r="B91" s="18">
+        <v>81</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="D91" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -9934,13 +10207,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="39">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C92" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="D92" s="39">
-        <v>34</v>
+      <c r="D92" s="37">
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -9948,55 +10221,52 @@
         <v>92</v>
       </c>
       <c r="B93" s="39">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="D93" s="37">
-        <v>35</v>
+        <v>367</v>
+      </c>
+      <c r="D93" s="39">
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="41">
-        <v>85</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="D94" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="33" customFormat="1">
+      <c r="B94" s="39">
+        <v>84</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="D94" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="15">
-        <v>86</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>167</v>
+      <c r="B95" s="41">
+        <v>85</v>
+      </c>
+      <c r="C95" s="42" t="s">
+        <v>373</v>
       </c>
       <c r="D95" s="15">
         <v>0</v>
       </c>
-      <c r="E95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
     </row>
     <row r="96" spans="1:9" s="33" customFormat="1">
       <c r="A96" s="8">
         <v>95</v>
       </c>
       <c r="B96" s="15">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D96" s="15">
         <v>0</v>
@@ -10010,10 +10280,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="15">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D97" s="15">
         <v>0</v>
@@ -10022,31 +10292,34 @@
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" s="33" customFormat="1">
       <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="4">
-        <v>89</v>
+      <c r="B98" s="15">
+        <v>88</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D98" s="15">
         <v>0</v>
       </c>
+      <c r="E98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="8">
         <v>98</v>
       </c>
       <c r="B99" s="4">
-        <v>90</v>
-      </c>
-      <c r="C99" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D99" s="11">
+        <v>89</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="15">
         <v>0</v>
       </c>
     </row>
@@ -10055,10 +10328,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D100" s="11">
         <v>0</v>
@@ -10069,10 +10342,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D101" s="11">
         <v>0</v>
@@ -10083,26 +10356,40 @@
         <v>101</v>
       </c>
       <c r="B102" s="4">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>419</v>
+        <v>182</v>
       </c>
       <c r="D102" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="8">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
       <c r="B103" s="4">
+        <v>94</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="D103" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4">
         <v>95</v>
       </c>
-      <c r="C103" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="D103" s="11">
+      <c r="C104" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="D104" s="11">
         <v>0</v>
       </c>
     </row>
@@ -10133,19 +10420,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="66.95" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>12</v>
@@ -10159,10 +10446,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -10176,7 +10463,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -10193,10 +10480,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -10210,7 +10497,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -10227,10 +10514,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -10244,7 +10531,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -10261,10 +10548,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -10278,7 +10565,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -10295,10 +10582,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
@@ -10312,10 +10599,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
@@ -10329,7 +10616,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -10346,10 +10633,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -10363,10 +10650,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -10380,10 +10667,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -10397,7 +10684,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -10414,10 +10701,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -10431,7 +10718,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -10448,7 +10735,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -10465,10 +10752,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -10482,7 +10769,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -10499,7 +10786,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -10516,10 +10803,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -10533,10 +10820,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
@@ -10550,7 +10837,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
@@ -10567,10 +10854,10 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -10584,7 +10871,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
@@ -10601,7 +10888,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -10618,10 +10905,10 @@
         <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E29" s="4">
         <v>2</v>
@@ -10638,7 +10925,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
@@ -10655,10 +10942,10 @@
         <v>16</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E31" s="4">
         <v>2</v>
@@ -10672,10 +10959,10 @@
         <v>16</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
@@ -10689,7 +10976,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D33" s="4">
         <v>96</v>
@@ -10706,10 +10993,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
@@ -10723,7 +11010,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -10740,10 +11027,10 @@
         <v>18</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
@@ -10757,10 +11044,10 @@
         <v>18</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E37" s="4">
         <v>2</v>
@@ -10774,7 +11061,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -10791,10 +11078,10 @@
         <v>19</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E39" s="4">
         <v>2</v>
@@ -10808,10 +11095,10 @@
         <v>19</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -10825,7 +11112,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D41" s="4">
         <v>3</v>
@@ -10842,10 +11129,10 @@
         <v>20</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E42" s="4">
         <v>2</v>
@@ -10859,10 +11146,10 @@
         <v>20</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E43" s="4">
         <v>2</v>
@@ -10876,7 +11163,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D44" s="4">
         <v>96</v>
@@ -10893,10 +11180,10 @@
         <v>21</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E45" s="4">
         <v>2</v>
@@ -10910,10 +11197,10 @@
         <v>21</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
@@ -10927,7 +11214,7 @@
         <v>21</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -10944,10 +11231,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
@@ -10961,7 +11248,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -10978,10 +11265,10 @@
         <v>23</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
@@ -10995,10 +11282,10 @@
         <v>23</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
@@ -11012,7 +11299,7 @@
         <v>23</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -11029,10 +11316,10 @@
         <v>24</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E53" s="4">
         <v>2</v>
@@ -11046,10 +11333,10 @@
         <v>24</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E54" s="4">
         <v>2</v>
@@ -11063,7 +11350,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D55" s="4">
         <v>10</v>
@@ -11080,7 +11367,7 @@
         <v>25</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -11097,7 +11384,7 @@
         <v>26</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -11114,7 +11401,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D58" s="4">
         <v>74</v>
@@ -11131,7 +11418,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D59" s="15">
         <v>1</v>
@@ -11148,7 +11435,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -11165,7 +11452,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D61" s="4">
         <v>3</v>
@@ -11182,10 +11469,10 @@
         <v>31</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D62" s="54" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E62" s="54">
         <v>2</v>
@@ -11200,10 +11487,10 @@
         <v>32</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D63" s="54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E63" s="54">
         <v>2</v>
@@ -11218,10 +11505,10 @@
         <v>32</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D64" s="56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E64" s="54">
         <v>2</v>
@@ -11236,7 +11523,7 @@
         <v>33</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D65" s="37">
         <v>2</v>
@@ -11253,7 +11540,7 @@
         <v>34</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D66" s="37">
         <v>3</v>
@@ -11270,7 +11557,7 @@
         <v>35</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D67" s="37">
         <v>4</v>
@@ -11287,11 +11574,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11310,31 +11597,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -11345,7 +11632,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -11354,7 +11641,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11365,7 +11652,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
@@ -11374,7 +11661,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11385,7 +11672,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D4" s="4">
         <v>30</v>
@@ -11394,10 +11681,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11408,7 +11695,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D5" s="4">
         <v>75</v>
@@ -11426,7 +11713,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D6" s="4">
         <v>200</v>
@@ -11435,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11446,7 +11733,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -11455,7 +11742,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11466,7 +11753,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D8" s="4">
         <v>30</v>
@@ -11483,7 +11770,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
@@ -11500,7 +11787,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D10" s="4">
         <v>60</v>
@@ -11517,7 +11804,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D11" s="4">
         <v>30</v>
@@ -11534,7 +11821,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D12" s="4">
         <v>70</v>
@@ -11551,7 +11838,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D13" s="4">
         <v>50</v>
@@ -11568,7 +11855,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14" s="4">
         <v>100</v>
@@ -11585,7 +11872,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D15" s="4">
         <v>150</v>
@@ -11602,7 +11889,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D16" s="4">
         <v>150</v>
@@ -11619,7 +11906,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D17" s="4">
         <v>20</v>
@@ -11636,7 +11923,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D18" s="4">
         <v>30</v>
@@ -11653,7 +11940,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D19" s="4">
         <v>50</v>
@@ -11670,7 +11957,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D20" s="4">
         <v>20</v>
@@ -11687,7 +11974,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D21" s="4">
         <v>30</v>
@@ -11704,7 +11991,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D22" s="4">
         <v>50</v>
@@ -11721,7 +12008,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D23" s="4">
         <v>50</v>
@@ -11738,7 +12025,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D24" s="4">
         <v>20</v>
@@ -11755,7 +12042,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D25" s="4">
         <v>80</v>
@@ -11772,7 +12059,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D26" s="4">
         <v>50</v>
@@ -11789,7 +12076,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D27" s="4">
         <v>250</v>
@@ -11806,7 +12093,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D28" s="4">
         <v>250</v>
@@ -11823,7 +12110,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D29" s="4">
         <v>666</v>
@@ -11832,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -11843,7 +12130,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D30" s="4">
         <v>50</v>
@@ -11860,7 +12147,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D31" s="4">
         <v>80</v>
@@ -11877,7 +12164,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D32" s="4">
         <v>30</v>
@@ -11886,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -11897,7 +12184,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D33" s="4">
         <v>20</v>
@@ -11906,7 +12193,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -11917,7 +12204,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D34" s="4">
         <v>2000</v>
@@ -11926,7 +12213,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -11937,7 +12224,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D35" s="4">
         <v>1000</v>
@@ -11946,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -11957,7 +12244,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D36" s="4">
         <v>2000</v>
@@ -11966,7 +12253,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -11977,7 +12264,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D37" s="4">
         <v>2000</v>
@@ -11986,7 +12273,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -11997,7 +12284,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -12006,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -12017,7 +12304,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D39" s="4">
         <v>1000</v>
@@ -12026,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -12037,7 +12324,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D40" s="4">
         <v>5000</v>
@@ -12046,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -12057,7 +12344,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D41" s="4">
         <v>5000</v>
@@ -12066,7 +12353,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -12077,7 +12364,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D42" s="4">
         <v>8000</v>
@@ -12086,7 +12373,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -12097,7 +12384,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D43" s="4">
         <v>1000</v>
@@ -12106,7 +12393,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -12117,7 +12404,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D44" s="4">
         <v>20000</v>
@@ -12126,7 +12413,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -12137,7 +12424,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D45" s="4">
         <v>5000</v>
@@ -12146,7 +12433,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -12157,7 +12444,7 @@
         <v>49</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D46" s="4">
         <v>10000</v>
@@ -12166,7 +12453,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -12177,7 +12464,7 @@
         <v>50</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -12186,7 +12473,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -12197,7 +12484,7 @@
         <v>51</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D48" s="4">
         <v>180</v>
@@ -12206,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -12217,7 +12504,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D49" s="4">
         <v>280</v>
@@ -12226,7 +12513,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -12237,7 +12524,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D50" s="4">
         <v>480</v>
@@ -12246,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -12257,7 +12544,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D51" s="4">
         <v>1800</v>
@@ -12266,7 +12553,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -12277,7 +12564,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D52" s="4">
         <v>500</v>
@@ -12286,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -12297,7 +12584,7 @@
         <v>61</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D53" s="4">
         <v>200000</v>
@@ -12306,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -12317,7 +12604,7 @@
         <v>62</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D54" s="4">
         <v>50000</v>
@@ -12334,7 +12621,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -12351,7 +12638,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D56" s="4">
         <v>1000</v>
@@ -12360,7 +12647,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -12371,7 +12658,7 @@
         <v>65</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D57" s="4">
         <v>500</v>
@@ -12380,7 +12667,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -12391,7 +12678,7 @@
         <v>66</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D58" s="4">
         <v>50</v>
@@ -12408,7 +12695,7 @@
         <v>67</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D59" s="4">
         <v>200</v>
@@ -12425,7 +12712,7 @@
         <v>68</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D60" s="4">
         <v>300</v>
@@ -12442,7 +12729,7 @@
         <v>69</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D61" s="4">
         <v>1000</v>
@@ -12459,7 +12746,7 @@
         <v>70</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D62" s="4">
         <v>6666</v>
@@ -12476,7 +12763,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D63" s="4">
         <v>5</v>
@@ -12493,7 +12780,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -12510,7 +12797,7 @@
         <v>71</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D65" s="4">
         <v>30000</v>
@@ -12527,7 +12814,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -12544,7 +12831,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
@@ -12561,7 +12848,7 @@
         <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D68" s="4">
         <v>1000</v>
@@ -12570,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -12581,7 +12868,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D69" s="4">
         <v>1000</v>
@@ -12598,7 +12885,7 @@
         <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D70" s="4">
         <v>688</v>
@@ -12615,7 +12902,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D71" s="4">
         <v>1888</v>
@@ -12632,7 +12919,7 @@
         <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D72" s="4">
         <v>3888</v>
@@ -12649,7 +12936,7 @@
         <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D73" s="4">
         <v>8888</v>
@@ -12666,7 +12953,7 @@
         <v>78</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D74" s="4">
         <v>16888</v>
@@ -12683,7 +12970,7 @@
         <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="4">
         <v>22888</v>
@@ -12700,7 +12987,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="4">
         <v>36888</v>
@@ -12717,7 +13004,7 @@
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="4">
         <v>48888</v>
@@ -12734,7 +13021,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="4">
         <v>88888</v>
@@ -12751,7 +13038,7 @@
         <v>83</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D79" s="4">
         <v>128888</v>
@@ -12768,7 +13055,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D80" s="4">
         <v>158888</v>
@@ -12785,7 +13072,7 @@
         <v>85</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D81" s="4">
         <v>188888</v>
@@ -12802,7 +13089,7 @@
         <v>86</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D82" s="4">
         <v>288888</v>
@@ -12819,7 +13106,7 @@
         <v>87</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D83" s="4">
         <v>388888</v>
@@ -12836,7 +13123,7 @@
         <v>88</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D84" s="4">
         <v>5</v>
@@ -12853,7 +13140,7 @@
         <v>89</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D85" s="4">
         <v>5</v>
@@ -12870,7 +13157,7 @@
         <v>90</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D86" s="4">
         <v>10</v>
@@ -12887,7 +13174,7 @@
         <v>91</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D87" s="4">
         <v>10</v>
@@ -12904,7 +13191,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D88" s="4">
         <v>5000</v>
@@ -12921,7 +13208,7 @@
         <v>93</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D89" s="4">
         <v>20000</v>
@@ -12938,7 +13225,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D90" s="57">
         <v>100</v>
@@ -12957,7 +13244,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D91" s="57">
         <v>1</v>
@@ -12976,7 +13263,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D92" s="57">
         <v>100</v>
@@ -12995,7 +13282,7 @@
         <v>95</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D93" s="57">
         <v>40000</v>
@@ -13014,7 +13301,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="58" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D94" s="57">
         <v>1</v>
@@ -13033,7 +13320,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D95" s="57">
         <v>220</v>
@@ -13052,7 +13339,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D96" s="57">
         <v>50000</v>
@@ -13071,7 +13358,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D97" s="57">
         <v>1</v>
@@ -13090,7 +13377,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D98" s="18">
         <v>1000</v>
@@ -13107,7 +13394,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D99" s="39">
         <v>1000</v>
@@ -13124,7 +13411,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D100" s="39">
         <v>5000</v>
@@ -13141,7 +13428,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D101" s="39">
         <v>20000</v>
@@ -13158,7 +13445,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D102" s="4">
         <v>30</v>
@@ -13175,7 +13462,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D103" s="4">
         <v>100</v>
@@ -13192,7 +13479,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D104" s="4">
         <v>500</v>
@@ -13209,7 +13496,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D105" s="4">
         <v>1000</v>
@@ -13226,7 +13513,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D106" s="41">
         <v>3000</v>
@@ -13243,7 +13530,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D107" s="44">
         <v>10000</v>
@@ -13260,7 +13547,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D108" s="57">
         <v>100</v>
@@ -13279,7 +13566,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="58" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D109" s="57">
         <v>1</v>
@@ -13298,7 +13585,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D110" s="57">
         <v>100</v>
@@ -13317,7 +13604,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D111" s="57">
         <v>40000</v>
@@ -13336,7 +13623,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D112" s="57">
         <v>1</v>
@@ -13355,7 +13642,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D113" s="57">
         <v>220</v>
@@ -13374,7 +13661,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="D114" s="57">
         <v>50000</v>
@@ -13393,7 +13680,7 @@
         <v>109</v>
       </c>
       <c r="C115" s="58" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D115" s="57">
         <v>1</v>
@@ -13412,7 +13699,7 @@
         <v>110</v>
       </c>
       <c r="C116" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D116" s="69">
         <v>10</v>
@@ -13429,7 +13716,7 @@
         <v>110</v>
       </c>
       <c r="C117" s="70" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D117" s="69">
         <v>1</v>
@@ -13448,7 +13735,7 @@
         <v>111</v>
       </c>
       <c r="C118" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D118" s="71">
         <v>10</v>
@@ -13465,7 +13752,7 @@
         <v>111</v>
       </c>
       <c r="C119" s="70" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D119" s="69">
         <v>1</v>
@@ -13484,7 +13771,7 @@
         <v>112</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D120" s="69">
         <v>10</v>
@@ -13501,7 +13788,7 @@
         <v>112</v>
       </c>
       <c r="C121" s="70" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D121" s="69">
         <v>1</v>
@@ -13520,7 +13807,7 @@
         <v>113</v>
       </c>
       <c r="C122" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D122" s="69">
         <v>10</v>
@@ -13537,7 +13824,7 @@
         <v>113</v>
       </c>
       <c r="C123" s="70" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D123" s="69">
         <v>1</v>
@@ -13556,7 +13843,7 @@
         <v>114</v>
       </c>
       <c r="C124" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D124" s="69">
         <v>10</v>
@@ -13573,7 +13860,7 @@
         <v>114</v>
       </c>
       <c r="C125" s="70" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D125" s="69">
         <v>1</v>
@@ -13592,7 +13879,7 @@
         <v>115</v>
       </c>
       <c r="C126" s="70" t="s">
-        <v>221</v>
+        <v>440</v>
       </c>
       <c r="D126" s="69">
         <v>50</v>
@@ -13609,7 +13896,7 @@
         <v>115</v>
       </c>
       <c r="C127" s="70" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D127" s="69">
         <v>1</v>
@@ -13628,7 +13915,7 @@
         <v>116</v>
       </c>
       <c r="C128" s="66" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D128" s="65">
         <v>50000</v>
@@ -13647,7 +13934,7 @@
         <v>116</v>
       </c>
       <c r="C129" s="66" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D129" s="65">
         <v>100</v>
@@ -13666,7 +13953,7 @@
         <v>117</v>
       </c>
       <c r="C130" s="66" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D130" s="65">
         <v>5</v>
@@ -13685,7 +13972,7 @@
         <v>117</v>
       </c>
       <c r="C131" s="66" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D131" s="65">
         <v>200</v>
@@ -13704,7 +13991,7 @@
         <v>118</v>
       </c>
       <c r="C132" s="66" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D132" s="65">
         <v>10</v>
@@ -13723,7 +14010,7 @@
         <v>118</v>
       </c>
       <c r="C133" s="66" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D133" s="65">
         <v>100000</v>
@@ -13742,7 +14029,7 @@
         <v>119</v>
       </c>
       <c r="C134" s="66" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D134" s="65">
         <v>20</v>
@@ -13761,7 +14048,7 @@
         <v>119</v>
       </c>
       <c r="C135" s="66" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D135" s="65">
         <v>500000</v>
@@ -13780,7 +14067,7 @@
         <v>120</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D136" s="14">
         <v>3</v>
@@ -13797,7 +14084,7 @@
         <v>120</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D137" s="14">
         <v>1</v>
@@ -13814,12 +14101,63 @@
         <v>120</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D138" s="14">
         <v>1</v>
       </c>
       <c r="E138" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="11">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4">
+        <v>121</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D139" s="81">
+        <v>100000</v>
+      </c>
+      <c r="E139" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="11">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4">
+        <v>122</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D140" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="E140" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="11">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4">
+        <v>123</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D141" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="E141" s="74">
         <v>1</v>
       </c>
     </row>
@@ -13846,82 +14184,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -13949,13 +14287,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -13965,50 +14303,50 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="74">
+        <v>146</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+        <v>156</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -14016,10 +14354,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -14027,57 +14365,57 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1">
       <c r="A8" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>283</v>
-      </c>
-      <c r="C8" s="74" t="s">
-        <v>277</v>
+        <v>280</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
+        <v>157</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="74">
+        <v>282</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
+        <v>160</v>
+      </c>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1">
       <c r="A13" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -14085,10 +14423,10 @@
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -14096,10 +14434,10 @@
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1">
       <c r="A15" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -14107,21 +14445,21 @@
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
       <c r="A16" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1">
       <c r="A17" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -14129,32 +14467,32 @@
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1">
       <c r="A18" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1">
       <c r="A19" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -14162,39 +14500,39 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="C21" s="75">
+        <v>165</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="83">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
+        <v>299</v>
+      </c>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1">
       <c r="A24" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -14202,21 +14540,21 @@
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1">
       <c r="A25" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -14224,32 +14562,32 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="3" customFormat="1">
       <c r="A28" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1">
       <c r="A29" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -14257,10 +14595,10 @@
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1">
       <c r="A30" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -14268,32 +14606,32 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:16384">
       <c r="A33" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -14301,32 +14639,32 @@
     </row>
     <row r="34" spans="1:16384">
       <c r="A34" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:16384" s="3" customFormat="1">
       <c r="A35" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:16384" s="3" customFormat="1">
       <c r="A36" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -14334,21 +14672,21 @@
     </row>
     <row r="37" spans="1:16384" s="3" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:16384" s="3" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -14356,10 +14694,10 @@
     </row>
     <row r="39" spans="1:16384" s="2" customFormat="1">
       <c r="A39" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -14367,10 +14705,10 @@
     </row>
     <row r="40" spans="1:16384" s="2" customFormat="1">
       <c r="A40" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -14378,10 +14716,10 @@
     </row>
     <row r="41" spans="1:16384" s="2" customFormat="1">
       <c r="A41" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -14389,21 +14727,21 @@
     </row>
     <row r="42" spans="1:16384" s="2" customFormat="1">
       <c r="A42" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:16384" s="2" customFormat="1">
       <c r="A43" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -30792,7 +31130,7 @@
     </row>
     <row r="44" spans="1:16384" s="2" customFormat="1">
       <c r="A44" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -47180,28 +47518,28 @@
     </row>
     <row r="45" spans="1:16384" s="1" customFormat="1">
       <c r="A45" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B45" s="74" t="s">
-        <v>335</v>
-      </c>
-      <c r="C45" s="74" t="s">
-        <v>277</v>
+        <v>332</v>
+      </c>
+      <c r="B45" s="82" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" s="82" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:16384" s="1" customFormat="1">
       <c r="A46" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
+        <v>334</v>
+      </c>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -47209,10 +47547,10 @@
     </row>
     <row r="48" spans="1:16384">
       <c r="A48" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -47220,10 +47558,10 @@
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1">
       <c r="A49" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -47231,21 +47569,21 @@
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1">
       <c r="A50" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -47253,10 +47591,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -47264,10 +47602,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -47275,10 +47613,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -47286,10 +47624,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
@@ -47297,16 +47635,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="452">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1834,34 +1834,6 @@
   </si>
   <si>
     <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1</t>
     </r>
     <r>
@@ -1874,23 +1846,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>000</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>andom</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1946,7 +1901,27 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>25,25,50,10000</t>
+    <t>30,20,30,10000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2124,7 +2099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2346,9 +2321,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2635,9 +2607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6006,7 +5978,7 @@
         <v>413</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E94" s="47" t="s">
         <v>37</v>
@@ -6075,16 +6047,16 @@
         <v>96</v>
       </c>
       <c r="B96" s="75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" s="76" t="s">
         <v>437</v>
       </c>
       <c r="D96" s="76" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E96" s="76" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F96" s="75">
         <v>96</v>
@@ -6108,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="M96" s="76" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -6122,9 +6094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8490,7 +8462,7 @@
         <v>107</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>149</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="3" customFormat="1">
@@ -8618,14 +8590,14 @@
       </c>
       <c r="E97" s="77"/>
       <c r="F97" s="79" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G97" s="77"/>
       <c r="H97" s="80" t="s">
         <v>438</v>
       </c>
       <c r="I97" s="79" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="J97" s="78"/>
     </row>
@@ -11577,8 +11549,8 @@
   <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14118,10 +14090,10 @@
         <v>121</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D139" s="81">
-        <v>100000</v>
+        <v>219</v>
+      </c>
+      <c r="D139" s="43" t="s">
+        <v>448</v>
       </c>
       <c r="E139" s="74">
         <v>1</v>
@@ -14134,11 +14106,11 @@
       <c r="B140" s="4">
         <v>122</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>219</v>
+      <c r="C140" s="42" t="s">
+        <v>447</v>
       </c>
       <c r="D140" s="43" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E140" s="74">
         <v>1</v>
@@ -14155,7 +14127,7 @@
         <v>219</v>
       </c>
       <c r="D141" s="43" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E141" s="74">
         <v>1</v>
@@ -14305,10 +14277,10 @@
       <c r="A2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="81">
         <v>1</v>
       </c>
     </row>
@@ -14316,8 +14288,8 @@
       <c r="A3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -14367,10 +14339,10 @@
       <c r="A8" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="81" t="s">
         <v>275</v>
       </c>
     </row>
@@ -14378,17 +14350,17 @@
       <c r="A9" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="81" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="81">
         <v>1</v>
       </c>
     </row>
@@ -14396,8 +14368,8 @@
       <c r="A11" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -14502,10 +14474,10 @@
       <c r="A21" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="82" t="s">
         <v>298</v>
       </c>
-      <c r="C21" s="83">
+      <c r="C21" s="82">
         <v>1</v>
       </c>
     </row>
@@ -14513,8 +14485,8 @@
       <c r="A22" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -47520,10 +47492,10 @@
       <c r="A45" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B45" s="82" t="s">
+      <c r="B45" s="81" t="s">
         <v>333</v>
       </c>
-      <c r="C45" s="82" t="s">
+      <c r="C45" s="81" t="s">
         <v>275</v>
       </c>
     </row>
@@ -47531,8 +47503,8 @@
       <c r="A46" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -47635,16 +47607,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="478">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1924,6 +1924,201 @@
     <t>nor</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>p_crary_rebate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利（累计赢金）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利（充值）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146,147,148,149,150,151,152,153,154</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buyu_3d_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>award</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_any</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,107,108,110,101,102,103,104,105,106,22,23,24,25,26,27,34,111,10330,85,86,87,88,89,109,10044,10045,90,10189,10490,10491,10493,10494,10495,10492</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国消消乐收集战船</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国消消乐收集弓箭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,-1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,-1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,300000,350000,500000,800000,2000000,4000000,7000000,10000000,10000000,25000000,40000000,100000000,200000000,250000000,350000000,500000000,1000000000,1500000000,2500000000,2500000000,6000000000,5000000000,15000000000,15000000000,20000000000,30000000000,50000000000,50000000000,100000000000,50000000000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_sanguo_collect_arrow</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_sanguo_collect_ship</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2099,7 +2294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2322,6 +2517,45 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2605,11 +2839,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U96"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M96" sqref="M96"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6068,7 +6303,7 @@
         <v>7</v>
       </c>
       <c r="I96" s="75">
-        <v>1615046400</v>
+        <v>1615132800</v>
       </c>
       <c r="J96" s="75">
         <v>32503651200</v>
@@ -6081,6 +6316,158 @@
       </c>
       <c r="M96" s="76" t="s">
         <v>445</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="11">
+        <v>97</v>
+      </c>
+      <c r="B97" s="11">
+        <v>1</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="D97" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="E97" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="F97" s="11">
+        <v>97</v>
+      </c>
+      <c r="G97" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="11">
+        <v>20</v>
+      </c>
+      <c r="I97" s="11">
+        <v>1619452800</v>
+      </c>
+      <c r="J97" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K97" s="11">
+        <v>-1</v>
+      </c>
+      <c r="L97" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="11">
+        <v>98</v>
+      </c>
+      <c r="B98" s="11">
+        <v>1</v>
+      </c>
+      <c r="C98" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="D98" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="E98" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="F98" s="11">
+        <v>98</v>
+      </c>
+      <c r="G98" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" s="11">
+        <v>20</v>
+      </c>
+      <c r="I98" s="11">
+        <v>1619452800</v>
+      </c>
+      <c r="J98" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K98" s="11">
+        <v>-1</v>
+      </c>
+      <c r="L98" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="11">
+        <v>99</v>
+      </c>
+      <c r="B99" s="11">
+        <v>0</v>
+      </c>
+      <c r="C99" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="D99" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="E99" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" s="11">
+        <v>99</v>
+      </c>
+      <c r="G99" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="11">
+        <v>1</v>
+      </c>
+      <c r="I99" s="11">
+        <v>946677600</v>
+      </c>
+      <c r="J99" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K99" s="11">
+        <v>-1</v>
+      </c>
+      <c r="L99" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="11">
+        <v>100</v>
+      </c>
+      <c r="B100" s="11">
+        <v>0</v>
+      </c>
+      <c r="C100" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="D100" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="E100" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" s="11">
+        <v>100</v>
+      </c>
+      <c r="G100" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="11">
+        <v>1</v>
+      </c>
+      <c r="I100" s="11">
+        <v>946677600</v>
+      </c>
+      <c r="J100" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K100" s="11">
+        <v>-1</v>
+      </c>
+      <c r="L100" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6092,11 +6479,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K97"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6105,7 +6493,7 @@
     <col min="2" max="5" width="32.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="59.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="37.5" style="87" customWidth="1"/>
     <col min="9" max="9" width="26" style="4" customWidth="1"/>
     <col min="10" max="11" width="31.375" customWidth="1"/>
   </cols>
@@ -6132,7 +6520,7 @@
       <c r="G1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="84" t="s">
         <v>144</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -6163,7 +6551,7 @@
         <v>147</v>
       </c>
       <c r="G2" s="19"/>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="85" t="s">
         <v>148</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -6190,7 +6578,7 @@
         <v>147</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="85" t="s">
         <v>150</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -6217,7 +6605,7 @@
         <v>147</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="85" t="s">
         <v>151</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -6244,7 +6632,7 @@
         <v>152</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="85" t="s">
         <v>153</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -6271,7 +6659,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="11">
+      <c r="H6" s="86">
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -6298,7 +6686,7 @@
       <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="87">
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -6324,7 +6712,7 @@
       <c r="F8" s="4">
         <v>8</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="87">
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -6350,7 +6738,7 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="87">
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -6377,7 +6765,7 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="87">
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -6403,7 +6791,7 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="87">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -6429,7 +6817,7 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="87">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -6455,7 +6843,7 @@
       <c r="F13" s="4">
         <v>8</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="87">
         <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -6481,7 +6869,7 @@
       <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="87">
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -6507,7 +6895,7 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="87">
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -6533,7 +6921,7 @@
       <c r="F16" s="4">
         <v>1000</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="87">
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -6559,7 +6947,7 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="87">
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -6585,7 +6973,7 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="87">
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -6611,7 +6999,7 @@
       <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="87">
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -6637,7 +7025,7 @@
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="87">
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -6663,7 +7051,7 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="87">
         <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -6689,7 +7077,7 @@
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="87">
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -6715,7 +7103,7 @@
       <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="87">
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -6741,7 +7129,7 @@
       <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="87">
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -6767,7 +7155,7 @@
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="87">
         <v>23</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -6793,7 +7181,7 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="87">
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -6819,7 +7207,7 @@
       <c r="F27" s="4">
         <v>5</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="87">
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -6845,7 +7233,7 @@
       <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="87">
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -6871,7 +7259,7 @@
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="87">
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -6897,7 +7285,7 @@
       <c r="F30" s="4">
         <v>10</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="87">
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -6923,7 +7311,7 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="87">
         <v>30</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -6949,7 +7337,7 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="87">
         <v>31</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -6975,7 +7363,7 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="87">
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -7001,7 +7389,7 @@
       <c r="F34" s="4">
         <v>5</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="87">
         <v>33</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -7027,7 +7415,7 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="87">
         <v>34</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -7053,7 +7441,7 @@
       <c r="F36" s="4">
         <v>5</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="87">
         <v>35</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -7079,7 +7467,7 @@
       <c r="F37" s="4">
         <v>20000</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="87">
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -7105,7 +7493,7 @@
       <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="87">
         <v>37</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -7131,7 +7519,7 @@
       <c r="F39" s="4">
         <v>3</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="87">
         <v>37</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -7157,7 +7545,7 @@
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="87">
         <v>39</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -7183,7 +7571,7 @@
       <c r="F41" s="4">
         <v>8</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="87">
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -7209,7 +7597,7 @@
       <c r="F42" s="4">
         <v>50000</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="87">
         <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -7235,7 +7623,7 @@
       <c r="F43" s="4">
         <v>10</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="87">
         <v>42</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -7261,7 +7649,7 @@
       <c r="F44" s="4">
         <v>100000</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="87">
         <v>42</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -7287,7 +7675,7 @@
       <c r="F45" s="4">
         <v>600</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="87">
         <v>44</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -7313,7 +7701,7 @@
       <c r="F46" s="4">
         <v>1</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="87">
         <v>44</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -7339,7 +7727,7 @@
       <c r="F47" s="4">
         <v>1</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="87">
         <v>46</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -7365,7 +7753,7 @@
       <c r="F48" s="4">
         <v>1</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="87">
         <v>47</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -7391,7 +7779,7 @@
       <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="87">
         <v>48</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -7417,7 +7805,7 @@
       <c r="F50" s="4">
         <v>1</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="87">
         <v>49</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -7444,7 +7832,7 @@
         <v>162</v>
       </c>
       <c r="G51" s="20"/>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="87" t="s">
         <v>163</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -7470,7 +7858,7 @@
       <c r="F52" s="4">
         <v>8</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="87">
         <v>60</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -7496,7 +7884,7 @@
       <c r="F53" s="4">
         <v>1</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="87">
         <v>61</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -7522,7 +7910,7 @@
       <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="87">
         <v>62</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -7548,7 +7936,7 @@
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="87">
         <v>63</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -7574,7 +7962,7 @@
       <c r="F56" s="4">
         <v>1</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="87">
         <v>64</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -7600,7 +7988,7 @@
       <c r="F57" s="4">
         <v>2000000</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="87">
         <v>65</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -7718,7 +8106,7 @@
       <c r="F62" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="87" t="s">
         <v>168</v>
       </c>
     </row>
@@ -7810,7 +8198,7 @@
       <c r="F66" s="4">
         <v>0</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="87">
         <v>70</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -7836,7 +8224,7 @@
       <c r="F67" s="4">
         <v>0</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="87">
         <v>71</v>
       </c>
       <c r="I67" s="4" t="s">
@@ -7889,7 +8277,7 @@
       <c r="G69" s="4">
         <v>100000000</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="87">
         <v>72</v>
       </c>
       <c r="I69" s="4" t="s">
@@ -7916,7 +8304,7 @@
         <v>173</v>
       </c>
       <c r="G70" s="15"/>
-      <c r="H70" s="36" t="s">
+      <c r="H70" s="88" t="s">
         <v>375</v>
       </c>
       <c r="I70" s="16" t="s">
@@ -7943,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="15"/>
-      <c r="H71" s="15">
+      <c r="H71" s="89">
         <v>88</v>
       </c>
       <c r="I71" s="15" t="s">
@@ -7970,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="15"/>
-      <c r="H72" s="15">
+      <c r="H72" s="89">
         <v>89</v>
       </c>
       <c r="I72" s="15" t="s">
@@ -7997,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="15"/>
-      <c r="H73" s="15">
+      <c r="H73" s="89">
         <v>90</v>
       </c>
       <c r="I73" s="15" t="s">
@@ -8024,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="15"/>
-      <c r="H74" s="15">
+      <c r="H74" s="89">
         <v>91</v>
       </c>
       <c r="I74" s="15" t="s">
@@ -8051,7 +8439,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
+      <c r="H75" s="89"/>
       <c r="I75" s="15"/>
     </row>
     <row r="76" spans="1:9" s="33" customFormat="1">
@@ -8074,7 +8462,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
+      <c r="H76" s="89"/>
       <c r="I76" s="15"/>
     </row>
     <row r="77" spans="1:9" s="33" customFormat="1">
@@ -8099,7 +8487,7 @@
       <c r="G77" s="15">
         <v>500000000</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="89">
         <v>92</v>
       </c>
       <c r="I77" s="15" t="s">
@@ -8128,7 +8516,7 @@
       <c r="G78" s="15">
         <v>2000000000</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H78" s="89">
         <v>93</v>
       </c>
       <c r="I78" s="15" t="s">
@@ -8151,7 +8539,7 @@
         <v>50000</v>
       </c>
       <c r="G79" s="8"/>
-      <c r="H79" s="8">
+      <c r="H79" s="90">
         <v>94</v>
       </c>
       <c r="I79" s="8" t="s">
@@ -8174,7 +8562,7 @@
         <v>500000</v>
       </c>
       <c r="G80" s="8"/>
-      <c r="H80" s="8">
+      <c r="H80" s="90">
         <v>95</v>
       </c>
       <c r="I80" s="8" t="s">
@@ -8197,7 +8585,7 @@
         <v>2000000</v>
       </c>
       <c r="G81" s="8"/>
-      <c r="H81" s="8">
+      <c r="H81" s="90">
         <v>96</v>
       </c>
       <c r="I81" s="52" t="s">
@@ -8226,7 +8614,7 @@
       <c r="G82" s="18">
         <v>500000000</v>
       </c>
-      <c r="H82" s="18">
+      <c r="H82" s="91">
         <v>97</v>
       </c>
       <c r="I82" s="34" t="s">
@@ -8253,7 +8641,7 @@
       <c r="G83" s="39">
         <v>1000000000</v>
       </c>
-      <c r="H83" s="39">
+      <c r="H83" s="92">
         <v>98</v>
       </c>
       <c r="I83" s="39" t="s">
@@ -8280,7 +8668,7 @@
       <c r="G84" s="39">
         <v>5000000000</v>
       </c>
-      <c r="H84" s="39">
+      <c r="H84" s="92">
         <v>99</v>
       </c>
       <c r="I84" s="39" t="s">
@@ -8307,7 +8695,7 @@
       <c r="G85" s="39">
         <v>20000000000</v>
       </c>
-      <c r="H85" s="39">
+      <c r="H85" s="92">
         <v>100</v>
       </c>
       <c r="I85" s="39" t="s">
@@ -8362,7 +8750,6 @@
         <v>99999</v>
       </c>
       <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
       <c r="I87" s="45" t="s">
         <v>149</v>
       </c>
@@ -8387,7 +8774,6 @@
         <v>99999</v>
       </c>
       <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
       <c r="I88" s="45" t="s">
         <v>149</v>
       </c>
@@ -8412,7 +8798,6 @@
         <v>99999</v>
       </c>
       <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
       <c r="I89" s="45" t="s">
         <v>149</v>
       </c>
@@ -8437,7 +8822,6 @@
         <v>99999</v>
       </c>
       <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
       <c r="I90" s="46" t="s">
         <v>149</v>
       </c>
@@ -8458,7 +8842,7 @@
         <v>50000</v>
       </c>
       <c r="G91" s="8"/>
-      <c r="H91" s="8">
+      <c r="H91" s="90">
         <v>107</v>
       </c>
       <c r="I91" s="8" t="s">
@@ -8481,7 +8865,7 @@
         <v>500000</v>
       </c>
       <c r="G92" s="8"/>
-      <c r="H92" s="8">
+      <c r="H92" s="90">
         <v>108</v>
       </c>
       <c r="I92" s="8" t="s">
@@ -8504,7 +8888,7 @@
         <v>2000000</v>
       </c>
       <c r="G93" s="8"/>
-      <c r="H93" s="8">
+      <c r="H93" s="90">
         <v>109</v>
       </c>
       <c r="I93" s="52" t="s">
@@ -8524,7 +8908,7 @@
       <c r="F94" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="H94" s="42" t="s">
+      <c r="H94" s="43" t="s">
         <v>408</v>
       </c>
       <c r="I94" s="42" t="s">
@@ -8550,7 +8934,7 @@
         <v>416</v>
       </c>
       <c r="G95" s="64"/>
-      <c r="H95" s="42" t="s">
+      <c r="H95" s="43" t="s">
         <v>417</v>
       </c>
       <c r="I95" s="42" t="s">
@@ -8570,7 +8954,7 @@
       <c r="F96" s="4">
         <v>30000</v>
       </c>
-      <c r="H96" s="4">
+      <c r="H96" s="87">
         <v>120</v>
       </c>
       <c r="I96" s="42" t="s">
@@ -8585,9 +8969,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="77"/>
-      <c r="D97" s="77">
-        <v>96</v>
-      </c>
+      <c r="D97" s="77"/>
       <c r="E97" s="77"/>
       <c r="F97" s="79" t="s">
         <v>446</v>
@@ -8601,19 +8983,101 @@
       </c>
       <c r="J97" s="78"/>
     </row>
+    <row r="98" spans="1:10" ht="71.25">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4">
+        <v>97</v>
+      </c>
+      <c r="D98" s="4">
+        <v>96</v>
+      </c>
+      <c r="F98" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="H98" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="I98" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4">
+        <v>98</v>
+      </c>
+      <c r="D99" s="4">
+        <v>97</v>
+      </c>
+      <c r="F99" s="4">
+        <v>600</v>
+      </c>
+      <c r="H99" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="I99" s="42" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4">
+        <v>99</v>
+      </c>
+      <c r="D100" s="4">
+        <v>98</v>
+      </c>
+      <c r="F100" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="H100" s="43" t="s">
+        <v>472</v>
+      </c>
+      <c r="I100" s="42" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4">
+        <v>100</v>
+      </c>
+      <c r="D101" s="4">
+        <v>99</v>
+      </c>
+      <c r="F101" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="H101" s="43" t="s">
+        <v>472</v>
+      </c>
+      <c r="I101" s="42" t="s">
+        <v>474</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I104"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10359,25 +10823,232 @@
         <v>95</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>367</v>
+        <v>461</v>
       </c>
       <c r="D104" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="81">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4">
+        <v>96</v>
+      </c>
+      <c r="C105" s="61" t="s">
+        <v>400</v>
+      </c>
+      <c r="D105" s="11">
+        <v>0</v>
+      </c>
+      <c r="E105" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="81">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4">
+        <v>96</v>
+      </c>
+      <c r="C106" s="61" t="s">
+        <v>409</v>
+      </c>
+      <c r="D106" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="81">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4">
+        <v>96</v>
+      </c>
+      <c r="C107" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="D107" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="81">
+        <v>107</v>
+      </c>
+      <c r="B108" s="81">
+        <v>96</v>
+      </c>
+      <c r="C108" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D108" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="81">
+        <v>108</v>
+      </c>
+      <c r="B109" s="81">
+        <v>96</v>
+      </c>
+      <c r="C109" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D109" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="81">
+        <v>109</v>
+      </c>
+      <c r="B110" s="81">
+        <v>96</v>
+      </c>
+      <c r="C110" s="61" t="s">
+        <v>401</v>
+      </c>
+      <c r="D110" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="81">
+        <v>110</v>
+      </c>
+      <c r="B111" s="81">
+        <v>96</v>
+      </c>
+      <c r="C111" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="D111" s="11">
+        <v>0</v>
+      </c>
+      <c r="E111" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="81">
+        <v>111</v>
+      </c>
+      <c r="B112" s="81">
+        <v>96</v>
+      </c>
+      <c r="C112" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="D112" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="81">
+        <v>112</v>
+      </c>
+      <c r="B113" s="81">
+        <v>96</v>
+      </c>
+      <c r="C113" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="D113" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="81">
+        <v>113</v>
+      </c>
+      <c r="B114" s="81">
+        <v>96</v>
+      </c>
+      <c r="C114" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="D114" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="81">
+        <v>114</v>
+      </c>
+      <c r="B115" s="81">
+        <v>96</v>
+      </c>
+      <c r="C115" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="D115" s="11">
+        <v>0</v>
+      </c>
+      <c r="E115" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4">
+        <v>97</v>
+      </c>
+      <c r="C116" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="D116" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4">
+        <v>98</v>
+      </c>
+      <c r="C117" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="D117" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4">
+        <v>99</v>
+      </c>
+      <c r="C118" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="D118" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10385,7 +11056,7 @@
     <col min="1" max="1" width="9" style="11"/>
     <col min="2" max="2" width="29.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="39" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="27" style="4" customWidth="1"/>
     <col min="6" max="6" width="16" style="4" customWidth="1"/>
   </cols>
@@ -11535,6 +12206,23 @@
         <v>4</v>
       </c>
       <c r="E67" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.5">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4">
+        <v>36</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="D68" s="93" t="s">
+        <v>467</v>
+      </c>
+      <c r="E68" s="4">
         <v>2</v>
       </c>
     </row>
@@ -11546,11 +12234,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I141"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14133,6 +14822,569 @@
         <v>1</v>
       </c>
     </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="11">
+        <v>141</v>
+      </c>
+      <c r="B142" s="81">
+        <v>124</v>
+      </c>
+      <c r="C142" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E142" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="11">
+        <v>142</v>
+      </c>
+      <c r="B143" s="81">
+        <v>125</v>
+      </c>
+      <c r="C143" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="D143" s="4">
+        <v>30000</v>
+      </c>
+      <c r="E143" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="11">
+        <v>143</v>
+      </c>
+      <c r="B144" s="81">
+        <v>126</v>
+      </c>
+      <c r="C144" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="D144" s="4">
+        <v>50000</v>
+      </c>
+      <c r="E144" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="11">
+        <v>144</v>
+      </c>
+      <c r="B145" s="81">
+        <v>127</v>
+      </c>
+      <c r="C145" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D145" s="4">
+        <v>10</v>
+      </c>
+      <c r="E145" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="11">
+        <v>145</v>
+      </c>
+      <c r="B146" s="81">
+        <v>128</v>
+      </c>
+      <c r="C146" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D146" s="4">
+        <v>20</v>
+      </c>
+      <c r="E146" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="11">
+        <v>146</v>
+      </c>
+      <c r="B147" s="81">
+        <v>129</v>
+      </c>
+      <c r="C147" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D147" s="4">
+        <v>130</v>
+      </c>
+      <c r="E147" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="11">
+        <v>147</v>
+      </c>
+      <c r="B148" s="81">
+        <v>130</v>
+      </c>
+      <c r="C148" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D148" s="4">
+        <v>170</v>
+      </c>
+      <c r="E148" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="11">
+        <v>148</v>
+      </c>
+      <c r="B149" s="81">
+        <v>131</v>
+      </c>
+      <c r="C149" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D149" s="4">
+        <v>200</v>
+      </c>
+      <c r="E149" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="11">
+        <v>149</v>
+      </c>
+      <c r="B150" s="81">
+        <v>132</v>
+      </c>
+      <c r="C150" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D150" s="4">
+        <v>230</v>
+      </c>
+      <c r="E150" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="11">
+        <v>150</v>
+      </c>
+      <c r="B151" s="81">
+        <v>133</v>
+      </c>
+      <c r="C151" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D151" s="4">
+        <v>270</v>
+      </c>
+      <c r="E151" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="11">
+        <v>151</v>
+      </c>
+      <c r="B152" s="81">
+        <v>134</v>
+      </c>
+      <c r="C152" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D152" s="4">
+        <v>300</v>
+      </c>
+      <c r="E152" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="11">
+        <v>152</v>
+      </c>
+      <c r="B153" s="81">
+        <v>135</v>
+      </c>
+      <c r="C153" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D153" s="4">
+        <v>330</v>
+      </c>
+      <c r="E153" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="11">
+        <v>153</v>
+      </c>
+      <c r="B154" s="81">
+        <v>136</v>
+      </c>
+      <c r="C154" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D154" s="4">
+        <v>500</v>
+      </c>
+      <c r="E154" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="11">
+        <v>154</v>
+      </c>
+      <c r="B155" s="81">
+        <v>137</v>
+      </c>
+      <c r="C155" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D155" s="4">
+        <v>670</v>
+      </c>
+      <c r="E155" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="11">
+        <v>155</v>
+      </c>
+      <c r="B156" s="81">
+        <v>138</v>
+      </c>
+      <c r="C156" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D156" s="4">
+        <v>1100</v>
+      </c>
+      <c r="E156" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="11">
+        <v>156</v>
+      </c>
+      <c r="B157" s="81">
+        <v>139</v>
+      </c>
+      <c r="C157" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D157" s="4">
+        <v>1400</v>
+      </c>
+      <c r="E157" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="11">
+        <v>157</v>
+      </c>
+      <c r="B158" s="81">
+        <v>140</v>
+      </c>
+      <c r="C158" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D158" s="4">
+        <v>1600</v>
+      </c>
+      <c r="E158" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="11">
+        <v>158</v>
+      </c>
+      <c r="B159" s="81">
+        <v>141</v>
+      </c>
+      <c r="C159" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D159" s="4">
+        <v>2200</v>
+      </c>
+      <c r="E159" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="11">
+        <v>159</v>
+      </c>
+      <c r="B160" s="81">
+        <v>142</v>
+      </c>
+      <c r="C160" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D160" s="4">
+        <v>3300</v>
+      </c>
+      <c r="E160" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="11">
+        <v>160</v>
+      </c>
+      <c r="B161" s="81">
+        <v>143</v>
+      </c>
+      <c r="C161" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D161" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E161" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="11">
+        <v>161</v>
+      </c>
+      <c r="B162" s="81">
+        <v>144</v>
+      </c>
+      <c r="C162" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D162" s="4">
+        <v>8000</v>
+      </c>
+      <c r="E162" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="11">
+        <v>162</v>
+      </c>
+      <c r="B163" s="81">
+        <v>145</v>
+      </c>
+      <c r="C163" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D163" s="4">
+        <v>12000</v>
+      </c>
+      <c r="E163" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="11">
+        <v>163</v>
+      </c>
+      <c r="B164" s="81">
+        <v>146</v>
+      </c>
+      <c r="C164" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D164" s="4">
+        <v>20000</v>
+      </c>
+      <c r="E164" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="11">
+        <v>164</v>
+      </c>
+      <c r="B165" s="81">
+        <v>147</v>
+      </c>
+      <c r="C165" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D165" s="4">
+        <v>42000</v>
+      </c>
+      <c r="E165" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="11">
+        <v>165</v>
+      </c>
+      <c r="B166" s="81">
+        <v>148</v>
+      </c>
+      <c r="C166" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D166" s="4">
+        <v>62000</v>
+      </c>
+      <c r="E166" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="11">
+        <v>166</v>
+      </c>
+      <c r="B167" s="81">
+        <v>149</v>
+      </c>
+      <c r="C167" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D167" s="4">
+        <v>120000</v>
+      </c>
+      <c r="E167" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="11">
+        <v>167</v>
+      </c>
+      <c r="B168" s="81">
+        <v>150</v>
+      </c>
+      <c r="C168" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D168" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E168" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="11">
+        <v>168</v>
+      </c>
+      <c r="B169" s="81">
+        <v>151</v>
+      </c>
+      <c r="C169" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D169" s="4">
+        <v>350000</v>
+      </c>
+      <c r="E169" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="11">
+        <v>169</v>
+      </c>
+      <c r="B170" s="81">
+        <v>152</v>
+      </c>
+      <c r="C170" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D170" s="4">
+        <v>500000</v>
+      </c>
+      <c r="E170" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="11">
+        <v>170</v>
+      </c>
+      <c r="B171" s="81">
+        <v>153</v>
+      </c>
+      <c r="C171" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D171" s="4">
+        <v>650000</v>
+      </c>
+      <c r="E171" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="11">
+        <v>171</v>
+      </c>
+      <c r="B172" s="81">
+        <v>154</v>
+      </c>
+      <c r="C172" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D172" s="4">
+        <v>800000</v>
+      </c>
+      <c r="E172" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="11">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4">
+        <v>155</v>
+      </c>
+      <c r="C173" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D173" s="4">
+        <v>128</v>
+      </c>
+      <c r="E173" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="11">
+        <v>173</v>
+      </c>
+      <c r="B174" s="82">
+        <v>156</v>
+      </c>
+      <c r="C174" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="D174" s="82">
+        <v>10</v>
+      </c>
+      <c r="E174" s="82">
+        <v>1</v>
+      </c>
+      <c r="F174" s="82"/>
+      <c r="G174" s="82"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14142,6 +15394,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14243,6 +15496,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:XFD55"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -14277,10 +15531,10 @@
       <c r="A2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="81">
+      <c r="C2" s="94">
         <v>1</v>
       </c>
     </row>
@@ -14288,8 +15542,8 @@
       <c r="A3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -14339,10 +15593,10 @@
       <c r="A8" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="94" t="s">
         <v>275</v>
       </c>
     </row>
@@ -14350,17 +15604,17 @@
       <c r="A9" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="94" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="94">
         <v>1</v>
       </c>
     </row>
@@ -14368,8 +15622,8 @@
       <c r="A11" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -14474,10 +15728,10 @@
       <c r="A21" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="C21" s="82">
+      <c r="C21" s="95">
         <v>1</v>
       </c>
     </row>
@@ -14485,8 +15739,8 @@
       <c r="A22" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -47492,10 +48746,10 @@
       <c r="A45" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B45" s="81" t="s">
+      <c r="B45" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="C45" s="81" t="s">
+      <c r="C45" s="94" t="s">
         <v>275</v>
       </c>
     </row>
@@ -47503,8 +48757,8 @@
       <c r="A46" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2842,9 +2842,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
+      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6399,7 +6399,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>468</v>
@@ -6437,7 +6437,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>469</v>
@@ -6484,7 +6484,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9077,7 +9077,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11046,9 +11046,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -48861,16 +48861,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -2067,8 +2067,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -2104,21 +2104,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2134,16 +2119,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2158,28 +2179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -2189,17 +2188,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2219,25 +2210,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2248,9 +2224,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2328,7 +2328,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2340,49 +2376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2394,13 +2388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2424,36 +2412,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2466,13 +2424,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2512,17 +2512,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2542,17 +2536,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2577,11 +2580,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2600,25 +2609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2627,136 +2627,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3300,10 +3300,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6666,7 +6666,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="50" t="s">
         <v>164</v>

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.20\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -224,6 +224,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,6 +235,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -417,6 +419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -427,6 +430,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -508,6 +512,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -518,6 +523,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -528,6 +534,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -538,6 +545,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -548,6 +556,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -569,6 +578,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -579,6 +589,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -589,6 +600,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -601,6 +613,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -611,6 +624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -621,6 +635,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -633,6 +648,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -643,6 +659,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -653,6 +670,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -668,6 +686,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -678,6 +697,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -688,6 +708,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -703,6 +724,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -713,6 +735,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -728,6 +751,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -738,6 +762,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -753,6 +778,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -763,6 +789,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -799,6 +826,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -809,6 +837,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -819,6 +848,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -829,6 +859,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -955,6 +986,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -965,6 +997,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -986,6 +1019,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -996,6 +1030,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1008,6 +1043,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,6 +1054,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1078,6 +1115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1088,6 +1126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1136,6 +1175,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1146,6 +1186,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1167,6 +1208,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1177,6 +1219,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1187,6 +1230,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1197,6 +1241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1207,6 +1252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1222,6 +1268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1232,6 +1279,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1244,6 +1292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1254,6 +1303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1266,6 +1316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1276,6 +1327,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1288,6 +1340,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1298,6 +1351,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1382,6 +1436,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1392,6 +1447,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1650,6 +1706,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1660,6 +1717,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2079,7 +2137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2091,6 +2149,7 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2102,6 +2161,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2109,16 +2169,27 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2234,7 +2305,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7052,7 +7123,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -10089,7 +10160,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -12501,7 +12572,7 @@
   <mergeCells count="1">
     <mergeCell ref="F120:F135"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
 </worksheet>
@@ -12514,7 +12585,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13829,7 +13900,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -17555,7 +17626,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -17657,7 +17728,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -51041,7 +51112,7 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
     <sheet name="|来源备注" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="604">
   <si>
     <t>id|任务id</t>
   </si>
@@ -2131,6 +2131,954 @@
   </si>
   <si>
     <t>召回一个玩家</t>
+  </si>
+  <si>
+    <t>新手任务-捕获任意鱼5条</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务-使用1次锁定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务-累计消耗3万金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务-累计消耗5万金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务-累计开炮500发</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_new_player_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>common:prev_task:30019</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>common:prev_task:30020</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>common:prev_task:30021</t>
+  </si>
+  <si>
+    <t>common:prev_task:30022</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>91</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>93</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>94</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend_num</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_game_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐总任务</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_xrqtl_new</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_xrqtl_new</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_player_seven_day_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_player_seven_day_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_player_seven_day_6</t>
+  </si>
+  <si>
+    <t>new_player_seven_day_7</t>
+  </si>
+  <si>
+    <t>new_player_seven_day_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_player_seven_day_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_player_seven_day_5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_player_seven_day_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40,100,150,100,100</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5,10,10,20</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,7</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,30,50,100,300</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,4,5,10,5</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000000,40000000,50000000,200000000,200000000</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,9000,10000,30000,50000</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_fish_3d_bullet_item</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_fish_3d_bullet_item</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_game_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_prop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_prop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_frozen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend_num</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_fish_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,21,22,23,24,25,26,27</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_charge_any</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_charge_any</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>task_30001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95,196,197,198,199</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,202,204</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>201,203</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>05,206,207,208,209</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10,211,212,213,214</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15,216,217,218,219</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20,221,222,223,224</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25,226,227,228,229</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30,231,232,233,234,235</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（day1）-累计捕获5-10-20-30-50条鱼</t>
+  </si>
+  <si>
+    <t>新人七天乐（day2）-累计使用1-3-10次锁定</t>
+  </si>
+  <si>
+    <t>新人七天乐（day2）-累计使用3-10次冰冻</t>
+  </si>
+  <si>
+    <t>新人七天乐（day3）-累计开炮200-500-1000-3000-5000发</t>
+  </si>
+  <si>
+    <t>新人七天乐（day4）-累计捕获20-50-100-200-500条鱼</t>
+  </si>
+  <si>
+    <t>新人七天乐（day5）-累计捕获1-5-10-15-20条黄金鱼</t>
+  </si>
+  <si>
+    <t>新人七天乐（day6）-累计消耗1000-5000-10000-30000-50000万金币</t>
+  </si>
+  <si>
+    <t>新人七天乐（day7）-累计充值10-100-200-500-1000元</t>
+  </si>
+  <si>
+    <t>p_new_player_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p_new_player_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p_new_player_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_2</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2194,7 +3142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2267,6 +3215,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2307,7 +3267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2509,16 +3469,66 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -2805,11 +3815,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U118"/>
+  <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F115" activeCellId="1" sqref="D128 F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7122,28 +8132,560 @@
         <v>1</v>
       </c>
     </row>
+    <row r="119" spans="1:12" s="77" customFormat="1">
+      <c r="A119" s="77">
+        <v>30019</v>
+      </c>
+      <c r="B119" s="77">
+        <v>1</v>
+      </c>
+      <c r="C119" s="77" t="s">
+        <v>497</v>
+      </c>
+      <c r="D119" s="77" t="s">
+        <v>502</v>
+      </c>
+      <c r="E119" s="78" t="s">
+        <v>503</v>
+      </c>
+      <c r="F119" s="77">
+        <v>119</v>
+      </c>
+      <c r="G119" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" s="77">
+        <v>1</v>
+      </c>
+      <c r="I119" s="77">
+        <v>946677600</v>
+      </c>
+      <c r="J119" s="77">
+        <v>32503651200</v>
+      </c>
+      <c r="K119" s="77">
+        <v>-1</v>
+      </c>
+      <c r="L119" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" s="77" customFormat="1">
+      <c r="A120" s="77">
+        <v>30020</v>
+      </c>
+      <c r="B120" s="77">
+        <v>1</v>
+      </c>
+      <c r="C120" s="77" t="s">
+        <v>498</v>
+      </c>
+      <c r="D120" s="77" t="s">
+        <v>502</v>
+      </c>
+      <c r="E120" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="F120" s="77">
+        <v>120</v>
+      </c>
+      <c r="G120" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" s="77">
+        <v>1</v>
+      </c>
+      <c r="I120" s="77">
+        <v>946677600</v>
+      </c>
+      <c r="J120" s="77">
+        <v>32503651200</v>
+      </c>
+      <c r="K120" s="77">
+        <v>-1</v>
+      </c>
+      <c r="L120" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" s="77" customFormat="1">
+      <c r="A121" s="77">
+        <v>30021</v>
+      </c>
+      <c r="B121" s="77">
+        <v>1</v>
+      </c>
+      <c r="C121" s="77" t="s">
+        <v>499</v>
+      </c>
+      <c r="D121" s="78" t="s">
+        <v>602</v>
+      </c>
+      <c r="E121" s="78" t="s">
+        <v>505</v>
+      </c>
+      <c r="F121" s="77">
+        <v>121</v>
+      </c>
+      <c r="G121" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" s="77">
+        <v>1</v>
+      </c>
+      <c r="I121" s="77">
+        <v>946677600</v>
+      </c>
+      <c r="J121" s="77">
+        <v>32503651200</v>
+      </c>
+      <c r="K121" s="77">
+        <v>-1</v>
+      </c>
+      <c r="L121" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" s="77" customFormat="1">
+      <c r="A122" s="77">
+        <v>30022</v>
+      </c>
+      <c r="B122" s="77">
+        <v>1</v>
+      </c>
+      <c r="C122" s="77" t="s">
+        <v>500</v>
+      </c>
+      <c r="D122" s="78" t="s">
+        <v>601</v>
+      </c>
+      <c r="E122" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="F122" s="77">
+        <v>122</v>
+      </c>
+      <c r="G122" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" s="77">
+        <v>1</v>
+      </c>
+      <c r="I122" s="77">
+        <v>946677600</v>
+      </c>
+      <c r="J122" s="77">
+        <v>32503651200</v>
+      </c>
+      <c r="K122" s="77">
+        <v>-1</v>
+      </c>
+      <c r="L122" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" s="77" customFormat="1">
+      <c r="A123" s="77">
+        <v>30023</v>
+      </c>
+      <c r="B123" s="77">
+        <v>1</v>
+      </c>
+      <c r="C123" s="77" t="s">
+        <v>501</v>
+      </c>
+      <c r="D123" s="78" t="s">
+        <v>603</v>
+      </c>
+      <c r="E123" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="F123" s="77">
+        <v>123</v>
+      </c>
+      <c r="G123" s="77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123" s="77">
+        <v>1</v>
+      </c>
+      <c r="I123" s="77">
+        <v>946677600</v>
+      </c>
+      <c r="J123" s="77">
+        <v>32503651200</v>
+      </c>
+      <c r="K123" s="77">
+        <v>-1</v>
+      </c>
+      <c r="L123" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" s="84" customFormat="1">
+      <c r="A124" s="84">
+        <v>30024</v>
+      </c>
+      <c r="B124" s="84">
+        <v>1</v>
+      </c>
+      <c r="C124" s="85" t="s">
+        <v>593</v>
+      </c>
+      <c r="D124" s="85" t="s">
+        <v>520</v>
+      </c>
+      <c r="E124" s="85" t="s">
+        <v>521</v>
+      </c>
+      <c r="F124" s="84">
+        <v>124</v>
+      </c>
+      <c r="G124" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" s="84">
+        <v>1</v>
+      </c>
+      <c r="I124" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J124" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K124" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L124" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" s="84" customFormat="1">
+      <c r="A125" s="84">
+        <v>30025</v>
+      </c>
+      <c r="B125" s="84">
+        <v>1</v>
+      </c>
+      <c r="C125" s="85" t="s">
+        <v>594</v>
+      </c>
+      <c r="D125" s="85" t="s">
+        <v>519</v>
+      </c>
+      <c r="E125" s="85" t="s">
+        <v>522</v>
+      </c>
+      <c r="F125" s="84">
+        <v>125</v>
+      </c>
+      <c r="G125" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" s="84">
+        <v>1</v>
+      </c>
+      <c r="I125" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J125" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K125" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L125" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" s="84" customFormat="1">
+      <c r="A126" s="84">
+        <v>30026</v>
+      </c>
+      <c r="B126" s="84">
+        <v>1</v>
+      </c>
+      <c r="C126" s="85" t="s">
+        <v>595</v>
+      </c>
+      <c r="D126" s="85" t="s">
+        <v>520</v>
+      </c>
+      <c r="E126" s="85" t="s">
+        <v>522</v>
+      </c>
+      <c r="F126" s="84">
+        <v>126</v>
+      </c>
+      <c r="G126" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" s="84">
+        <v>1</v>
+      </c>
+      <c r="I126" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J126" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K126" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L126" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" s="84" customFormat="1">
+      <c r="A127" s="84">
+        <v>30027</v>
+      </c>
+      <c r="B127" s="84">
+        <v>1</v>
+      </c>
+      <c r="C127" s="85" t="s">
+        <v>596</v>
+      </c>
+      <c r="D127" s="85" t="s">
+        <v>519</v>
+      </c>
+      <c r="E127" s="85" t="s">
+        <v>525</v>
+      </c>
+      <c r="F127" s="84">
+        <v>127</v>
+      </c>
+      <c r="G127" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" s="84">
+        <v>1</v>
+      </c>
+      <c r="I127" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J127" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K127" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L127" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" s="84" customFormat="1">
+      <c r="A128" s="84">
+        <v>30028</v>
+      </c>
+      <c r="B128" s="84">
+        <v>1</v>
+      </c>
+      <c r="C128" s="85" t="s">
+        <v>597</v>
+      </c>
+      <c r="D128" s="85" t="s">
+        <v>520</v>
+      </c>
+      <c r="E128" s="85" t="s">
+        <v>526</v>
+      </c>
+      <c r="F128" s="84">
+        <v>128</v>
+      </c>
+      <c r="G128" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" s="84">
+        <v>1</v>
+      </c>
+      <c r="I128" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J128" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K128" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L128" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" s="84" customFormat="1">
+      <c r="A129" s="84">
+        <v>30029</v>
+      </c>
+      <c r="B129" s="84">
+        <v>1</v>
+      </c>
+      <c r="C129" s="85" t="s">
+        <v>598</v>
+      </c>
+      <c r="D129" s="85" t="s">
+        <v>519</v>
+      </c>
+      <c r="E129" s="85" t="s">
+        <v>527</v>
+      </c>
+      <c r="F129" s="84">
+        <v>129</v>
+      </c>
+      <c r="G129" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" s="84">
+        <v>1</v>
+      </c>
+      <c r="I129" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J129" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K129" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L129" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" s="84" customFormat="1">
+      <c r="A130" s="84">
+        <v>30030</v>
+      </c>
+      <c r="B130" s="84">
+        <v>1</v>
+      </c>
+      <c r="C130" s="85" t="s">
+        <v>599</v>
+      </c>
+      <c r="D130" s="85" t="s">
+        <v>520</v>
+      </c>
+      <c r="E130" s="85" t="s">
+        <v>523</v>
+      </c>
+      <c r="F130" s="84">
+        <v>130</v>
+      </c>
+      <c r="G130" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" s="84">
+        <v>1</v>
+      </c>
+      <c r="I130" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J130" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K130" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L130" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" s="84" customFormat="1">
+      <c r="A131" s="84">
+        <v>30031</v>
+      </c>
+      <c r="B131" s="84">
+        <v>1</v>
+      </c>
+      <c r="C131" s="85" t="s">
+        <v>600</v>
+      </c>
+      <c r="D131" s="85" t="s">
+        <v>519</v>
+      </c>
+      <c r="E131" s="85" t="s">
+        <v>524</v>
+      </c>
+      <c r="F131" s="84">
+        <v>131</v>
+      </c>
+      <c r="G131" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" s="84">
+        <v>1</v>
+      </c>
+      <c r="I131" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J131" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K131" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L131" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" s="84" customFormat="1">
+      <c r="A132" s="84">
+        <v>30032</v>
+      </c>
+      <c r="B132" s="84">
+        <v>1</v>
+      </c>
+      <c r="C132" s="85" t="s">
+        <v>518</v>
+      </c>
+      <c r="D132" s="85" t="s">
+        <v>520</v>
+      </c>
+      <c r="E132" s="85" t="s">
+        <v>528</v>
+      </c>
+      <c r="F132" s="84">
+        <v>132</v>
+      </c>
+      <c r="G132" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132" s="84">
+        <v>1</v>
+      </c>
+      <c r="I132" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J132" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K132" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L132" s="84">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" style="4"/>
     <col min="2" max="5" width="32.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="59.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="59.5" style="48" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="4" customWidth="1"/>
     <col min="8" max="8" width="37.5" style="48" customWidth="1"/>
     <col min="9" max="9" width="26" style="4" customWidth="1"/>
@@ -7166,7 +8708,7 @@
       <c r="E1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="49" t="s">
         <v>201</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -7203,7 +8745,7 @@
         <v>207</v>
       </c>
       <c r="G2" s="50"/>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="75" t="s">
         <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -7226,11 +8768,11 @@
       <c r="E3" s="12">
         <v>2</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="89" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="12"/>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="75" t="s">
         <v>210</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -7253,11 +8795,11 @@
       <c r="E4" s="12">
         <v>3</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="89" t="s">
         <v>207</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="75" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -7284,7 +8826,7 @@
         <v>212</v>
       </c>
       <c r="G5" s="50"/>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="75" t="s">
         <v>213</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -7307,7 +8849,7 @@
       <c r="E6" s="12">
         <v>5</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="51">
         <v>10</v>
       </c>
       <c r="G6" s="12"/>
@@ -7335,7 +8877,7 @@
       <c r="E7" s="4">
         <v>6</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="48">
         <v>10</v>
       </c>
       <c r="H7" s="48">
@@ -7361,7 +8903,7 @@
       <c r="E8" s="4">
         <v>15</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="48">
         <v>8</v>
       </c>
       <c r="H8" s="48">
@@ -7387,7 +8929,7 @@
       <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="48">
         <v>1</v>
       </c>
       <c r="H9" s="48">
@@ -7414,7 +8956,7 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="48">
         <v>1</v>
       </c>
       <c r="H10" s="48">
@@ -7440,7 +8982,7 @@
       <c r="E11" s="4">
         <v>7</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="48">
         <v>5</v>
       </c>
       <c r="H11" s="48">
@@ -7466,7 +9008,7 @@
       <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="48">
         <v>1</v>
       </c>
       <c r="H12" s="48">
@@ -7492,7 +9034,7 @@
       <c r="E13" s="4">
         <v>7</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="48">
         <v>8</v>
       </c>
       <c r="H13" s="48">
@@ -7518,7 +9060,7 @@
       <c r="E14" s="4">
         <v>7</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="48">
         <v>5</v>
       </c>
       <c r="H14" s="48">
@@ -7544,7 +9086,7 @@
       <c r="E15" s="4">
         <v>18</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="48">
         <v>1</v>
       </c>
       <c r="H15" s="48">
@@ -7570,7 +9112,7 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="48">
         <v>1000</v>
       </c>
       <c r="H16" s="48">
@@ -7596,7 +9138,7 @@
       <c r="E17" s="4">
         <v>19</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="48">
         <v>1</v>
       </c>
       <c r="H17" s="48">
@@ -7622,7 +9164,7 @@
       <c r="E18" s="4">
         <v>10</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="48">
         <v>1</v>
       </c>
       <c r="H18" s="48">
@@ -7648,7 +9190,7 @@
       <c r="E19" s="4">
         <v>12</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="48">
         <v>5</v>
       </c>
       <c r="H19" s="48">
@@ -7674,7 +9216,7 @@
       <c r="E20" s="4">
         <v>11</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="48">
         <v>1</v>
       </c>
       <c r="H20" s="48">
@@ -7700,7 +9242,7 @@
       <c r="E21" s="4">
         <v>10</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="48">
         <v>1</v>
       </c>
       <c r="H21" s="48">
@@ -7726,7 +9268,7 @@
       <c r="E22" s="4">
         <v>8</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="48">
         <v>5</v>
       </c>
       <c r="H22" s="48">
@@ -7752,7 +9294,7 @@
       <c r="E23" s="4">
         <v>11</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="48">
         <v>3</v>
       </c>
       <c r="H23" s="48">
@@ -7778,7 +9320,7 @@
       <c r="E24" s="4">
         <v>9</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="48">
         <v>5</v>
       </c>
       <c r="H24" s="48">
@@ -7804,7 +9346,7 @@
       <c r="E25" s="4">
         <v>9</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="48">
         <v>5</v>
       </c>
       <c r="H25" s="48">
@@ -7830,7 +9372,7 @@
       <c r="E26" s="4">
         <v>20</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="48">
         <v>1</v>
       </c>
       <c r="H26" s="48">
@@ -7856,7 +9398,7 @@
       <c r="E27" s="4">
         <v>13</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="48">
         <v>5</v>
       </c>
       <c r="H27" s="48">
@@ -7882,7 +9424,7 @@
       <c r="E28" s="4">
         <v>11</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="48">
         <v>5</v>
       </c>
       <c r="H28" s="48">
@@ -7908,7 +9450,7 @@
       <c r="E29" s="4">
         <v>14</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="48">
         <v>5</v>
       </c>
       <c r="H29" s="48">
@@ -7934,7 +9476,7 @@
       <c r="E30" s="4">
         <v>12</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="48">
         <v>10</v>
       </c>
       <c r="H30" s="48">
@@ -7960,7 +9502,7 @@
       <c r="E31" s="4">
         <v>21</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="48">
         <v>1</v>
       </c>
       <c r="H31" s="48">
@@ -7986,7 +9528,7 @@
       <c r="E32" s="4">
         <v>7</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="48">
         <v>1</v>
       </c>
       <c r="H32" s="48">
@@ -8012,7 +9554,7 @@
       <c r="E33" s="4">
         <v>0</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="48">
         <v>1</v>
       </c>
       <c r="H33" s="48">
@@ -8038,7 +9580,7 @@
       <c r="E34" s="4">
         <v>7</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="48">
         <v>5</v>
       </c>
       <c r="H34" s="48">
@@ -8064,7 +9606,7 @@
       <c r="E35" s="4">
         <v>10</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="48">
         <v>1</v>
       </c>
       <c r="H35" s="48">
@@ -8090,7 +9632,7 @@
       <c r="E36" s="4">
         <v>7</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="48">
         <v>5</v>
       </c>
       <c r="H36" s="48">
@@ -8116,7 +9658,7 @@
       <c r="E37" s="4">
         <v>0</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="48">
         <v>20000</v>
       </c>
       <c r="H37" s="48">
@@ -8142,7 +9684,7 @@
       <c r="E38" s="4">
         <v>0</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="48">
         <v>1</v>
       </c>
       <c r="H38" s="48">
@@ -8168,7 +9710,7 @@
       <c r="E39" s="4">
         <v>24</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="48">
         <v>3</v>
       </c>
       <c r="H39" s="48">
@@ -8194,7 +9736,7 @@
       <c r="E40" s="4">
         <v>10</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="48">
         <v>1</v>
       </c>
       <c r="H40" s="48">
@@ -8220,7 +9762,7 @@
       <c r="E41" s="4">
         <v>7</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="48">
         <v>8</v>
       </c>
       <c r="H41" s="48">
@@ -8246,7 +9788,7 @@
       <c r="E42" s="4">
         <v>0</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="48">
         <v>50000</v>
       </c>
       <c r="H42" s="48">
@@ -8272,7 +9814,7 @@
       <c r="E43" s="4">
         <v>7</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="48">
         <v>10</v>
       </c>
       <c r="H43" s="48">
@@ -8298,7 +9840,7 @@
       <c r="E44" s="4">
         <v>0</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="48">
         <v>100000</v>
       </c>
       <c r="H44" s="48">
@@ -8324,7 +9866,7 @@
       <c r="E45" s="4">
         <v>0</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="48">
         <v>600</v>
       </c>
       <c r="H45" s="48">
@@ -8350,7 +9892,7 @@
       <c r="E46" s="4">
         <v>18</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="48">
         <v>1</v>
       </c>
       <c r="H46" s="48">
@@ -8376,7 +9918,7 @@
       <c r="E47" s="4">
         <v>10</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="48">
         <v>1</v>
       </c>
       <c r="H47" s="48">
@@ -8402,7 +9944,7 @@
       <c r="E48" s="4">
         <v>25</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="48">
         <v>1</v>
       </c>
       <c r="H48" s="48">
@@ -8428,7 +9970,7 @@
       <c r="E49" s="4">
         <v>26</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="48">
         <v>1</v>
       </c>
       <c r="H49" s="48">
@@ -8454,7 +9996,7 @@
       <c r="E50" s="4">
         <v>27</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="48">
         <v>1</v>
       </c>
       <c r="H50" s="48">
@@ -8480,7 +10022,7 @@
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="78" t="s">
+      <c r="F51" s="90" t="s">
         <v>222</v>
       </c>
       <c r="G51" s="52"/>
@@ -8507,7 +10049,7 @@
       <c r="E52" s="4">
         <v>15</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="48">
         <v>8</v>
       </c>
       <c r="H52" s="48">
@@ -8533,7 +10075,7 @@
       <c r="E53" s="4">
         <v>17</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="48">
         <v>1</v>
       </c>
       <c r="H53" s="48">
@@ -8559,7 +10101,7 @@
       <c r="E54" s="4">
         <v>22</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="48">
         <v>0</v>
       </c>
       <c r="H54" s="48">
@@ -8585,7 +10127,7 @@
       <c r="E55" s="4">
         <v>22</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="48">
         <v>0</v>
       </c>
       <c r="H55" s="48">
@@ -8611,7 +10153,7 @@
       <c r="E56" s="4">
         <v>23</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="48">
         <v>1</v>
       </c>
       <c r="H56" s="48">
@@ -8637,7 +10179,7 @@
       <c r="E57" s="4">
         <v>0</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="48">
         <v>2000000</v>
       </c>
       <c r="H57" s="48">
@@ -8663,7 +10205,7 @@
       <c r="E58" s="4">
         <v>0</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="48">
         <v>5</v>
       </c>
       <c r="I58" s="4" t="s">
@@ -8686,7 +10228,7 @@
       <c r="E59" s="4">
         <v>0</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="48">
         <v>5</v>
       </c>
       <c r="I59" s="4" t="s">
@@ -8709,7 +10251,7 @@
       <c r="E60" s="4">
         <v>0</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="48">
         <v>5</v>
       </c>
       <c r="I60" s="4" t="s">
@@ -8732,7 +10274,7 @@
       <c r="E61" s="4">
         <v>0</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="48">
         <v>5</v>
       </c>
       <c r="I61" s="4" t="s">
@@ -8755,7 +10297,7 @@
       <c r="E62" s="4">
         <v>0</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="48" t="s">
         <v>227</v>
       </c>
       <c r="H62" s="48" t="s">
@@ -8778,7 +10320,7 @@
       <c r="E63" s="4">
         <v>0</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="48">
         <v>99999</v>
       </c>
       <c r="I63" s="4" t="s">
@@ -8801,7 +10343,7 @@
       <c r="E64" s="4">
         <v>0</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="48">
         <v>99999</v>
       </c>
       <c r="I64" s="4" t="s">
@@ -8824,7 +10366,7 @@
       <c r="E65" s="4">
         <v>0</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="48">
         <v>99999</v>
       </c>
       <c r="I65" s="4" t="s">
@@ -8847,7 +10389,7 @@
       <c r="E66" s="4">
         <v>0</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="48">
         <v>0</v>
       </c>
       <c r="H66" s="48">
@@ -8873,7 +10415,7 @@
       <c r="E67" s="4">
         <v>0</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="48">
         <v>0</v>
       </c>
       <c r="H67" s="48">
@@ -8899,7 +10441,7 @@
       <c r="E68" s="4">
         <v>0</v>
       </c>
-      <c r="F68" s="55">
+      <c r="F68" s="91">
         <v>99999999999</v>
       </c>
       <c r="G68" s="55"/>
@@ -8923,7 +10465,7 @@
       <c r="E69" s="4">
         <v>28</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="48">
         <v>200000000</v>
       </c>
       <c r="G69" s="4">
@@ -8952,7 +10494,7 @@
       <c r="E70" s="14">
         <v>0</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="56" t="s">
         <v>233</v>
       </c>
       <c r="G70" s="14"/>
@@ -8979,7 +10521,7 @@
       <c r="E71" s="14">
         <v>0</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="56">
         <v>0</v>
       </c>
       <c r="G71" s="14"/>
@@ -9006,7 +10548,7 @@
       <c r="E72" s="14">
         <v>0</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="56">
         <v>1</v>
       </c>
       <c r="G72" s="14"/>
@@ -9033,7 +10575,7 @@
       <c r="E73" s="14">
         <v>0</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="56">
         <v>1</v>
       </c>
       <c r="G73" s="14"/>
@@ -9060,7 +10602,7 @@
       <c r="E74" s="14">
         <v>0</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F74" s="56">
         <v>1</v>
       </c>
       <c r="G74" s="14"/>
@@ -9087,7 +10629,7 @@
       <c r="E75" s="14">
         <v>0</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F75" s="56">
         <v>10</v>
       </c>
       <c r="G75" s="14"/>
@@ -9110,7 +10652,7 @@
       <c r="E76" s="14">
         <v>0</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F76" s="56">
         <v>10</v>
       </c>
       <c r="G76" s="14"/>
@@ -9133,7 +10675,7 @@
       <c r="E77" s="14">
         <v>29</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F77" s="56">
         <v>1000000000</v>
       </c>
       <c r="G77" s="14">
@@ -9162,7 +10704,7 @@
       <c r="E78" s="14">
         <v>30</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="56">
         <v>4000000000</v>
       </c>
       <c r="G78" s="14">
@@ -9187,7 +10729,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="8"/>
-      <c r="F79" s="8">
+      <c r="F79" s="58">
         <v>50000</v>
       </c>
       <c r="G79" s="8"/>
@@ -9210,7 +10752,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="8"/>
-      <c r="F80" s="8">
+      <c r="F80" s="58">
         <v>500000</v>
       </c>
       <c r="G80" s="8"/>
@@ -9233,7 +10775,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="8"/>
-      <c r="F81" s="8">
+      <c r="F81" s="58">
         <v>2000000</v>
       </c>
       <c r="G81" s="8"/>
@@ -9260,7 +10802,7 @@
       <c r="E82" s="32">
         <v>0</v>
       </c>
-      <c r="F82" s="32">
+      <c r="F82" s="59">
         <v>1000000000</v>
       </c>
       <c r="G82" s="32">
@@ -9287,7 +10829,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="20"/>
-      <c r="F83" s="20">
+      <c r="F83" s="60">
         <v>2000000000</v>
       </c>
       <c r="G83" s="20">
@@ -9314,7 +10856,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="20"/>
-      <c r="F84" s="20">
+      <c r="F84" s="60">
         <v>10000000000</v>
       </c>
       <c r="G84" s="20">
@@ -9341,7 +10883,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="20"/>
-      <c r="F85" s="20">
+      <c r="F85" s="60">
         <v>40000000000</v>
       </c>
       <c r="G85" s="20">
@@ -9367,7 +10909,7 @@
       <c r="E86" s="4">
         <v>0</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="37" t="s">
         <v>240</v>
       </c>
       <c r="H86" s="37" t="s">
@@ -9396,7 +10938,7 @@
       <c r="E87" s="4">
         <v>0</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="48">
         <v>99999</v>
       </c>
       <c r="I87" s="4" t="s">
@@ -9419,7 +10961,7 @@
       <c r="E88" s="4">
         <v>0</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="48">
         <v>99999</v>
       </c>
       <c r="I88" s="4" t="s">
@@ -9442,7 +10984,7 @@
       <c r="E89" s="4">
         <v>0</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="48">
         <v>99999</v>
       </c>
       <c r="I89" s="4" t="s">
@@ -9465,7 +11007,7 @@
       <c r="E90" s="4">
         <v>0</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="48">
         <v>99999</v>
       </c>
       <c r="I90" s="4" t="s">
@@ -9484,7 +11026,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="8"/>
-      <c r="F91" s="8">
+      <c r="F91" s="58">
         <v>50000</v>
       </c>
       <c r="G91" s="8"/>
@@ -9507,7 +11049,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="8"/>
-      <c r="F92" s="8">
+      <c r="F92" s="58">
         <v>500000</v>
       </c>
       <c r="G92" s="8"/>
@@ -9530,7 +11072,7 @@
         <v>92</v>
       </c>
       <c r="E93" s="8"/>
-      <c r="F93" s="8">
+      <c r="F93" s="58">
         <v>2000000</v>
       </c>
       <c r="G93" s="8"/>
@@ -9551,7 +11093,7 @@
       <c r="D94" s="4">
         <v>93</v>
       </c>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="37" t="s">
         <v>242</v>
       </c>
       <c r="H94" s="37" t="s">
@@ -9574,7 +11116,7 @@
       <c r="D95" s="4">
         <v>94</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="37" t="s">
         <v>244</v>
       </c>
       <c r="H95" s="37" t="s">
@@ -9594,7 +11136,7 @@
       <c r="D96" s="4">
         <v>95</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="48">
         <v>30000</v>
       </c>
       <c r="H96" s="48">
@@ -9614,7 +11156,7 @@
       <c r="C97" s="62"/>
       <c r="D97" s="62"/>
       <c r="E97" s="62"/>
-      <c r="F97" s="63" t="s">
+      <c r="F97" s="64" t="s">
         <v>246</v>
       </c>
       <c r="G97" s="62"/>
@@ -9656,7 +11198,7 @@
       <c r="D99" s="4">
         <v>97</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="48">
         <v>600</v>
       </c>
       <c r="H99" s="37" t="s">
@@ -9676,7 +11218,7 @@
       <c r="D100" s="4">
         <v>98</v>
       </c>
-      <c r="F100" s="10" t="s">
+      <c r="F100" s="37" t="s">
         <v>251</v>
       </c>
       <c r="H100" s="37" t="s">
@@ -9696,7 +11238,7 @@
       <c r="D101" s="4">
         <v>99</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="37" t="s">
         <v>253</v>
       </c>
       <c r="H101" s="37" t="s">
@@ -9781,7 +11323,7 @@
         <v>100</v>
       </c>
       <c r="E105" s="20"/>
-      <c r="F105" s="20">
+      <c r="F105" s="60">
         <v>1</v>
       </c>
       <c r="G105" s="20"/>
@@ -9807,7 +11349,7 @@
         <v>100</v>
       </c>
       <c r="E106" s="20"/>
-      <c r="F106" s="20">
+      <c r="F106" s="60">
         <v>1</v>
       </c>
       <c r="G106" s="20"/>
@@ -9833,7 +11375,7 @@
         <v>101</v>
       </c>
       <c r="E107" s="20"/>
-      <c r="F107" s="20">
+      <c r="F107" s="60">
         <v>50000</v>
       </c>
       <c r="G107" s="20"/>
@@ -9859,7 +11401,7 @@
         <v>102</v>
       </c>
       <c r="E108" s="20"/>
-      <c r="F108" s="20">
+      <c r="F108" s="60">
         <v>1</v>
       </c>
       <c r="G108" s="20"/>
@@ -9885,7 +11427,7 @@
         <v>103</v>
       </c>
       <c r="E109" s="20"/>
-      <c r="F109" s="20">
+      <c r="F109" s="60">
         <v>10</v>
       </c>
       <c r="G109" s="20"/>
@@ -9911,7 +11453,7 @@
         <v>104</v>
       </c>
       <c r="E110" s="20"/>
-      <c r="F110" s="20">
+      <c r="F110" s="60">
         <v>10</v>
       </c>
       <c r="G110" s="20"/>
@@ -9937,7 +11479,7 @@
         <v>110</v>
       </c>
       <c r="E111" s="20"/>
-      <c r="F111" s="20">
+      <c r="F111" s="60">
         <v>600</v>
       </c>
       <c r="G111" s="20"/>
@@ -9963,7 +11505,7 @@
         <v>106</v>
       </c>
       <c r="E112" s="20"/>
-      <c r="F112" s="20">
+      <c r="F112" s="60">
         <v>1</v>
       </c>
       <c r="G112" s="20"/>
@@ -9989,7 +11531,7 @@
         <v>107</v>
       </c>
       <c r="E113" s="20"/>
-      <c r="F113" s="20">
+      <c r="F113" s="60">
         <v>3</v>
       </c>
       <c r="G113" s="20"/>
@@ -10015,7 +11557,7 @@
         <v>101</v>
       </c>
       <c r="E114" s="20"/>
-      <c r="F114" s="20">
+      <c r="F114" s="60">
         <v>1000000</v>
       </c>
       <c r="G114" s="20"/>
@@ -10041,7 +11583,7 @@
         <v>104</v>
       </c>
       <c r="E115" s="20"/>
-      <c r="F115" s="20">
+      <c r="F115" s="60">
         <v>50</v>
       </c>
       <c r="G115" s="20"/>
@@ -10067,7 +11609,7 @@
         <v>103</v>
       </c>
       <c r="E116" s="20"/>
-      <c r="F116" s="20">
+      <c r="F116" s="60">
         <v>100</v>
       </c>
       <c r="G116" s="20"/>
@@ -10093,7 +11635,7 @@
         <v>102</v>
       </c>
       <c r="E117" s="20"/>
-      <c r="F117" s="20">
+      <c r="F117" s="60">
         <v>20</v>
       </c>
       <c r="G117" s="20"/>
@@ -10119,7 +11661,7 @@
         <v>110</v>
       </c>
       <c r="E118" s="20"/>
-      <c r="F118" s="20">
+      <c r="F118" s="60">
         <v>5400</v>
       </c>
       <c r="G118" s="20"/>
@@ -10145,7 +11687,7 @@
         <v>114</v>
       </c>
       <c r="E119" s="20"/>
-      <c r="F119" s="20">
+      <c r="F119" s="60">
         <v>4800</v>
       </c>
       <c r="G119" s="20"/>
@@ -10157,6 +11699,326 @@
       </c>
       <c r="J119" s="47">
         <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="80" customFormat="1">
+      <c r="A120" s="79">
+        <v>119</v>
+      </c>
+      <c r="B120" s="77">
+        <v>119</v>
+      </c>
+      <c r="C120" s="79"/>
+      <c r="D120" s="79">
+        <v>115</v>
+      </c>
+      <c r="E120" s="79"/>
+      <c r="F120" s="92">
+        <v>5</v>
+      </c>
+      <c r="G120" s="79"/>
+      <c r="H120" s="82" t="s">
+        <v>508</v>
+      </c>
+      <c r="I120" s="81" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="80" customFormat="1">
+      <c r="A121" s="79">
+        <v>120</v>
+      </c>
+      <c r="B121" s="77">
+        <v>120</v>
+      </c>
+      <c r="C121" s="79"/>
+      <c r="D121" s="79">
+        <v>116</v>
+      </c>
+      <c r="E121" s="79"/>
+      <c r="F121" s="92">
+        <v>1</v>
+      </c>
+      <c r="G121" s="79"/>
+      <c r="H121" s="82" t="s">
+        <v>509</v>
+      </c>
+      <c r="I121" s="81" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="80" customFormat="1">
+      <c r="A122" s="79">
+        <v>121</v>
+      </c>
+      <c r="B122" s="77">
+        <v>121</v>
+      </c>
+      <c r="C122" s="79"/>
+      <c r="D122" s="79">
+        <v>117</v>
+      </c>
+      <c r="E122" s="79"/>
+      <c r="F122" s="92">
+        <v>30000</v>
+      </c>
+      <c r="G122" s="79"/>
+      <c r="H122" s="82" t="s">
+        <v>510</v>
+      </c>
+      <c r="I122" s="81" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="80" customFormat="1">
+      <c r="A123" s="79">
+        <v>122</v>
+      </c>
+      <c r="B123" s="77">
+        <v>122</v>
+      </c>
+      <c r="C123" s="79"/>
+      <c r="D123" s="79">
+        <v>117</v>
+      </c>
+      <c r="E123" s="79"/>
+      <c r="F123" s="92">
+        <v>50000</v>
+      </c>
+      <c r="G123" s="79"/>
+      <c r="H123" s="82" t="s">
+        <v>511</v>
+      </c>
+      <c r="I123" s="81" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="80" customFormat="1">
+      <c r="A124" s="79">
+        <v>123</v>
+      </c>
+      <c r="B124" s="77">
+        <v>123</v>
+      </c>
+      <c r="C124" s="79"/>
+      <c r="D124" s="81">
+        <v>118</v>
+      </c>
+      <c r="E124" s="79"/>
+      <c r="F124" s="92">
+        <v>500</v>
+      </c>
+      <c r="G124" s="79"/>
+      <c r="H124" s="82" t="s">
+        <v>512</v>
+      </c>
+      <c r="I124" s="81" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="87" customFormat="1">
+      <c r="A125" s="84">
+        <v>124</v>
+      </c>
+      <c r="B125" s="84">
+        <v>124</v>
+      </c>
+      <c r="C125" s="86"/>
+      <c r="D125" s="86">
+        <v>119</v>
+      </c>
+      <c r="E125" s="86"/>
+      <c r="F125" s="93" t="s">
+        <v>531</v>
+      </c>
+      <c r="G125" s="86"/>
+      <c r="H125" s="93" t="s">
+        <v>560</v>
+      </c>
+      <c r="I125" s="88" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="87" customFormat="1">
+      <c r="A126" s="84">
+        <v>125</v>
+      </c>
+      <c r="B126" s="84">
+        <v>125</v>
+      </c>
+      <c r="C126" s="86"/>
+      <c r="D126" s="86">
+        <v>120</v>
+      </c>
+      <c r="E126" s="86"/>
+      <c r="F126" s="93" t="s">
+        <v>532</v>
+      </c>
+      <c r="G126" s="86"/>
+      <c r="H126" s="93" t="s">
+        <v>570</v>
+      </c>
+      <c r="I126" s="88" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="87" customFormat="1">
+      <c r="A127" s="84">
+        <v>126</v>
+      </c>
+      <c r="B127" s="84">
+        <v>126</v>
+      </c>
+      <c r="C127" s="86"/>
+      <c r="D127" s="86">
+        <v>121</v>
+      </c>
+      <c r="E127" s="86"/>
+      <c r="F127" s="93" t="s">
+        <v>565</v>
+      </c>
+      <c r="G127" s="86"/>
+      <c r="H127" s="93" t="s">
+        <v>571</v>
+      </c>
+      <c r="I127" s="88" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="87" customFormat="1">
+      <c r="A128" s="84">
+        <v>127</v>
+      </c>
+      <c r="B128" s="84">
+        <v>127</v>
+      </c>
+      <c r="C128" s="86"/>
+      <c r="D128" s="86">
+        <v>122</v>
+      </c>
+      <c r="E128" s="86"/>
+      <c r="F128" s="93" t="s">
+        <v>534</v>
+      </c>
+      <c r="G128" s="86"/>
+      <c r="H128" s="93" t="s">
+        <v>575</v>
+      </c>
+      <c r="I128" s="88" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="87" customFormat="1">
+      <c r="A129" s="84">
+        <v>128</v>
+      </c>
+      <c r="B129" s="84">
+        <v>128</v>
+      </c>
+      <c r="C129" s="86"/>
+      <c r="D129" s="86">
+        <v>119</v>
+      </c>
+      <c r="E129" s="86"/>
+      <c r="F129" s="93" t="s">
+        <v>533</v>
+      </c>
+      <c r="G129" s="86"/>
+      <c r="H129" s="93" t="s">
+        <v>581</v>
+      </c>
+      <c r="I129" s="88" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="87" customFormat="1">
+      <c r="A130" s="84">
+        <v>129</v>
+      </c>
+      <c r="B130" s="84">
+        <v>129</v>
+      </c>
+      <c r="C130" s="86"/>
+      <c r="D130" s="86">
+        <v>123</v>
+      </c>
+      <c r="E130" s="86"/>
+      <c r="F130" s="93" t="s">
+        <v>535</v>
+      </c>
+      <c r="G130" s="86"/>
+      <c r="H130" s="93" t="s">
+        <v>583</v>
+      </c>
+      <c r="I130" s="88" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="87" customFormat="1">
+      <c r="A131" s="84">
+        <v>130</v>
+      </c>
+      <c r="B131" s="84">
+        <v>130</v>
+      </c>
+      <c r="C131" s="86"/>
+      <c r="D131" s="86">
+        <v>101</v>
+      </c>
+      <c r="E131" s="86"/>
+      <c r="F131" s="93" t="s">
+        <v>536</v>
+      </c>
+      <c r="G131" s="86"/>
+      <c r="H131" s="93" t="s">
+        <v>586</v>
+      </c>
+      <c r="I131" s="88" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="87" customFormat="1">
+      <c r="A132" s="84">
+        <v>131</v>
+      </c>
+      <c r="B132" s="84">
+        <v>131</v>
+      </c>
+      <c r="C132" s="86"/>
+      <c r="D132" s="86">
+        <v>125</v>
+      </c>
+      <c r="E132" s="86"/>
+      <c r="F132" s="93" t="s">
+        <v>537</v>
+      </c>
+      <c r="G132" s="86"/>
+      <c r="H132" s="93" t="s">
+        <v>589</v>
+      </c>
+      <c r="I132" s="88" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="87" customFormat="1">
+      <c r="A133" s="84">
+        <v>132</v>
+      </c>
+      <c r="B133" s="84">
+        <v>132</v>
+      </c>
+      <c r="C133" s="86"/>
+      <c r="D133" s="86"/>
+      <c r="E133" s="86"/>
+      <c r="F133" s="93" t="s">
+        <v>529</v>
+      </c>
+      <c r="G133" s="86"/>
+      <c r="H133" s="93" t="s">
+        <v>592</v>
+      </c>
+      <c r="I133" s="88" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -10169,11 +12031,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F120" sqref="B120:F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12157,7 +14019,7 @@
       <c r="D120" s="18">
         <v>0</v>
       </c>
-      <c r="F120" s="79" t="s">
+      <c r="F120" s="97" t="s">
         <v>282</v>
       </c>
     </row>
@@ -12174,7 +14036,7 @@
       <c r="D121" s="18">
         <v>0</v>
       </c>
-      <c r="F121" s="79"/>
+      <c r="F121" s="97"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="20">
@@ -12189,7 +14051,7 @@
       <c r="D122" s="18">
         <v>0</v>
       </c>
-      <c r="F122" s="79"/>
+      <c r="F122" s="97"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="20">
@@ -12204,7 +14066,7 @@
       <c r="D123" s="18">
         <v>0</v>
       </c>
-      <c r="F123" s="79"/>
+      <c r="F123" s="97"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="20">
@@ -12219,7 +14081,7 @@
       <c r="D124" s="18">
         <v>0</v>
       </c>
-      <c r="F124" s="79"/>
+      <c r="F124" s="97"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="20">
@@ -12234,7 +14096,7 @@
       <c r="D125" s="18">
         <v>0</v>
       </c>
-      <c r="F125" s="79"/>
+      <c r="F125" s="97"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="20">
@@ -12249,7 +14111,7 @@
       <c r="D126" s="18">
         <v>0</v>
       </c>
-      <c r="F126" s="79"/>
+      <c r="F126" s="97"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="20">
@@ -12264,7 +14126,7 @@
       <c r="D127" s="18">
         <v>0</v>
       </c>
-      <c r="F127" s="79"/>
+      <c r="F127" s="97"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="20">
@@ -12279,7 +14141,7 @@
       <c r="D128" s="18">
         <v>0</v>
       </c>
-      <c r="F128" s="79"/>
+      <c r="F128" s="97"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="20">
@@ -12294,7 +14156,7 @@
       <c r="D129" s="18">
         <v>0</v>
       </c>
-      <c r="F129" s="79"/>
+      <c r="F129" s="97"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="20">
@@ -12309,7 +14171,7 @@
       <c r="D130" s="18">
         <v>0</v>
       </c>
-      <c r="F130" s="79"/>
+      <c r="F130" s="97"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="20">
@@ -12324,7 +14186,7 @@
       <c r="D131" s="18">
         <v>0</v>
       </c>
-      <c r="F131" s="79"/>
+      <c r="F131" s="97"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="20">
@@ -12339,7 +14201,7 @@
       <c r="D132" s="18">
         <v>0</v>
       </c>
-      <c r="F132" s="79"/>
+      <c r="F132" s="97"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="20">
@@ -12354,7 +14216,7 @@
       <c r="D133" s="18">
         <v>0</v>
       </c>
-      <c r="F133" s="79"/>
+      <c r="F133" s="97"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="20">
@@ -12369,7 +14231,7 @@
       <c r="D134" s="18">
         <v>0</v>
       </c>
-      <c r="F134" s="79"/>
+      <c r="F134" s="97"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="20">
@@ -12384,7 +14246,7 @@
       <c r="D135" s="18">
         <v>0</v>
       </c>
-      <c r="F135" s="79"/>
+      <c r="F135" s="97"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="20">
@@ -12449,8 +14311,8 @@
       <c r="B140" s="20">
         <v>106</v>
       </c>
-      <c r="C140" s="20" t="s">
-        <v>299</v>
+      <c r="C140" s="94" t="s">
+        <v>551</v>
       </c>
       <c r="D140" s="18">
         <v>0</v>
@@ -12566,6 +14428,160 @@
       </c>
       <c r="D148" s="20">
         <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="4">
+        <v>115</v>
+      </c>
+      <c r="C149" s="83" t="s">
+        <v>514</v>
+      </c>
+      <c r="D149" s="18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4">
+        <v>116</v>
+      </c>
+      <c r="C150" s="83" t="s">
+        <v>538</v>
+      </c>
+      <c r="D150" s="18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="4">
+        <v>117</v>
+      </c>
+      <c r="C151" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="D151" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4">
+        <v>118</v>
+      </c>
+      <c r="C152" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="D152" s="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="76">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4">
+        <v>119</v>
+      </c>
+      <c r="C153" s="83" t="s">
+        <v>547</v>
+      </c>
+      <c r="D153" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="76">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4">
+        <v>120</v>
+      </c>
+      <c r="C154" s="83" t="s">
+        <v>539</v>
+      </c>
+      <c r="D154" s="18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="76">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4">
+        <v>121</v>
+      </c>
+      <c r="C155" s="83" t="s">
+        <v>539</v>
+      </c>
+      <c r="D155" s="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="76">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4">
+        <v>122</v>
+      </c>
+      <c r="C156" s="83" t="s">
+        <v>546</v>
+      </c>
+      <c r="D156" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="76">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4">
+        <v>123</v>
+      </c>
+      <c r="C157" s="83" t="s">
+        <v>547</v>
+      </c>
+      <c r="D157" s="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="76">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4">
+        <v>124</v>
+      </c>
+      <c r="C158" s="83" t="s">
+        <v>550</v>
+      </c>
+      <c r="D158" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="76">
+        <v>158</v>
+      </c>
+      <c r="B159" s="4">
+        <v>125</v>
+      </c>
+      <c r="C159" s="83" t="s">
+        <v>552</v>
+      </c>
+      <c r="D159" s="18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12581,11 +14597,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13899,6 +15915,108 @@
         <v>3</v>
       </c>
     </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="12">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4">
+        <v>43</v>
+      </c>
+      <c r="C77" s="83" t="s">
+        <v>542</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="12">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4">
+        <v>44</v>
+      </c>
+      <c r="C78" s="83" t="s">
+        <v>543</v>
+      </c>
+      <c r="D78" s="83" t="s">
+        <v>540</v>
+      </c>
+      <c r="E78" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="12">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4">
+        <v>45</v>
+      </c>
+      <c r="C79" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="12">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4">
+        <v>46</v>
+      </c>
+      <c r="C80" s="83" t="s">
+        <v>544</v>
+      </c>
+      <c r="D80" s="83" t="s">
+        <v>541</v>
+      </c>
+      <c r="E80" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="12">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4">
+        <v>47</v>
+      </c>
+      <c r="C81" s="83" t="s">
+        <v>544</v>
+      </c>
+      <c r="D81" s="83" t="s">
+        <v>545</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="12">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4">
+        <v>48</v>
+      </c>
+      <c r="C82" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="D82" s="83" t="s">
+        <v>549</v>
+      </c>
+      <c r="E82" s="4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -13908,11 +16026,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:I207"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D207" sqref="D207"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B210" sqref="B210:E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -17615,13 +19733,1390 @@
       <c r="B207" s="20">
         <v>189</v>
       </c>
-      <c r="C207" s="20" t="s">
-        <v>369</v>
+      <c r="C207" s="94" t="s">
+        <v>554</v>
       </c>
       <c r="D207" s="20">
         <v>400</v>
       </c>
       <c r="E207" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="12">
+        <v>207</v>
+      </c>
+      <c r="B208" s="4">
+        <v>190</v>
+      </c>
+      <c r="C208" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D208" s="4">
+        <v>20</v>
+      </c>
+      <c r="E208" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="12">
+        <v>208</v>
+      </c>
+      <c r="B209" s="4">
+        <v>191</v>
+      </c>
+      <c r="C209" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D209" s="4">
+        <v>5</v>
+      </c>
+      <c r="E209" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="12">
+        <v>209</v>
+      </c>
+      <c r="B210" s="4">
+        <v>192</v>
+      </c>
+      <c r="C210" s="83" t="s">
+        <v>562</v>
+      </c>
+      <c r="D210" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E210" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="12">
+        <v>210</v>
+      </c>
+      <c r="B211" s="4">
+        <v>193</v>
+      </c>
+      <c r="C211" s="83" t="s">
+        <v>562</v>
+      </c>
+      <c r="D211" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E211" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="12">
+        <v>211</v>
+      </c>
+      <c r="B212" s="4">
+        <v>194</v>
+      </c>
+      <c r="C212" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D212" s="4">
+        <v>10</v>
+      </c>
+      <c r="E212" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="84">
+        <v>212</v>
+      </c>
+      <c r="B213" s="86">
+        <v>195</v>
+      </c>
+      <c r="C213" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D213" s="96" t="s">
+        <v>553</v>
+      </c>
+      <c r="E213" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="84">
+        <v>213</v>
+      </c>
+      <c r="B214" s="86">
+        <v>195</v>
+      </c>
+      <c r="C214" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D214" s="86">
+        <v>5</v>
+      </c>
+      <c r="E214" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="84">
+        <v>214</v>
+      </c>
+      <c r="B215" s="86">
+        <v>196</v>
+      </c>
+      <c r="C215" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D215" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E215" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="84">
+        <v>215</v>
+      </c>
+      <c r="B216" s="86">
+        <v>196</v>
+      </c>
+      <c r="C216" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D216" s="86">
+        <v>5</v>
+      </c>
+      <c r="E216" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="84">
+        <v>216</v>
+      </c>
+      <c r="B217" s="86">
+        <v>197</v>
+      </c>
+      <c r="C217" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D217" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E217" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="84">
+        <v>217</v>
+      </c>
+      <c r="B218" s="86">
+        <v>197</v>
+      </c>
+      <c r="C218" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="D218" s="86">
+        <v>5</v>
+      </c>
+      <c r="E218" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="84">
+        <v>218</v>
+      </c>
+      <c r="B219" s="86">
+        <v>198</v>
+      </c>
+      <c r="C219" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D219" s="93" t="s">
+        <v>557</v>
+      </c>
+      <c r="E219" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="84">
+        <v>219</v>
+      </c>
+      <c r="B220" s="86">
+        <v>198</v>
+      </c>
+      <c r="C220" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D220" s="86">
+        <v>5</v>
+      </c>
+      <c r="E220" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="84">
+        <v>220</v>
+      </c>
+      <c r="B221" s="86">
+        <v>199</v>
+      </c>
+      <c r="C221" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D221" s="96" t="s">
+        <v>559</v>
+      </c>
+      <c r="E221" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="84">
+        <v>221</v>
+      </c>
+      <c r="B222" s="86">
+        <v>199</v>
+      </c>
+      <c r="C222" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D222" s="86">
+        <v>10</v>
+      </c>
+      <c r="E222" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="84">
+        <v>222</v>
+      </c>
+      <c r="B223" s="86">
+        <v>200</v>
+      </c>
+      <c r="C223" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D223" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E223" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="84">
+        <v>223</v>
+      </c>
+      <c r="B224" s="86">
+        <v>200</v>
+      </c>
+      <c r="C224" s="88" t="s">
+        <v>567</v>
+      </c>
+      <c r="D224" s="86">
+        <v>5</v>
+      </c>
+      <c r="E224" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="84">
+        <v>224</v>
+      </c>
+      <c r="B225" s="86">
+        <v>201</v>
+      </c>
+      <c r="C225" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D225" s="96" t="s">
+        <v>559</v>
+      </c>
+      <c r="E225" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="84">
+        <v>225</v>
+      </c>
+      <c r="B226" s="86">
+        <v>201</v>
+      </c>
+      <c r="C226" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D226" s="86">
+        <v>5</v>
+      </c>
+      <c r="E226" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="84">
+        <v>226</v>
+      </c>
+      <c r="B227" s="86">
+        <v>202</v>
+      </c>
+      <c r="C227" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D227" s="96" t="s">
+        <v>559</v>
+      </c>
+      <c r="E227" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="84">
+        <v>227</v>
+      </c>
+      <c r="B228" s="86">
+        <v>202</v>
+      </c>
+      <c r="C228" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D228" s="86">
+        <v>5</v>
+      </c>
+      <c r="E228" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="84">
+        <v>228</v>
+      </c>
+      <c r="B229" s="86">
+        <v>203</v>
+      </c>
+      <c r="C229" s="88" t="s">
+        <v>562</v>
+      </c>
+      <c r="D229" s="96" t="s">
+        <v>568</v>
+      </c>
+      <c r="E229" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="84">
+        <v>229</v>
+      </c>
+      <c r="B230" s="86">
+        <v>203</v>
+      </c>
+      <c r="C230" s="88" t="s">
+        <v>569</v>
+      </c>
+      <c r="D230" s="86">
+        <v>10</v>
+      </c>
+      <c r="E230" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="84">
+        <v>230</v>
+      </c>
+      <c r="B231" s="86">
+        <v>204</v>
+      </c>
+      <c r="C231" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="D231" s="86">
+        <v>8000</v>
+      </c>
+      <c r="E231" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="84">
+        <v>231</v>
+      </c>
+      <c r="B232" s="86">
+        <v>204</v>
+      </c>
+      <c r="C232" s="88" t="s">
+        <v>569</v>
+      </c>
+      <c r="D232" s="86">
+        <v>15</v>
+      </c>
+      <c r="E232" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="84">
+        <v>232</v>
+      </c>
+      <c r="B233" s="86">
+        <v>205</v>
+      </c>
+      <c r="C233" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D233" s="96" t="s">
+        <v>553</v>
+      </c>
+      <c r="E233" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="84">
+        <v>233</v>
+      </c>
+      <c r="B234" s="86">
+        <v>205</v>
+      </c>
+      <c r="C234" s="88" t="s">
+        <v>567</v>
+      </c>
+      <c r="D234" s="86">
+        <v>10</v>
+      </c>
+      <c r="E234" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="84">
+        <v>234</v>
+      </c>
+      <c r="B235" s="86">
+        <v>206</v>
+      </c>
+      <c r="C235" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D235" s="96" t="s">
+        <v>553</v>
+      </c>
+      <c r="E235" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="84">
+        <v>235</v>
+      </c>
+      <c r="B236" s="86">
+        <v>206</v>
+      </c>
+      <c r="C236" s="88" t="s">
+        <v>558</v>
+      </c>
+      <c r="D236" s="86">
+        <v>10</v>
+      </c>
+      <c r="E236" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="84">
+        <v>236</v>
+      </c>
+      <c r="B237" s="86">
+        <v>207</v>
+      </c>
+      <c r="C237" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D237" s="96" t="s">
+        <v>553</v>
+      </c>
+      <c r="E237" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="84">
+        <v>237</v>
+      </c>
+      <c r="B238" s="86">
+        <v>207</v>
+      </c>
+      <c r="C238" s="88" t="s">
+        <v>574</v>
+      </c>
+      <c r="D238" s="86">
+        <v>10</v>
+      </c>
+      <c r="E238" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="84">
+        <v>238</v>
+      </c>
+      <c r="B239" s="86">
+        <v>208</v>
+      </c>
+      <c r="C239" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D239" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E239" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="84">
+        <v>239</v>
+      </c>
+      <c r="B240" s="86">
+        <v>208</v>
+      </c>
+      <c r="C240" s="88" t="s">
+        <v>558</v>
+      </c>
+      <c r="D240" s="86">
+        <v>20</v>
+      </c>
+      <c r="E240" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="84">
+        <v>240</v>
+      </c>
+      <c r="B241" s="86">
+        <v>209</v>
+      </c>
+      <c r="C241" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D241" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E241" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="84">
+        <v>241</v>
+      </c>
+      <c r="B242" s="86">
+        <v>209</v>
+      </c>
+      <c r="C242" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="D242" s="86">
+        <v>30</v>
+      </c>
+      <c r="E242" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="84">
+        <v>242</v>
+      </c>
+      <c r="B243" s="86">
+        <v>210</v>
+      </c>
+      <c r="C243" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D243" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E243" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="84">
+        <v>243</v>
+      </c>
+      <c r="B244" s="86">
+        <v>210</v>
+      </c>
+      <c r="C244" s="88" t="s">
+        <v>580</v>
+      </c>
+      <c r="D244" s="86">
+        <v>15</v>
+      </c>
+      <c r="E244" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="84">
+        <v>244</v>
+      </c>
+      <c r="B245" s="86">
+        <v>211</v>
+      </c>
+      <c r="C245" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D245" s="96" t="s">
+        <v>559</v>
+      </c>
+      <c r="E245" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="84">
+        <v>245</v>
+      </c>
+      <c r="B246" s="86">
+        <v>211</v>
+      </c>
+      <c r="C246" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D246" s="86">
+        <v>15</v>
+      </c>
+      <c r="E246" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="84">
+        <v>246</v>
+      </c>
+      <c r="B247" s="86">
+        <v>212</v>
+      </c>
+      <c r="C247" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D247" s="96" t="s">
+        <v>577</v>
+      </c>
+      <c r="E247" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="84">
+        <v>247</v>
+      </c>
+      <c r="B248" s="86">
+        <v>212</v>
+      </c>
+      <c r="C248" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D248" s="86">
+        <v>15</v>
+      </c>
+      <c r="E248" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="84">
+        <v>248</v>
+      </c>
+      <c r="B249" s="86">
+        <v>213</v>
+      </c>
+      <c r="C249" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D249" s="96" t="s">
+        <v>578</v>
+      </c>
+      <c r="E249" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="84">
+        <v>249</v>
+      </c>
+      <c r="B250" s="86">
+        <v>213</v>
+      </c>
+      <c r="C250" s="88" t="s">
+        <v>556</v>
+      </c>
+      <c r="D250" s="86">
+        <v>15</v>
+      </c>
+      <c r="E250" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="84">
+        <v>250</v>
+      </c>
+      <c r="B251" s="86">
+        <v>214</v>
+      </c>
+      <c r="C251" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D251" s="96" t="s">
+        <v>579</v>
+      </c>
+      <c r="E251" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="84">
+        <v>251</v>
+      </c>
+      <c r="B252" s="86">
+        <v>214</v>
+      </c>
+      <c r="C252" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D252" s="86">
+        <v>30</v>
+      </c>
+      <c r="E252" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="84">
+        <v>252</v>
+      </c>
+      <c r="B253" s="86">
+        <v>215</v>
+      </c>
+      <c r="C253" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D253" s="96" t="s">
+        <v>577</v>
+      </c>
+      <c r="E253" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="84">
+        <v>253</v>
+      </c>
+      <c r="B254" s="86">
+        <v>215</v>
+      </c>
+      <c r="C254" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D254" s="86">
+        <v>15</v>
+      </c>
+      <c r="E254" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="84">
+        <v>254</v>
+      </c>
+      <c r="B255" s="86">
+        <v>216</v>
+      </c>
+      <c r="C255" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D255" s="96" t="s">
+        <v>577</v>
+      </c>
+      <c r="E255" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="84">
+        <v>255</v>
+      </c>
+      <c r="B256" s="86">
+        <v>216</v>
+      </c>
+      <c r="C256" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D256" s="86">
+        <v>15</v>
+      </c>
+      <c r="E256" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="84">
+        <v>256</v>
+      </c>
+      <c r="B257" s="86">
+        <v>217</v>
+      </c>
+      <c r="C257" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D257" s="96" t="s">
+        <v>568</v>
+      </c>
+      <c r="E257" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="84">
+        <v>257</v>
+      </c>
+      <c r="B258" s="86">
+        <v>217</v>
+      </c>
+      <c r="C258" s="88" t="s">
+        <v>558</v>
+      </c>
+      <c r="D258" s="86">
+        <v>15</v>
+      </c>
+      <c r="E258" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="84">
+        <v>258</v>
+      </c>
+      <c r="B259" s="86">
+        <v>218</v>
+      </c>
+      <c r="C259" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D259" s="96" t="s">
+        <v>579</v>
+      </c>
+      <c r="E259" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="84">
+        <v>259</v>
+      </c>
+      <c r="B260" s="86">
+        <v>218</v>
+      </c>
+      <c r="C260" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D260" s="86">
+        <v>15</v>
+      </c>
+      <c r="E260" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="84">
+        <v>260</v>
+      </c>
+      <c r="B261" s="86">
+        <v>219</v>
+      </c>
+      <c r="C261" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D261" s="96" t="s">
+        <v>582</v>
+      </c>
+      <c r="E261" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="84">
+        <v>261</v>
+      </c>
+      <c r="B262" s="86">
+        <v>219</v>
+      </c>
+      <c r="C262" s="88" t="s">
+        <v>585</v>
+      </c>
+      <c r="D262" s="86">
+        <v>30</v>
+      </c>
+      <c r="E262" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="84">
+        <v>262</v>
+      </c>
+      <c r="B263" s="86">
+        <v>220</v>
+      </c>
+      <c r="C263" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D263" s="96" t="s">
+        <v>577</v>
+      </c>
+      <c r="E263" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="84">
+        <v>263</v>
+      </c>
+      <c r="B264" s="86">
+        <v>220</v>
+      </c>
+      <c r="C264" s="88" t="s">
+        <v>556</v>
+      </c>
+      <c r="D264" s="86">
+        <v>15</v>
+      </c>
+      <c r="E264" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="84">
+        <v>264</v>
+      </c>
+      <c r="B265" s="86">
+        <v>221</v>
+      </c>
+      <c r="C265" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D265" s="96" t="s">
+        <v>568</v>
+      </c>
+      <c r="E265" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="84">
+        <v>265</v>
+      </c>
+      <c r="B266" s="86">
+        <v>221</v>
+      </c>
+      <c r="C266" s="88" t="s">
+        <v>558</v>
+      </c>
+      <c r="D266" s="86">
+        <v>15</v>
+      </c>
+      <c r="E266" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="84">
+        <v>266</v>
+      </c>
+      <c r="B267" s="86">
+        <v>222</v>
+      </c>
+      <c r="C267" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D267" s="96" t="s">
+        <v>584</v>
+      </c>
+      <c r="E267" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="84">
+        <v>267</v>
+      </c>
+      <c r="B268" s="86">
+        <v>222</v>
+      </c>
+      <c r="C268" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D268" s="86">
+        <v>15</v>
+      </c>
+      <c r="E268" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="84">
+        <v>268</v>
+      </c>
+      <c r="B269" s="86">
+        <v>223</v>
+      </c>
+      <c r="C269" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D269" s="96" t="s">
+        <v>579</v>
+      </c>
+      <c r="E269" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="84">
+        <v>269</v>
+      </c>
+      <c r="B270" s="86">
+        <v>223</v>
+      </c>
+      <c r="C270" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D270" s="86">
+        <v>20</v>
+      </c>
+      <c r="E270" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="84">
+        <v>270</v>
+      </c>
+      <c r="B271" s="86">
+        <v>224</v>
+      </c>
+      <c r="C271" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D271" s="96" t="s">
+        <v>582</v>
+      </c>
+      <c r="E271" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="84">
+        <v>271</v>
+      </c>
+      <c r="B272" s="86">
+        <v>224</v>
+      </c>
+      <c r="C272" s="88" t="s">
+        <v>558</v>
+      </c>
+      <c r="D272" s="86">
+        <v>30</v>
+      </c>
+      <c r="E272" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="84">
+        <v>272</v>
+      </c>
+      <c r="B273" s="86">
+        <v>225</v>
+      </c>
+      <c r="C273" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D273" s="96" t="s">
+        <v>579</v>
+      </c>
+      <c r="E273" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="84">
+        <v>273</v>
+      </c>
+      <c r="B274" s="86">
+        <v>225</v>
+      </c>
+      <c r="C274" s="88" t="s">
+        <v>556</v>
+      </c>
+      <c r="D274" s="86">
+        <v>15</v>
+      </c>
+      <c r="E274" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="84">
+        <v>274</v>
+      </c>
+      <c r="B275" s="86">
+        <v>226</v>
+      </c>
+      <c r="C275" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D275" s="96" t="s">
+        <v>579</v>
+      </c>
+      <c r="E275" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="84">
+        <v>275</v>
+      </c>
+      <c r="B276" s="86">
+        <v>226</v>
+      </c>
+      <c r="C276" s="88" t="s">
+        <v>558</v>
+      </c>
+      <c r="D276" s="86">
+        <v>15</v>
+      </c>
+      <c r="E276" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="84">
+        <v>276</v>
+      </c>
+      <c r="B277" s="86">
+        <v>227</v>
+      </c>
+      <c r="C277" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D277" s="96" t="s">
+        <v>582</v>
+      </c>
+      <c r="E277" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="84">
+        <v>277</v>
+      </c>
+      <c r="B278" s="86">
+        <v>227</v>
+      </c>
+      <c r="C278" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D278" s="86">
+        <v>15</v>
+      </c>
+      <c r="E278" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="84">
+        <v>278</v>
+      </c>
+      <c r="B279" s="86">
+        <v>228</v>
+      </c>
+      <c r="C279" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D279" s="96" t="s">
+        <v>582</v>
+      </c>
+      <c r="E279" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="84">
+        <v>279</v>
+      </c>
+      <c r="B280" s="86">
+        <v>228</v>
+      </c>
+      <c r="C280" s="88" t="s">
+        <v>556</v>
+      </c>
+      <c r="D280" s="86">
+        <v>20</v>
+      </c>
+      <c r="E280" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="84">
+        <v>280</v>
+      </c>
+      <c r="B281" s="86">
+        <v>229</v>
+      </c>
+      <c r="C281" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D281" s="96" t="s">
+        <v>582</v>
+      </c>
+      <c r="E281" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="84">
+        <v>281</v>
+      </c>
+      <c r="B282" s="86">
+        <v>229</v>
+      </c>
+      <c r="C282" s="88" t="s">
+        <v>587</v>
+      </c>
+      <c r="D282" s="86">
+        <v>30</v>
+      </c>
+      <c r="E282" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="84">
+        <v>282</v>
+      </c>
+      <c r="B283" s="86">
+        <v>230</v>
+      </c>
+      <c r="C283" s="88" t="s">
+        <v>588</v>
+      </c>
+      <c r="D283" s="86">
+        <v>259200</v>
+      </c>
+      <c r="E283" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="84">
+        <v>283</v>
+      </c>
+      <c r="B284" s="86">
+        <v>231</v>
+      </c>
+      <c r="C284" s="88" t="s">
+        <v>590</v>
+      </c>
+      <c r="D284" s="86">
+        <v>80000</v>
+      </c>
+      <c r="E284" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="84">
+        <v>284</v>
+      </c>
+      <c r="B285" s="86">
+        <v>232</v>
+      </c>
+      <c r="C285" s="88" t="s">
+        <v>561</v>
+      </c>
+      <c r="D285" s="86">
+        <v>100</v>
+      </c>
+      <c r="E285" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="84">
+        <v>285</v>
+      </c>
+      <c r="B286" s="86">
+        <v>233</v>
+      </c>
+      <c r="C286" s="88" t="s">
+        <v>591</v>
+      </c>
+      <c r="D286" s="86">
+        <v>500</v>
+      </c>
+      <c r="E286" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="84">
+        <v>286</v>
+      </c>
+      <c r="B287" s="86">
+        <v>234</v>
+      </c>
+      <c r="C287" s="88" t="s">
+        <v>591</v>
+      </c>
+      <c r="D287" s="86">
+        <v>1500</v>
+      </c>
+      <c r="E287" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="84">
+        <v>287</v>
+      </c>
+      <c r="B288" s="86">
+        <v>235</v>
+      </c>
+      <c r="C288" s="88" t="s">
+        <v>591</v>
+      </c>
+      <c r="D288" s="86">
+        <v>3000</v>
+      </c>
+      <c r="E288" s="86">
         <v>1</v>
       </c>
     </row>
@@ -17771,10 +21266,10 @@
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="98" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="80">
+      <c r="C2" s="98">
         <v>1</v>
       </c>
     </row>
@@ -17782,8 +21277,8 @@
       <c r="A3" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -17833,10 +21328,10 @@
       <c r="A8" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="98" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="98" t="s">
         <v>423</v>
       </c>
     </row>
@@ -17844,17 +21339,17 @@
       <c r="A9" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="98" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="98">
         <v>1</v>
       </c>
     </row>
@@ -17862,8 +21357,8 @@
       <c r="A11" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -17968,10 +21463,10 @@
       <c r="A21" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="99" t="s">
         <v>445</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="99">
         <v>1</v>
       </c>
     </row>
@@ -17979,8 +21474,8 @@
       <c r="A22" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -50986,10 +54481,10 @@
       <c r="A45" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="98" t="s">
         <v>478</v>
       </c>
-      <c r="C45" s="80" t="s">
+      <c r="C45" s="98" t="s">
         <v>423</v>
       </c>
     </row>
@@ -50997,8 +54492,8 @@
       <c r="A46" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">

--- a/config_Release/task_server.xlsx
+++ b/config_Release/task_server.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="618">
   <si>
     <t>id|任务id</t>
   </si>
@@ -3080,6 +3080,88 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>疯狂返利（新用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_crary_rebate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_crary_rebate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_crary_rebate_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>236,236</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,40000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,200000,200000,300000,200000,1000000,1500000,5500000,9000000,12000000,20000000,40000000,60000000,100000000,200000000,300000000,250000000,500000000,1500000000,2000000000,5000000000,20000000000,30000000000,40000000000,50000000000,50000000000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,3200,6000,10000,20000,50000,60000,50000,80000,120000,250000,400000,400000,400000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>236,236,237</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,238,239,240,241,242,243,244,245,246,247,248,249,250,251,252,253,254,255,256,257,258,259,260</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>61,262,263,264,265,266,267,268,269,270,271,272,273,274</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3142,7 +3224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3227,6 +3309,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3267,7 +3355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3530,6 +3618,25 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3815,11 +3922,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U132"/>
+  <dimension ref="A1:U135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" activeCellId="1" sqref="D128 F115"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7322,7 +7429,7 @@
         <v>1619452800</v>
       </c>
       <c r="J97" s="12">
-        <v>32503651200</v>
+        <v>1635004799</v>
       </c>
       <c r="K97" s="12">
         <v>-1</v>
@@ -7360,7 +7467,7 @@
         <v>1619452800</v>
       </c>
       <c r="J98" s="12">
-        <v>32503651200</v>
+        <v>1635004799</v>
       </c>
       <c r="K98" s="12">
         <v>-1</v>
@@ -8661,6 +8768,120 @@
         <v>-1</v>
       </c>
       <c r="L132" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="84">
+        <v>30033</v>
+      </c>
+      <c r="B133" s="12">
+        <v>1</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="F133" s="12">
+        <v>133</v>
+      </c>
+      <c r="G133" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" s="12">
+        <v>1</v>
+      </c>
+      <c r="I133" s="12">
+        <v>1635177600</v>
+      </c>
+      <c r="J133" s="12">
+        <v>32503651200</v>
+      </c>
+      <c r="K133" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L133" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="84">
+        <v>30034</v>
+      </c>
+      <c r="B134" s="12">
+        <v>1</v>
+      </c>
+      <c r="C134" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D134" s="50" t="s">
+        <v>605</v>
+      </c>
+      <c r="E134" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F134" s="12">
+        <v>134</v>
+      </c>
+      <c r="G134" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="12">
+        <v>20</v>
+      </c>
+      <c r="I134" s="12">
+        <v>1635177600</v>
+      </c>
+      <c r="J134" s="12">
+        <v>32503651200</v>
+      </c>
+      <c r="K134" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L134" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="84">
+        <v>30035</v>
+      </c>
+      <c r="B135" s="12">
+        <v>1</v>
+      </c>
+      <c r="C135" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D135" s="50" t="s">
+        <v>607</v>
+      </c>
+      <c r="E135" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F135" s="12">
+        <v>135</v>
+      </c>
+      <c r="G135" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="12">
+        <v>20</v>
+      </c>
+      <c r="I135" s="12">
+        <v>1635177600</v>
+      </c>
+      <c r="J135" s="12">
+        <v>32503651200</v>
+      </c>
+      <c r="K135" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L135" s="12">
         <v>1</v>
       </c>
     </row>
@@ -8674,11 +8895,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H122" sqref="H122"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12020,6 +12241,78 @@
       <c r="I133" s="88" t="s">
         <v>530</v>
       </c>
+    </row>
+    <row r="134" spans="1:9" s="101" customFormat="1">
+      <c r="A134" s="98">
+        <v>133</v>
+      </c>
+      <c r="B134" s="98">
+        <v>133</v>
+      </c>
+      <c r="C134" s="99"/>
+      <c r="D134" s="99">
+        <v>96</v>
+      </c>
+      <c r="E134" s="99"/>
+      <c r="F134" s="100" t="s">
+        <v>612</v>
+      </c>
+      <c r="G134" s="99"/>
+      <c r="H134" s="100" t="s">
+        <v>610</v>
+      </c>
+      <c r="I134" s="99" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="101" customFormat="1" ht="57">
+      <c r="A135" s="98">
+        <v>134</v>
+      </c>
+      <c r="B135" s="98">
+        <v>134</v>
+      </c>
+      <c r="C135" s="99"/>
+      <c r="D135" s="99">
+        <v>96</v>
+      </c>
+      <c r="E135" s="99"/>
+      <c r="F135" s="102" t="s">
+        <v>613</v>
+      </c>
+      <c r="G135" s="99"/>
+      <c r="H135" s="103" t="s">
+        <v>616</v>
+      </c>
+      <c r="I135" s="99" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="101" customFormat="1" ht="28.5">
+      <c r="A136" s="98">
+        <v>135</v>
+      </c>
+      <c r="B136" s="98">
+        <v>135</v>
+      </c>
+      <c r="C136" s="99"/>
+      <c r="D136" s="99">
+        <v>97</v>
+      </c>
+      <c r="E136" s="99"/>
+      <c r="F136" s="102" t="s">
+        <v>615</v>
+      </c>
+      <c r="G136" s="99"/>
+      <c r="H136" s="103" t="s">
+        <v>617</v>
+      </c>
+      <c r="I136" s="99" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="H137" s="91"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -14019,7 +14312,7 @@
       <c r="D120" s="18">
         <v>0</v>
       </c>
-      <c r="F120" s="97" t="s">
+      <c r="F120" s="104" t="s">
         <v>282</v>
       </c>
     </row>
@@ -14036,7 +14329,7 @@
       <c r="D121" s="18">
         <v>0</v>
       </c>
-      <c r="F121" s="97"/>
+      <c r="F121" s="104"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="20">
@@ -14051,7 +14344,7 @@
       <c r="D122" s="18">
         <v>0</v>
       </c>
-      <c r="F122" s="97"/>
+      <c r="F122" s="104"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="20">
@@ -14066,7 +14359,7 @@
       <c r="D123" s="18">
         <v>0</v>
       </c>
-      <c r="F123" s="97"/>
+      <c r="F123" s="104"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="20">
@@ -14081,7 +14374,7 @@
       <c r="D124" s="18">
         <v>0</v>
       </c>
-      <c r="F124" s="97"/>
+      <c r="F124" s="104"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="20">
@@ -14096,7 +14389,7 @@
       <c r="D125" s="18">
         <v>0</v>
       </c>
-      <c r="F125" s="97"/>
+      <c r="F125" s="104"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="20">
@@ -14111,7 +14404,7 @@
       <c r="D126" s="18">
         <v>0</v>
       </c>
-      <c r="F126" s="97"/>
+      <c r="F126" s="104"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="20">
@@ -14126,7 +14419,7 @@
       <c r="D127" s="18">
         <v>0</v>
       </c>
-      <c r="F127" s="97"/>
+      <c r="F127" s="104"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="20">
@@ -14141,7 +14434,7 @@
       <c r="D128" s="18">
         <v>0</v>
       </c>
-      <c r="F128" s="97"/>
+      <c r="F128" s="104"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="20">
@@ -14156,7 +14449,7 @@
       <c r="D129" s="18">
         <v>0</v>
       </c>
-      <c r="F129" s="97"/>
+      <c r="F129" s="104"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="20">
@@ -14171,7 +14464,7 @@
       <c r="D130" s="18">
         <v>0</v>
       </c>
-      <c r="F130" s="97"/>
+      <c r="F130" s="104"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="20">
@@ -14186,7 +14479,7 @@
       <c r="D131" s="18">
         <v>0</v>
       </c>
-      <c r="F131" s="97"/>
+      <c r="F131" s="104"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="20">
@@ -14201,7 +14494,7 @@
       <c r="D132" s="18">
         <v>0</v>
       </c>
-      <c r="F132" s="97"/>
+      <c r="F132" s="104"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="20">
@@ -14216,7 +14509,7 @@
       <c r="D133" s="18">
         <v>0</v>
       </c>
-      <c r="F133" s="97"/>
+      <c r="F133" s="104"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="20">
@@ -14231,7 +14524,7 @@
       <c r="D134" s="18">
         <v>0</v>
       </c>
-      <c r="F134" s="97"/>
+      <c r="F134" s="104"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="20">
@@ -14246,7 +14539,7 @@
       <c r="D135" s="18">
         <v>0</v>
       </c>
-      <c r="F135" s="97"/>
+      <c r="F135" s="104"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="20">
@@ -16026,11 +16319,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:I288"/>
+  <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B210" sqref="B210:E211"/>
+      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B327" sqref="B327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -21120,10 +21413,673 @@
         <v>1</v>
       </c>
     </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="12">
+        <v>288</v>
+      </c>
+      <c r="B289" s="4">
+        <v>236</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D289" s="4">
+        <v>5</v>
+      </c>
+      <c r="E289" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="12">
+        <v>289</v>
+      </c>
+      <c r="B290" s="4">
+        <v>237</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D290" s="4">
+        <v>10</v>
+      </c>
+      <c r="E290" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="12">
+        <v>290</v>
+      </c>
+      <c r="B291" s="97">
+        <v>238</v>
+      </c>
+      <c r="C291" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D291" s="4">
+        <v>20</v>
+      </c>
+      <c r="E291" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="12">
+        <v>291</v>
+      </c>
+      <c r="B292" s="97">
+        <v>239</v>
+      </c>
+      <c r="C292" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D292" s="4">
+        <v>30</v>
+      </c>
+      <c r="E292" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="12">
+        <v>292</v>
+      </c>
+      <c r="B293" s="97">
+        <v>240</v>
+      </c>
+      <c r="C293" s="97" t="s">
+        <v>561</v>
+      </c>
+      <c r="D293" s="4">
+        <v>50</v>
+      </c>
+      <c r="E293" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="12">
+        <v>293</v>
+      </c>
+      <c r="B294" s="97">
+        <v>241</v>
+      </c>
+      <c r="C294" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D294" s="4">
+        <v>100</v>
+      </c>
+      <c r="E294" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="12">
+        <v>294</v>
+      </c>
+      <c r="B295" s="97">
+        <v>242</v>
+      </c>
+      <c r="C295" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D295" s="4">
+        <v>120</v>
+      </c>
+      <c r="E295" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="12">
+        <v>295</v>
+      </c>
+      <c r="B296" s="97">
+        <v>243</v>
+      </c>
+      <c r="C296" s="97" t="s">
+        <v>561</v>
+      </c>
+      <c r="D296" s="4">
+        <v>150</v>
+      </c>
+      <c r="E296" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="12">
+        <v>296</v>
+      </c>
+      <c r="B297" s="97">
+        <v>244</v>
+      </c>
+      <c r="C297" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D297" s="4">
+        <v>180</v>
+      </c>
+      <c r="E297" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="12">
+        <v>297</v>
+      </c>
+      <c r="B298" s="97">
+        <v>245</v>
+      </c>
+      <c r="C298" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D298" s="4">
+        <v>240</v>
+      </c>
+      <c r="E298" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="12">
+        <v>298</v>
+      </c>
+      <c r="B299" s="97">
+        <v>246</v>
+      </c>
+      <c r="C299" s="97" t="s">
+        <v>561</v>
+      </c>
+      <c r="D299" s="4">
+        <v>350</v>
+      </c>
+      <c r="E299" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="12">
+        <v>299</v>
+      </c>
+      <c r="B300" s="97">
+        <v>247</v>
+      </c>
+      <c r="C300" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D300" s="4">
+        <v>600</v>
+      </c>
+      <c r="E300" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="12">
+        <v>300</v>
+      </c>
+      <c r="B301" s="97">
+        <v>248</v>
+      </c>
+      <c r="C301" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D301" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E301" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="12">
+        <v>301</v>
+      </c>
+      <c r="B302" s="97">
+        <v>249</v>
+      </c>
+      <c r="C302" s="97" t="s">
+        <v>561</v>
+      </c>
+      <c r="D302" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E302" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="12">
+        <v>302</v>
+      </c>
+      <c r="B303" s="97">
+        <v>250</v>
+      </c>
+      <c r="C303" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D303" s="4">
+        <v>2400</v>
+      </c>
+      <c r="E303" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="12">
+        <v>303</v>
+      </c>
+      <c r="B304" s="97">
+        <v>251</v>
+      </c>
+      <c r="C304" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D304" s="4">
+        <v>3600</v>
+      </c>
+      <c r="E304" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="12">
+        <v>304</v>
+      </c>
+      <c r="B305" s="97">
+        <v>252</v>
+      </c>
+      <c r="C305" s="97" t="s">
+        <v>561</v>
+      </c>
+      <c r="D305" s="4">
+        <v>4200</v>
+      </c>
+      <c r="E305" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="12">
+        <v>305</v>
+      </c>
+      <c r="B306" s="97">
+        <v>253</v>
+      </c>
+      <c r="C306" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D306" s="4">
+        <v>5400</v>
+      </c>
+      <c r="E306" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="12">
+        <v>306</v>
+      </c>
+      <c r="B307" s="97">
+        <v>254</v>
+      </c>
+      <c r="C307" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D307" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E307" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="12">
+        <v>307</v>
+      </c>
+      <c r="B308" s="97">
+        <v>255</v>
+      </c>
+      <c r="C308" s="97" t="s">
+        <v>561</v>
+      </c>
+      <c r="D308" s="4">
+        <v>30000</v>
+      </c>
+      <c r="E308" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="12">
+        <v>308</v>
+      </c>
+      <c r="B309" s="97">
+        <v>256</v>
+      </c>
+      <c r="C309" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D309" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E309" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="12">
+        <v>309</v>
+      </c>
+      <c r="B310" s="97">
+        <v>257</v>
+      </c>
+      <c r="C310" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D310" s="4">
+        <v>120000</v>
+      </c>
+      <c r="E310" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="12">
+        <v>310</v>
+      </c>
+      <c r="B311" s="97">
+        <v>258</v>
+      </c>
+      <c r="C311" s="97" t="s">
+        <v>561</v>
+      </c>
+      <c r="D311" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E311" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="12">
+        <v>311</v>
+      </c>
+      <c r="B312" s="97">
+        <v>259</v>
+      </c>
+      <c r="C312" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D312" s="4">
+        <v>400000</v>
+      </c>
+      <c r="E312" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="12">
+        <v>312</v>
+      </c>
+      <c r="B313" s="97">
+        <v>260</v>
+      </c>
+      <c r="C313" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D313" s="4">
+        <v>600000</v>
+      </c>
+      <c r="E313" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="12">
+        <v>313</v>
+      </c>
+      <c r="B314" s="97">
+        <v>261</v>
+      </c>
+      <c r="C314" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D314" s="4">
+        <v>300</v>
+      </c>
+      <c r="E314" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="12">
+        <v>314</v>
+      </c>
+      <c r="B315" s="97">
+        <v>262</v>
+      </c>
+      <c r="C315" s="97" t="s">
+        <v>561</v>
+      </c>
+      <c r="D315" s="4">
+        <v>400</v>
+      </c>
+      <c r="E315" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="12">
+        <v>315</v>
+      </c>
+      <c r="B316" s="97">
+        <v>263</v>
+      </c>
+      <c r="C316" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D316" s="4">
+        <v>500</v>
+      </c>
+      <c r="E316" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="12">
+        <v>316</v>
+      </c>
+      <c r="B317" s="97">
+        <v>264</v>
+      </c>
+      <c r="C317" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D317" s="4">
+        <v>600</v>
+      </c>
+      <c r="E317" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="12">
+        <v>317</v>
+      </c>
+      <c r="B318" s="97">
+        <v>265</v>
+      </c>
+      <c r="C318" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D318" s="4">
+        <v>700</v>
+      </c>
+      <c r="E318" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="12">
+        <v>318</v>
+      </c>
+      <c r="B319" s="97">
+        <v>266</v>
+      </c>
+      <c r="C319" s="97" t="s">
+        <v>561</v>
+      </c>
+      <c r="D319" s="4">
+        <v>900</v>
+      </c>
+      <c r="E319" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="12">
+        <v>319</v>
+      </c>
+      <c r="B320" s="97">
+        <v>267</v>
+      </c>
+      <c r="C320" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D320" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E320" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="12">
+        <v>320</v>
+      </c>
+      <c r="B321" s="97">
+        <v>268</v>
+      </c>
+      <c r="C321" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D321" s="4">
+        <v>2400</v>
+      </c>
+      <c r="E321" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="12">
+        <v>321</v>
+      </c>
+      <c r="B322" s="97">
+        <v>269</v>
+      </c>
+      <c r="C322" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D322" s="4">
+        <v>4800</v>
+      </c>
+      <c r="E322" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="12">
+        <v>322</v>
+      </c>
+      <c r="B323" s="97">
+        <v>270</v>
+      </c>
+      <c r="C323" s="97" t="s">
+        <v>561</v>
+      </c>
+      <c r="D323" s="4">
+        <v>7200</v>
+      </c>
+      <c r="E323" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="12">
+        <v>323</v>
+      </c>
+      <c r="B324" s="97">
+        <v>271</v>
+      </c>
+      <c r="C324" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D324" s="4">
+        <v>12000</v>
+      </c>
+      <c r="E324" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="12">
+        <v>324</v>
+      </c>
+      <c r="B325" s="97">
+        <v>272</v>
+      </c>
+      <c r="C325" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D325" s="4">
+        <v>18000</v>
+      </c>
+      <c r="E325" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="12">
+        <v>325</v>
+      </c>
+      <c r="B326" s="97">
+        <v>273</v>
+      </c>
+      <c r="C326" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="D326" s="4">
+        <v>48000</v>
+      </c>
+      <c r="E326" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="12">
+        <v>326</v>
+      </c>
+      <c r="B327" s="97">
+        <v>274</v>
+      </c>
+      <c r="C327" s="97" t="s">
+        <v>561</v>
+      </c>
+      <c r="D327" s="4">
+        <v>120000</v>
+      </c>
+      <c r="E327" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21266,10 +22222,10 @@
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="105" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="98">
+      <c r="C2" s="105">
         <v>1</v>
       </c>
     </row>
@@ -21277,8 +22233,8 @@
       <c r="A3" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -21328,10 +22284,10 @@
       <c r="A8" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="105" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="105" t="s">
         <v>423</v>
       </c>
     </row>
@@ -21339,17 +22295,17 @@
       <c r="A9" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="105" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="105">
         <v>1</v>
       </c>
     </row>
@@ -21357,8 +22313,8 @@
       <c r="A11" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -21463,10 +22419,10 @@
       <c r="A21" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="106" t="s">
         <v>445</v>
       </c>
-      <c r="C21" s="99">
+      <c r="C21" s="106">
         <v>1</v>
       </c>
     </row>
@@ -21474,8 +22430,8 @@
       <c r="A22" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -54481,10 +55437,10 @@
       <c r="A45" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="105" t="s">
         <v>478</v>
       </c>
-      <c r="C45" s="98" t="s">
+      <c r="C45" s="105" t="s">
         <v>423</v>
       </c>
     </row>
@@ -54492,8 +55448,8 @@
       <c r="A46" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="98"/>
-      <c r="C46" s="98"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -54596,16 +55552,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
